--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_149.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_149.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32589-d77488-Reviews-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>186</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Courtyard-By-Marriott-Laguna-Hills-Irvine-Spectrum.h10566.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_149.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_149.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="828">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2374 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r546001444-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>32589</t>
+  </si>
+  <si>
+    <t>77488</t>
+  </si>
+  <si>
+    <t>546001444</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>Room Reeked of Cigarettes and Double Charged Me!</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE, THEY WILL TAKE YOUR MONEY!Arrived Thanksgiving evening at 7pm, got to our room and it absolutely reeked of cigarette smoke. So nasty, couldn't imagine sleeping in the room without having all our belongings smell. Called the front desk, she offered to put us in a different room down the hall.Nothing much to report, check out the next day. Didn't make any purchase or eat there and left at 8am. However, I look at my credit card statement and find they charged me for the room!I paid via Expedia but the hotel charged me too. I spent 90 minutes with Expedia, they called the Hotel and insisted it was for "incidentals" sorry but what could possibly cost $123.08 at their hotel, there's no spa or services! The hotel could not tell me what these charges were for either. Expedia said I'd have to speak to their manager. I have called the hotel 3 days in a row and left a voicemail with their manager. Clearly no one wants to deal with me and refund my money. Now I have to dispute the charge with the credit card company.  Not an apology, no "sorry but let us look into this" NOTHINGMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE, THEY WILL TAKE YOUR MONEY!Arrived Thanksgiving evening at 7pm, got to our room and it absolutely reeked of cigarette smoke. So nasty, couldn't imagine sleeping in the room without having all our belongings smell. Called the front desk, she offered to put us in a different room down the hall.Nothing much to report, check out the next day. Didn't make any purchase or eat there and left at 8am. However, I look at my credit card statement and find they charged me for the room!I paid via Expedia but the hotel charged me too. I spent 90 minutes with Expedia, they called the Hotel and insisted it was for "incidentals" sorry but what could possibly cost $123.08 at their hotel, there's no spa or services! The hotel could not tell me what these charges were for either. Expedia said I'd have to speak to their manager. I have called the hotel 3 days in a row and left a voicemail with their manager. Clearly no one wants to deal with me and refund my money. Now I have to dispute the charge with the credit card company.  Not an apology, no "sorry but let us look into this" NOTHINGMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r544454525-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>544454525</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>Great location well kept facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can’t beat the location close to everything a older property but well maintained convenient on site food available . You can get alcohol but there really is not a bar per se. .  Small exercise room however the clientele doesn’t seem to use it much so it is available shop the rates since they can vary greatly. </t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r526635895-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>526635895</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Clean room and easy internet access</t>
+  </si>
+  <si>
+    <t>We would have given five for the cleanness and the friendly staff in the front desk, Mike , but while we had requested a quiet room away from Highway, we ended up with a room right next to it. The room was clean and nice ... we just spent 2 nights here so everything seems fine except the noise level</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r516081907-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>516081907</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Calm, clean and quiet!</t>
+  </si>
+  <si>
+    <t>I was there for my brothers "celebration of life" events in Laguna. I picked this hotel first because of it being a Marriott property and secondly, the location to Laguna Woods where my father of 96 lives. This Courtyard was very quiet, clean and as usual, had very accommodating Associates. I would highly recommend this facility to anyone looking for a great location and a very friendly and professionally managed property.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r509480035-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>509480035</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Average but it works</t>
+  </si>
+  <si>
+    <t>Location near the freeway is good if you're staying here in order to visit somewhere locally, otherwise it's a bit odd. Rooms are spacious, but quite dated and old. Lobby area is ok though the bar and coffee area is not staffed during the day. Basically a decent place for a quick stop on your way somewhere or to visit friends / family in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r505308666-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>505308666</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Solid hotel</t>
+  </si>
+  <si>
+    <t>Stayed recently with family. Convenient to freeways. Within an hour of many attractions - ferrys, beaches, theme parks, hiking, UC Irvine, OC Great Park, etc. Small issue with front desk as we made reservations in a room block for two nights, and added a third. Initially told we could keep same room; then first morning as we were leaving to catch a ferry told we'd need to move our stuff. Staff eventually gave us the ok to stay in same room but were reluctant to do so. Learned lesson - get message in in system when making reservation; clarify and get staff name when checking in!Room clean, nice AM and PM bistro.  Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Stayed recently with family. Convenient to freeways. Within an hour of many attractions - ferrys, beaches, theme parks, hiking, UC Irvine, OC Great Park, etc. Small issue with front desk as we made reservations in a room block for two nights, and added a third. Initially told we could keep same room; then first morning as we were leaving to catch a ferry told we'd need to move our stuff. Staff eventually gave us the ok to stay in same room but were reluctant to do so. Learned lesson - get message in in system when making reservation; clarify and get staff name when checking in!Room clean, nice AM and PM bistro.  Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r477530353-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>477530353</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Nice Courtyard</t>
+  </si>
+  <si>
+    <t>Stayed here 3 nights, while in town on business. The property is conveniently located near many restaurants, and it has easy access to the freeway. The property itself is well maintained, both inside and out.The staff is very friendly and professional.I had a first floor room near the side exit, which made for an easy in or out of the hotel.As a Platinum for Life/Platinum Premier status holder, I would recommend this property highly.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r472557977-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>472557977</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Worst Marriott Experience</t>
+  </si>
+  <si>
+    <t>I booked my stay for three nights and left after one. The hotel is on a random area right next to the freeway with an awkward entrance. The lobby is remodeled to Courtyard standards, but the rooms were not. This Courtyard seemed to have done the minimal remodeling efforts (poor lighting, bad design, popcorn textured ceilings, bad wallpaper/paint jobs) and the rooms (especially the King) were small. The staff was on one hand pleasant and on the other hand rude at the same time. Both front desk agents (I was passed off because one was over time and needed to leave) became easily annoyed and frustrated by simple common hospitality requests (especially when most of my preferences are already linked to my rewards account). If I had the patience and wasn't so tired, I would have gone to another property that night.Better staff and attention to detail when it comes to the sleeping rooms is needed. This property needs to be brought up to the Marriott standards to which I am accustomed. Until then, I will not be returning. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>I booked my stay for three nights and left after one. The hotel is on a random area right next to the freeway with an awkward entrance. The lobby is remodeled to Courtyard standards, but the rooms were not. This Courtyard seemed to have done the minimal remodeling efforts (poor lighting, bad design, popcorn textured ceilings, bad wallpaper/paint jobs) and the rooms (especially the King) were small. The staff was on one hand pleasant and on the other hand rude at the same time. Both front desk agents (I was passed off because one was over time and needed to leave) became easily annoyed and frustrated by simple common hospitality requests (especially when most of my preferences are already linked to my rewards account). If I had the patience and wasn't so tired, I would have gone to another property that night.Better staff and attention to detail when it comes to the sleeping rooms is needed. This property needs to be brought up to the Marriott standards to which I am accustomed. Until then, I will not be returning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r463238860-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>463238860</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Probably my worst Marriott experience ever. Front desk staff was not friendly upon check-in. There was an issue with our booking and I was okay with the changes. Only thing that bothered me was how the person at the front desk approached my situation. Very cold and unwelcoming. We had a long day of travels and at this point we were not going to look around for a hotel at 11pm. We were placed on the 2nd floor directly near the elevator and we could hear noise from the washing machines near by. We were in and out of the hotel most of our stay, and from the service we had received upon check-in we didn't want to bother asking to switch rooms. The following couple days we also noticed that we were overcharged and when I asked the front desk as to why we were over charged the agent simply "didn't know". Unacceptable. Service is a big part of my review and the customer service just wasn't up to par. Property is nice rooms are decently clean, we didn't have any food at the hotel or try any other services but the lobby/lounge area looked nice. Unfortunately due to the service we most likely will not be returning. MoreShow less</t>
+  </si>
+  <si>
+    <t>Probably my worst Marriott experience ever. Front desk staff was not friendly upon check-in. There was an issue with our booking and I was okay with the changes. Only thing that bothered me was how the person at the front desk approached my situation. Very cold and unwelcoming. We had a long day of travels and at this point we were not going to look around for a hotel at 11pm. We were placed on the 2nd floor directly near the elevator and we could hear noise from the washing machines near by. We were in and out of the hotel most of our stay, and from the service we had received upon check-in we didn't want to bother asking to switch rooms. The following couple days we also noticed that we were overcharged and when I asked the front desk as to why we were over charged the agent simply "didn't know". Unacceptable. Service is a big part of my review and the customer service just wasn't up to par. Property is nice rooms are decently clean, we didn't have any food at the hotel or try any other services but the lobby/lounge area looked nice. Unfortunately due to the service we most likely will not be returning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r454745052-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>454745052</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>The hotel is well priced for the area. It is getting old but it is clean. The beds are comfortable , rooms have enough space. The staff at the reception is friendly and helpful. The only problem of my stay was the fact that room cleaning service arrived past 3 pm when they had from 7 am to 3 pm to clean the room. So I had to vacate the room for them to clean when I had work to do to finish my day! They need to organize their cleaning serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded January 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is well priced for the area. It is getting old but it is clean. The beds are comfortable , rooms have enough space. The staff at the reception is friendly and helpful. The only problem of my stay was the fact that room cleaning service arrived past 3 pm when they had from 7 am to 3 pm to clean the room. So I had to vacate the room for them to clean when I had work to do to finish my day! They need to organize their cleaning serviceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r454310099-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>454310099</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>Late night decision to stay - but these guys are great!</t>
+  </si>
+  <si>
+    <t>I got here at the Courtyard around 9:00.  It was a late night  decision to stay here, but when I got to the hotel I received a lot of help from the front desk.  Her name was Vivian, and she helped me with all the forms I was trying to use to get a small discount on the room.  She went way out of the way to help, more than I am use to.The room was small but clean.  It gave me a good nights sleep.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r436944185-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>436944185</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>After a lomng and busy week in L.A, I stopped here on my way to San Diego. Spent to night, got great nights of sleep. They have a nice pool and really easy to access to the highway. Small minus is to soft beds,.Many restauraunts near by. Rooms are "ok", internet works, TVs little bit outdated. All fine, four stars</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r420264354-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>420264354</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>good value</t>
+  </si>
+  <si>
+    <t>I stay here on my business trip when traveling to Irvine. Nice Clean Hotel with good serviceLike all courtyard hotels, good food area with coffee/basic food. Location is great as it's close to the highway and close to Irvine Spectrum</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r417702799-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>417702799</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Great property and very conveniently located</t>
+  </si>
+  <si>
+    <t>This property has great highway access as well as plenty of food choices close. The staff were all outstanding. The property, common areas and pool were very clean. My room was very clean, including the carpet, but there were noticeable permanent carpet stains and it needed replacement regardless of normal remodeling cycles. Definitely not up to Marriott standard, which is the only reason this is a "Very Good" instead of "Excellent" rating. I still highly recommend this property. I could have asked for a different room but I only had about 8 hours to spend at the hotel.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r412025763-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>412025763</t>
+  </si>
+  <si>
+    <t>08/28/2016</t>
+  </si>
+  <si>
+    <t>Doesn't measure up to Courtyard standards, particularly when it comes to customer service. Asked for a room with two beds and was given one bed and an uncomfortable sofa bed that didn't even come with sheets. (Had to ask for it to be made up when we arrived at 11 pm.) Ice machine on ground floor was broken. Then we were double-billed on credit card and am still pursuing that complaint.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2016</t>
+  </si>
+  <si>
+    <t>Doesn't measure up to Courtyard standards, particularly when it comes to customer service. Asked for a room with two beds and was given one bed and an uncomfortable sofa bed that didn't even come with sheets. (Had to ask for it to be made up when we arrived at 11 pm.) Ice machine on ground floor was broken. Then we were double-billed on credit card and am still pursuing that complaint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r409030439-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>409030439</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>Laguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Courtyard Laguna Hills is the perfect base to explore areas from Laguna Beach to San Juan Capistrano. All the usual Courtyard features. Clean, friendly staff, serviceable pool, etc. reasonable rates. They do not disappoint. But the location is probably the best, lots of restaurants nearby and rt 5 is right there </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r406792696-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>406792696</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Functional not Comfortable </t>
+  </si>
+  <si>
+    <t>Typically, Marriott brand hotels offer excellent comfort.  Unfortunately, I found the bed to be a bit too firm (woke up with a back ache 2 days in a row) and the couch I my king room was uncomfortable -- difficult to sit and watch TV without slouching against stiff cushions.The shower head was old and in need of replacing, but the bathroom was large and clean with decent lighting.The room overall was clean and the bathroom and bed were functional, just not comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Typically, Marriott brand hotels offer excellent comfort.  Unfortunately, I found the bed to be a bit too firm (woke up with a back ache 2 days in a row) and the couch I my king room was uncomfortable -- difficult to sit and watch TV without slouching against stiff cushions.The shower head was old and in need of replacing, but the bathroom was large and clean with decent lighting.The room overall was clean and the bathroom and bed were functional, just not comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r397479268-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>397479268</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Wonderful relaxing stay!</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel this past Saturday night on my way down to San Diego for the last day of Comic Con. Check in was smooth. The front area was modern looking and chic. My room was clean and stocked with nice toiletries. The pool was amazing! I've been in heated pools before but none as warm as this. After the pool, I enjoyed the spa. It was a just a quick trip away from Laguna Beach and the front desk person had printed out directions ready to go. Check out was just as smooth the next day. I will definitely stay here again. A++</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r378136024-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>378136024</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>I had business throughout SoCal over an 8-day period, so it made sense to situate myself in a location where I could access I-5 and beyond.  This was he place.  No frills, but it works.Location:  there is a shopping mall a mile away.  CVS, Carl's Junior, and a bunch of fast food within about a 20-minute walk.  Access to north and south 5 is about a mile away.  I had access to toll toads to take me to Anaheim, San Bernardino, Laguna Nigel, and finally L.A.Hotel:  being right off the 5, the exterior of the hotel is noisy, however the staff and the interior make up for it.  My room faced the opposite direction from the highway and it looked over parking and the back of another business.  They had a small restaurant and a few menu options for dining.  There is a bar on site.  Pool, fitness center, and sidewalk to get to the shopping and food.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I had business throughout SoCal over an 8-day period, so it made sense to situate myself in a location where I could access I-5 and beyond.  This was he place.  No frills, but it works.Location:  there is a shopping mall a mile away.  CVS, Carl's Junior, and a bunch of fast food within about a 20-minute walk.  Access to north and south 5 is about a mile away.  I had access to toll toads to take me to Anaheim, San Bernardino, Laguna Nigel, and finally L.A.Hotel:  being right off the 5, the exterior of the hotel is noisy, however the staff and the interior make up for it.  My room faced the opposite direction from the highway and it looked over parking and the back of another business.  They had a small restaurant and a few menu options for dining.  There is a bar on site.  Pool, fitness center, and sidewalk to get to the shopping and food.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r371754896-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>371754896</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Decent Business Hotel</t>
+  </si>
+  <si>
+    <t>Good location if you are doing business in this part of Los Angeles.  It is near the freeway and lots of restaurants and shopping.  Hotel has been remodeled to the new courtyard standard.  Food choices are small and weren't real appetizing.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded May 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2016</t>
+  </si>
+  <si>
+    <t>Good location if you are doing business in this part of Los Angeles.  It is near the freeway and lots of restaurants and shopping.  Hotel has been remodeled to the new courtyard standard.  Food choices are small and weren't real appetizing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r368954001-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>368954001</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>Typical business stay</t>
+  </si>
+  <si>
+    <t>I stayed for three nights.  Location is easy to I 5 with many eating places close by but not walking distance.  The property is in good condition and the rooms are good.  I did have stains on the carpet by the sink, rather ugly looking.  The room otherwise was clean and nice.  The Bistro is consistent with other properties.  It was odd for me but I was able to use the pool area for an hour this trip.  It was clean and nice and the lounge chair comfy.  They had clean towels out for use.  I even used the spa for a few minutes.  Request a room as far from the freeway as possible to reduce road noise.  Other nice thing, the windows open for fresh air.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I stayed for three nights.  Location is easy to I 5 with many eating places close by but not walking distance.  The property is in good condition and the rooms are good.  I did have stains on the carpet by the sink, rather ugly looking.  The room otherwise was clean and nice.  The Bistro is consistent with other properties.  It was odd for me but I was able to use the pool area for an hour this trip.  It was clean and nice and the lounge chair comfy.  They had clean towels out for use.  I even used the spa for a few minutes.  Request a room as far from the freeway as possible to reduce road noise.  Other nice thing, the windows open for fresh air.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r340545768-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>340545768</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>Right on highway</t>
+  </si>
+  <si>
+    <t>This hotel was adequate enough for a work trip.  It was very clean, inexpensive,  and the staff was nice and helpful.  The location literally overlooked the freeway though.  My room though overlooked a very ugly parking lot.  Food choices were very limited in the hotel,  nothing really in walking distance,  and lobby/bar area was pretty dead.  This may have been a VPN issue,  but I couldn't get Internet in my room,  so I had to work in the business center/lobby area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded January 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was adequate enough for a work trip.  It was very clean, inexpensive,  and the staff was nice and helpful.  The location literally overlooked the freeway though.  My room though overlooked a very ugly parking lot.  Food choices were very limited in the hotel,  nothing really in walking distance,  and lobby/bar area was pretty dead.  This may have been a VPN issue,  but I couldn't get Internet in my room,  so I had to work in the business center/lobby area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r338778238-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>338778238</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>Clean &amp; Spacious with a friendly staff!</t>
+  </si>
+  <si>
+    <t>I thought the rooms were very clean and spacious. There was no fee for parking and the hotel is located right off the 5 freeway. I had no trouble with noise though from it being located so close. The man that checked me in was very nice and helpful. I would recommend this hotel if you are in need of a hotel in the Laguna Hills area.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r336644253-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>336644253</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>Smelly room</t>
+  </si>
+  <si>
+    <t>The hotel is right next to the freeway, so if you want to really relax in a nice quiet setting, forget it. My room smelled like a cross between dirty socks and mildew. I saw a customer bringing in a small little dog, which I thought courtyards do not allow. I saw dog poop in the parking lot which was cleaned up quickly. The staff didn't appear happy, because I wasn't greeted like other courtyards. I can't recommend this courtyard especially if motel 6 can do the job cheaper.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded January 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is right next to the freeway, so if you want to really relax in a nice quiet setting, forget it. My room smelled like a cross between dirty socks and mildew. I saw a customer bringing in a small little dog, which I thought courtyards do not allow. I saw dog poop in the parking lot which was cleaned up quickly. The staff didn't appear happy, because I wasn't greeted like other courtyards. I can't recommend this courtyard especially if motel 6 can do the job cheaper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r331524210-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>331524210</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>So who cleans the drawers then?</t>
+  </si>
+  <si>
+    <t>This was a nice hotel to stay at. The beds were comfortable, bathrooms were clean, hotel was quiet except for freeway noise (expected though when on a busy freeway), nice starbucks coffee for purchase downstairs, etc. My ONLY complaint though is when I was in my room looking for the fridge I came upon a drawer with clothes left behind. I called the front desk to inform them they told me "housekeeping doesn't clean the drawers".....I would think this would be part of the routine but I guess it's not. It makes me wonder what other cleaning procedures are omitted from this Courtyard's routine. Overall, nice hotel for a night or two.MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded December 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2015</t>
+  </si>
+  <si>
+    <t>This was a nice hotel to stay at. The beds were comfortable, bathrooms were clean, hotel was quiet except for freeway noise (expected though when on a busy freeway), nice starbucks coffee for purchase downstairs, etc. My ONLY complaint though is when I was in my room looking for the fridge I came upon a drawer with clothes left behind. I called the front desk to inform them they told me "housekeeping doesn't clean the drawers".....I would think this would be part of the routine but I guess it's not. It makes me wonder what other cleaning procedures are omitted from this Courtyard's routine. Overall, nice hotel for a night or two.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r330160058-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>330160058</t>
+  </si>
+  <si>
+    <t>12/01/2015</t>
+  </si>
+  <si>
+    <t>Exactly What You Expect From a Courtyard Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is freeway close for easy access with lots of free parking.  Check in was quick and easy.We stayed in a king room on the 3rd floor.  It was a little small, but very clean and quiet.  The bed was very comfortable.  The sink was outside the bathroom so getting ready in the morning was great.  The bathroom was also extremely clean.Wifi was free.The hotel is not far from a shopping mall with a number of shops and restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>The hotel is freeway close for easy access with lots of free parking.  Check in was quick and easy.We stayed in a king room on the 3rd floor.  It was a little small, but very clean and quiet.  The bed was very comfortable.  The sink was outside the bathroom so getting ready in the morning was great.  The bathroom was also extremely clean.Wifi was free.The hotel is not far from a shopping mall with a number of shops and restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r326812320-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>326812320</t>
+  </si>
+  <si>
+    <t>11/14/2015</t>
+  </si>
+  <si>
+    <t>Nice Room #328 - Close To Many Restaurants</t>
+  </si>
+  <si>
+    <t>I enjoyed visiting this particular Courtyard by Marriott as I had a special rate and decided to get out of my apartment and hang with my OC buds. King Bed was splendid and the hotel grounds clean. The jacuzzi was nice and enjoyed the late check out per my MR Gold membership. Four Claws Up!!!! Gay friendly. Thanks fer reading my review. Joe the Bear - Redondo Beach, CAMoreShow less</t>
+  </si>
+  <si>
+    <t>I enjoyed visiting this particular Courtyard by Marriott as I had a special rate and decided to get out of my apartment and hang with my OC buds. King Bed was splendid and the hotel grounds clean. The jacuzzi was nice and enjoyed the late check out per my MR Gold membership. Four Claws Up!!!! Gay friendly. Thanks fer reading my review. Joe the Bear - Redondo Beach, CAMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r316642927-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>316642927</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>It's a nice Courtyard.</t>
+  </si>
+  <si>
+    <t>It a nice courtyard, the rooms were fresh and warm. The staff was great, and knew the area well. The only issue i had was there weren't many restaurants near by, you had to drive some way to find a good one. Otherwise, a good hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>It a nice courtyard, the rooms were fresh and warm. The staff was great, and knew the area well. The only issue i had was there weren't many restaurants near by, you had to drive some way to find a good one. Otherwise, a good hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r314584640-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>314584640</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Stay okay</t>
+  </si>
+  <si>
+    <t>Very nice hotel, the area is not far from a few shopping centers but the hotel itself is a little isolated on the Avenida de la Carlotta. Needless to say it is very quiet. The rooms are very nice and there was a mini-fridge in our room with the King size bed. There was also a nice sized sofa bed which my son said was very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel, the area is not far from a few shopping centers but the hotel itself is a little isolated on the Avenida de la Carlotta. Needless to say it is very quiet. The rooms are very nice and there was a mini-fridge in our room with the King size bed. There was also a nice sized sofa bed which my son said was very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r313748258-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>313748258</t>
+  </si>
+  <si>
+    <t>09/26/2015</t>
+  </si>
+  <si>
+    <t>Hotel great - restaurant terrible</t>
+  </si>
+  <si>
+    <t>Very busy at check-in, but clerk was very professional and friendly.  We asked for and received a room away from the highway noise, which was a plus.Room was clean and well appointed, the bed and linens super comfy;gym was small but adequate for our needs.  Parking was not too convenient because you had to walk down the parking lot hill into traffic to access the sidewalk in front of the hotel..there were no side or back entrances.Only disappointment was breakfast and the "Starbucks" coffee.  Eggs were overcooked &amp; dry -- tasted like they were sitting under a heat lap for hours.  I reported my disappointment, and received an apology, but no offer to correct or compensate.  The coffee was terrible and so was the Barista... my husband picked it up and brought it to room which is when we first tasted it. I  promptly returned it and was told they had already closed the register so no refund was available,  I was firm  in getting the $$ back, and then was directed to the front desk -- as I walked away, I asked how much it was and he said it was cash so wasn't sure.  I challenged that knowing it was charged to the room, and suddenly he found the receipt was was able to refund the charge.  I reported this incident to the front desk who offered some extra points for this snafu.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Very busy at check-in, but clerk was very professional and friendly.  We asked for and received a room away from the highway noise, which was a plus.Room was clean and well appointed, the bed and linens super comfy;gym was small but adequate for our needs.  Parking was not too convenient because you had to walk down the parking lot hill into traffic to access the sidewalk in front of the hotel..there were no side or back entrances.Only disappointment was breakfast and the "Starbucks" coffee.  Eggs were overcooked &amp; dry -- tasted like they were sitting under a heat lap for hours.  I reported my disappointment, and received an apology, but no offer to correct or compensate.  The coffee was terrible and so was the Barista... my husband picked it up and brought it to room which is when we first tasted it. I  promptly returned it and was told they had already closed the register so no refund was available,  I was firm  in getting the $$ back, and then was directed to the front desk -- as I walked away, I asked how much it was and he said it was cash so wasn't sure.  I challenged that knowing it was charged to the room, and suddenly he found the receipt was was able to refund the charge.  I reported this incident to the front desk who offered some extra points for this snafu.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r303395940-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>303395940</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Great location - competitively priced - very nice hotel staff</t>
+  </si>
+  <si>
+    <t>Perfect location right off of the freeway and close to restaurants and shops. Check in - easy, fast and accommodatingParking - Lots of parking close to entrancesRooms - Small, but clean. We had a couple of issues that were not deal breakers.Closet space - None. There was only a small armoire in the room which could not accommodate a long, formal dress. There was no other place to hang it. We ran into each other every time one of us needed to go anywhere in the room. It's pretty small. The lotions/shampoo were used and gosh, at the very least, someone should have refilled them.Other than that, the room was fine and quiet. Bed was comfy. Furniture could use a cleaning and update.Nice lobby!Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Perfect location right off of the freeway and close to restaurants and shops. Check in - easy, fast and accommodatingParking - Lots of parking close to entrancesRooms - Small, but clean. We had a couple of issues that were not deal breakers.Closet space - None. There was only a small armoire in the room which could not accommodate a long, formal dress. There was no other place to hang it. We ran into each other every time one of us needed to go anywhere in the room. It's pretty small. The lotions/shampoo were used and gosh, at the very least, someone should have refilled them.Other than that, the room was fine and quiet. Bed was comfy. Furniture could use a cleaning and update.Nice lobby!Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r300032994-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>300032994</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Nice clean hotel / friendly personnel</t>
+  </si>
+  <si>
+    <t>This hotel is clean and friendly personnel. They have a bistro where you can grab a bite to eat in the AM.  Also they are open for a snack and drinks in the evening till 9:30.   The margarita flatbread is really tasty.  The Starbucks coffees in the AM are really good.  They have scones and bagels for the AM along with egg sandwiches. It's right off the freeway at the 5 and 405 freeway at Lake Forest Drive.  So Ray access.   We stayed here when we went to the Pageant of the Masters so easy access to Laguna Beach area too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r296612547-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>296612547</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>Overall pretty clean hotel</t>
+  </si>
+  <si>
+    <t>Manager checked me in was very pleasant.  I tried calling earlier to check on my room status and was told to hold - that hold was long.  I called again and told the lady that I already held, she was rude and put me on hold again.  Definitely was not the manager.  This hotel is close to numerous restaurants, the freeway and business.  As long as they are pleasant I would recommend for convenience.MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded August 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2015</t>
+  </si>
+  <si>
+    <t>Manager checked me in was very pleasant.  I tried calling earlier to check on my room status and was told to hold - that hold was long.  I called again and told the lady that I already held, she was rude and put me on hold again.  Definitely was not the manager.  This hotel is close to numerous restaurants, the freeway and business.  As long as they are pleasant I would recommend for convenience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r291600972-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>291600972</t>
+  </si>
+  <si>
+    <t>07/22/2015</t>
+  </si>
+  <si>
+    <t>You are on your own here but it was a good experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The whole family met at this location and we occupied six rooms. You are near the freeway but the rooms are well insulated from the freeway noise and from the noise from the rooms close to you. You are the bellman here and we had a good time playing bellman. The staff is bare minimum but were quite accommodating. The rooms were clean. The restaurant doubles as a lobby but worked fine for our group. Not "stuffy" so ideal for families with kids. A little drive to Laguna and the ocean. We had a good time and will come again. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r289846282-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>289846282</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>Pretty standard, a little less than what I'd expect from the Marriott chain</t>
+  </si>
+  <si>
+    <t>We stayed here one night en route to Laguna beach for a wedding. The staff were very friendly upon arrival very late at night. Rooms were a bit dated and the walls were a bit thin. There was nothing terrible about the rooms or hotel, it was just a bit blah for the Marriott chain. I would have expected a little nicer for the name and price. Location was right off the highway and minutes away from the 'downtown area' of Laguna hills. Overall, an okay stay but I'd consider staying at  a cheaper hotel next time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r288317573-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>288317573</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Noisy. Front desk staff a little...weird</t>
+  </si>
+  <si>
+    <t>This is pretty much your standard Courtyard, and if it was your standard Courtyard, I'd give it 5 stars. But things were a bit off...mostly with the staff
+1.) Check in took FOREVER. Normally, it takes less than 5 minutes. I think I was trying to check in for a good half hour, even though I was the only one there. The lady checking me in took her sweet time, fussing around with the computer, doing who-knows-what. This reservation was booked a good two months in advance, so I don't know what she was doing.
+2.) Apparently, she did something because we ended up with the handicapped room. We do not need this, I did not ask for this (nor would I ever ask for this because what if someone truly needs this???). This is a problem because the bathroom is designed for someone in a wheelchair, so the shower was difficult to use. 
+3.) Hallways were extremely noisy - kids running around everywhere at 10:30 pm. We were trying to get to sleep as we needed to be up at 4:30 am. Had to call the front desk twice about the noisy kids.
+4.) Odd interaction with the front desk person in the morning. I stood there (around 6am) trying to check out, with no one in sight. Rang the bell, no one came. Eventually he sauntered over to the desk to check us out -- apparently, he was...This is pretty much your standard Courtyard, and if it was your standard Courtyard, I'd give it 5 stars. But things were a bit off...mostly with the staff1.) Check in took FOREVER. Normally, it takes less than 5 minutes. I think I was trying to check in for a good half hour, even though I was the only one there. The lady checking me in took her sweet time, fussing around with the computer, doing who-knows-what. This reservation was booked a good two months in advance, so I don't know what she was doing.2.) Apparently, she did something because we ended up with the handicapped room. We do not need this, I did not ask for this (nor would I ever ask for this because what if someone truly needs this???). This is a problem because the bathroom is designed for someone in a wheelchair, so the shower was difficult to use. 3.) Hallways were extremely noisy - kids running around everywhere at 10:30 pm. We were trying to get to sleep as we needed to be up at 4:30 am. Had to call the front desk twice about the noisy kids.4.) Odd interaction with the front desk person in the morning. I stood there (around 6am) trying to check out, with no one in sight. Rang the bell, no one came. Eventually he sauntered over to the desk to check us out -- apparently, he was cooking food at the Bistro. He seemed shocked that someone would want to check out at 6am. Odd.... He also asked if we wanted to buy any food at the Bistro. No thanks, that stuff is way overpriced and just not good.The property itself is nice, and easy to find.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2015</t>
+  </si>
+  <si>
+    <t>This is pretty much your standard Courtyard, and if it was your standard Courtyard, I'd give it 5 stars. But things were a bit off...mostly with the staff
+1.) Check in took FOREVER. Normally, it takes less than 5 minutes. I think I was trying to check in for a good half hour, even though I was the only one there. The lady checking me in took her sweet time, fussing around with the computer, doing who-knows-what. This reservation was booked a good two months in advance, so I don't know what she was doing.
+2.) Apparently, she did something because we ended up with the handicapped room. We do not need this, I did not ask for this (nor would I ever ask for this because what if someone truly needs this???). This is a problem because the bathroom is designed for someone in a wheelchair, so the shower was difficult to use. 
+3.) Hallways were extremely noisy - kids running around everywhere at 10:30 pm. We were trying to get to sleep as we needed to be up at 4:30 am. Had to call the front desk twice about the noisy kids.
+4.) Odd interaction with the front desk person in the morning. I stood there (around 6am) trying to check out, with no one in sight. Rang the bell, no one came. Eventually he sauntered over to the desk to check us out -- apparently, he was...This is pretty much your standard Courtyard, and if it was your standard Courtyard, I'd give it 5 stars. But things were a bit off...mostly with the staff1.) Check in took FOREVER. Normally, it takes less than 5 minutes. I think I was trying to check in for a good half hour, even though I was the only one there. The lady checking me in took her sweet time, fussing around with the computer, doing who-knows-what. This reservation was booked a good two months in advance, so I don't know what she was doing.2.) Apparently, she did something because we ended up with the handicapped room. We do not need this, I did not ask for this (nor would I ever ask for this because what if someone truly needs this???). This is a problem because the bathroom is designed for someone in a wheelchair, so the shower was difficult to use. 3.) Hallways were extremely noisy - kids running around everywhere at 10:30 pm. We were trying to get to sleep as we needed to be up at 4:30 am. Had to call the front desk twice about the noisy kids.4.) Odd interaction with the front desk person in the morning. I stood there (around 6am) trying to check out, with no one in sight. Rang the bell, no one came. Eventually he sauntered over to the desk to check us out -- apparently, he was cooking food at the Bistro. He seemed shocked that someone would want to check out at 6am. Odd.... He also asked if we wanted to buy any food at the Bistro. No thanks, that stuff is way overpriced and just not good.The property itself is nice, and easy to find.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r283384648-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>283384648</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Good service, but bad smell</t>
+  </si>
+  <si>
+    <t>The hotel is updated and clean. The service was great and was very fast in the Bistro. The hotel is right off the highway and easy to locate. My only complaint is the the bathroom had a horrible sewer smell I am not sure if it was just the room but I did not smell it in the hall?  I really hope they get their plumbing checked out.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is updated and clean. The service was great and was very fast in the Bistro. The hotel is right off the highway and easy to locate. My only complaint is the the bathroom had a horrible sewer smell I am not sure if it was just the room but I did not smell it in the hall?  I really hope they get their plumbing checked out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r283243533-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>283243533</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Wonderful service</t>
+  </si>
+  <si>
+    <t>Me and my husband travel with marriott a lot. But let me tell you, so far this is our favorite place to stay when we visit Irvine. The service is amazing, all the hotel staff are extremely friendly and helpful.We will go back againI have to thank the front desk team specially Vivian who helped us a lot and the general manager Michael Thank you Courtyard</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r275552381-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>275552381</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>Right next to the freeway</t>
+  </si>
+  <si>
+    <t>There is not enough parking here. When we arrived at 3:00pm it was tough to find a parking spot. The staff was slow and the guests were obnoxious. I know the hotel can't help that, but we were in line with one person being helped in front of us for twenty minutes. I had pre-checked in and took 2 minutes to get my keys and leave the desk. The person being helped next to us put her foot up on the counter and was picking at ther toes and the staff did not even ask her politely to get her foot offf of the counter. The rooms were standard. Ours faced the freeway and you could hear the freeway noise some, but not too loud. There is a smoking area right outside the side door of the hotel so as soon as you walk out you have to hold your breath unless you want to inhale a bunch of smoke, and then you end up stinking some anyways. we went to a concert for the night and when we came back we had an even harder time finding a spot to park our car than we had in the afternoon. The positive is that they do have a small refrigerator in the room, otherwise it is your basic standard room.....and this one was set up rather awkwardly. I don't think I'd stay at this location again. It was not horrible,...There is not enough parking here. When we arrived at 3:00pm it was tough to find a parking spot. The staff was slow and the guests were obnoxious. I know the hotel can't help that, but we were in line with one person being helped in front of us for twenty minutes. I had pre-checked in and took 2 minutes to get my keys and leave the desk. The person being helped next to us put her foot up on the counter and was picking at ther toes and the staff did not even ask her politely to get her foot offf of the counter. The rooms were standard. Ours faced the freeway and you could hear the freeway noise some, but not too loud. There is a smoking area right outside the side door of the hotel so as soon as you walk out you have to hold your breath unless you want to inhale a bunch of smoke, and then you end up stinking some anyways. we went to a concert for the night and when we came back we had an even harder time finding a spot to park our car than we had in the afternoon. The positive is that they do have a small refrigerator in the room, otherwise it is your basic standard room.....and this one was set up rather awkwardly. I don't think I'd stay at this location again. It was not horrible, but there are better Marriott hotels close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2015</t>
+  </si>
+  <si>
+    <t>There is not enough parking here. When we arrived at 3:00pm it was tough to find a parking spot. The staff was slow and the guests were obnoxious. I know the hotel can't help that, but we were in line with one person being helped in front of us for twenty minutes. I had pre-checked in and took 2 minutes to get my keys and leave the desk. The person being helped next to us put her foot up on the counter and was picking at ther toes and the staff did not even ask her politely to get her foot offf of the counter. The rooms were standard. Ours faced the freeway and you could hear the freeway noise some, but not too loud. There is a smoking area right outside the side door of the hotel so as soon as you walk out you have to hold your breath unless you want to inhale a bunch of smoke, and then you end up stinking some anyways. we went to a concert for the night and when we came back we had an even harder time finding a spot to park our car than we had in the afternoon. The positive is that they do have a small refrigerator in the room, otherwise it is your basic standard room.....and this one was set up rather awkwardly. I don't think I'd stay at this location again. It was not horrible,...There is not enough parking here. When we arrived at 3:00pm it was tough to find a parking spot. The staff was slow and the guests were obnoxious. I know the hotel can't help that, but we were in line with one person being helped in front of us for twenty minutes. I had pre-checked in and took 2 minutes to get my keys and leave the desk. The person being helped next to us put her foot up on the counter and was picking at ther toes and the staff did not even ask her politely to get her foot offf of the counter. The rooms were standard. Ours faced the freeway and you could hear the freeway noise some, but not too loud. There is a smoking area right outside the side door of the hotel so as soon as you walk out you have to hold your breath unless you want to inhale a bunch of smoke, and then you end up stinking some anyways. we went to a concert for the night and when we came back we had an even harder time finding a spot to park our car than we had in the afternoon. The positive is that they do have a small refrigerator in the room, otherwise it is your basic standard room.....and this one was set up rather awkwardly. I don't think I'd stay at this location again. It was not horrible, but there are better Marriott hotels close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r270480517-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>270480517</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>Another enjoyable stay</t>
+  </si>
+  <si>
+    <t>When visiting the Irvine area, I always book at this Courtyard because of it's convenience to the 405, dining and business area that I need to access.  I have stayed here 3 times.Check-in is always easy and I usually get the type of room I request - a quiet location.  The beds here are so comfortable and I've never had a noise complaint/problem. The room amenities are quality items and the coffee in plentiful (housekeeping brings more if I want it too).  Parking is convenient and plentiful.  I will stop for drinks at the Bistro which can be nice after a long day and I don't feel like going out.  I usually skip the Bistro meals though - just not my type of menu.MoreShow less</t>
+  </si>
+  <si>
+    <t>When visiting the Irvine area, I always book at this Courtyard because of it's convenience to the 405, dining and business area that I need to access.  I have stayed here 3 times.Check-in is always easy and I usually get the type of room I request - a quiet location.  The beds here are so comfortable and I've never had a noise complaint/problem. The room amenities are quality items and the coffee in plentiful (housekeeping brings more if I want it too).  Parking is convenient and plentiful.  I will stop for drinks at the Bistro which can be nice after a long day and I don't feel like going out.  I usually skip the Bistro meals though - just not my type of menu.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r269329248-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>269329248</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>Fine Hotel but Skip the Bistro and Demand Better Environmental Policy</t>
+  </si>
+  <si>
+    <t>Our travel is for a memorial service in the area.  This location is convenient.  Others have mentioned the staff and I reiterate that the staff is first rate.  Our room is generous, clean and comfortable.  The Bistro flunks.  It is convenient, expensive, and the portions are tiny.  I expected convenient and expensive but my salad was so meager that I could see the small plate through the lettuce.  They haven't gotten the news that we have a water shortage.MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded May 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2015</t>
+  </si>
+  <si>
+    <t>Our travel is for a memorial service in the area.  This location is convenient.  Others have mentioned the staff and I reiterate that the staff is first rate.  Our room is generous, clean and comfortable.  The Bistro flunks.  It is convenient, expensive, and the portions are tiny.  I expected convenient and expensive but my salad was so meager that I could see the small plate through the lettuce.  They haven't gotten the news that we have a water shortage.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r265902127-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>265902127</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Room Reservation</t>
+  </si>
+  <si>
+    <t>I called to make a reservation. I was transferred to the reservation.  As I was telling her what room I wanted to book, I heard a CLICK. She HUNG UP.  OKAY, if that's how they do business, I will take my $$$ elsewhere.  There's plenty of other hotels around.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded April 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2015</t>
+  </si>
+  <si>
+    <t>I called to make a reservation. I was transferred to the reservation.  As I was telling her what room I wanted to book, I heard a CLICK. She HUNG UP.  OKAY, if that's how they do business, I will take my $$$ elsewhere.  There's plenty of other hotels around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r261263971-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>261263971</t>
+  </si>
+  <si>
+    <t>03/23/2015</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>This was our first time staying at this hotel.  We had a room block for our wedding (Sarah in special events is awesome!) and I don’t know if we were treated better than most because I was the bride but everyone was absolutely soooo nice and accommodating.  The hotel lobby and decor are modern.  Check in was a breeze with our check in guy being very friendly. Our bartender was also super friendly and efficient.  Our rooms were clean and spacious.  AC worked perfectly. The only negative thing I can say about the hotel is that their restaurant/bar closes too early.  They close at 10pm, which is a bit early for us.  But other than that, a fabulous stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded March 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2015</t>
+  </si>
+  <si>
+    <t>This was our first time staying at this hotel.  We had a room block for our wedding (Sarah in special events is awesome!) and I don’t know if we were treated better than most because I was the bride but everyone was absolutely soooo nice and accommodating.  The hotel lobby and decor are modern.  Check in was a breeze with our check in guy being very friendly. Our bartender was also super friendly and efficient.  Our rooms were clean and spacious.  AC worked perfectly. The only negative thing I can say about the hotel is that their restaurant/bar closes too early.  They close at 10pm, which is a bit early for us.  But other than that, a fabulous stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r260139129-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>260139129</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>One of the better hotels in the area</t>
+  </si>
+  <si>
+    <t>Have stayed at a few hotels in the area, and this is one of the better ones located of the 5 freeway. It's a lot more expensive than other hotels in the area and does not include breakfast. Room and bed were comfortable and a very short walk or drive to some places to eat if your hungry. I would consider this hotel again depending on the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2015</t>
+  </si>
+  <si>
+    <t>Have stayed at a few hotels in the area, and this is one of the better ones located of the 5 freeway. It's a lot more expensive than other hotels in the area and does not include breakfast. Room and bed were comfortable and a very short walk or drive to some places to eat if your hungry. I would consider this hotel again depending on the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r259891866-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>259891866</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Average for Courtyard</t>
+  </si>
+  <si>
+    <t>location is good as it is close to freeway. However, that also means highway noise if you are on that side of hotel. Pool is good. People are great. On premise market is helpful if you choose to stay in your room. Central lobby has a welcoming feel with plenty of open group areas and booths to be more private. MoreShow less</t>
+  </si>
+  <si>
+    <t>location is good as it is close to freeway. However, that also means highway noise if you are on that side of hotel. Pool is good. People are great. On premise market is helpful if you choose to stay in your room. Central lobby has a welcoming feel with plenty of open group areas and booths to be more private. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r258762291-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>258762291</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>Nice visit to Laguna HIlls Area</t>
+  </si>
+  <si>
+    <t>Good location close (by car) to Panera's and other restaurants.  Staff was attentive.  The breakfast and dinner setup with Starbucks coffee served was quite handy.  The pantry / mini store by the front desk stocks most of the things you may need in a pinch..snack, drink aspirin etc..  Pool and sun area is secluded and comfortable.  Work out area is available 24hrs/day. Now for the other side....The  WIFI setup in the room and public areas was for me VERY disappointing.  Even paying for premium service the lag and number of disconnects was disturbing.  The only reason this property didn't get a 5 star rating is the far below average performance of the Internet connection.  There was no provision for plugging directly into an ethernet connection to offset with the poor wireless performance.  My Room on the NON freeway side was quiet and comfortable.  Maid service was good, bed was comfortable, TV was a modern HD Flat screen with HDMI connectivity for laptop.  Stay off I5 freeway when going North into the city if at all possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good location close (by car) to Panera's and other restaurants.  Staff was attentive.  The breakfast and dinner setup with Starbucks coffee served was quite handy.  The pantry / mini store by the front desk stocks most of the things you may need in a pinch..snack, drink aspirin etc..  Pool and sun area is secluded and comfortable.  Work out area is available 24hrs/day. Now for the other side....The  WIFI setup in the room and public areas was for me VERY disappointing.  Even paying for premium service the lag and number of disconnects was disturbing.  The only reason this property didn't get a 5 star rating is the far below average performance of the Internet connection.  There was no provision for plugging directly into an ethernet connection to offset with the poor wireless performance.  My Room on the NON freeway side was quiet and comfortable.  Maid service was good, bed was comfortable, TV was a modern HD Flat screen with HDMI connectivity for laptop.  Stay off I5 freeway when going North into the city if at all possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r253455600-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>253455600</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>An average Courtyard; Not so easy on to freeway North (etc)</t>
+  </si>
+  <si>
+    <t>Average for a Courtyard. Getting back on the freeway North legally isn't easy; there's no U-turn to get onto the on-ramp. My room had stained carpet, which they tried to deal with, unsuccessfully, after I informed them of it (and a stained ironing board cover that they replaced). However, that said, in general the rooms are nice (&amp; clean otherwise), the staff is fine/nice, the Bistro was fast in the morning for oatmeal, and for the area the value is OK.MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded February 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2015</t>
+  </si>
+  <si>
+    <t>Average for a Courtyard. Getting back on the freeway North legally isn't easy; there's no U-turn to get onto the on-ramp. My room had stained carpet, which they tried to deal with, unsuccessfully, after I informed them of it (and a stained ironing board cover that they replaced). However, that said, in general the rooms are nice (&amp; clean otherwise), the staff is fine/nice, the Bistro was fast in the morning for oatmeal, and for the area the value is OK.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r250939642-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>250939642</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Make it sound its right next to the Spectrum.  Such is not the case. Rooms are very small and not very private.  The walls are paper thin and u can literally here the conversations of people in adjoining rooms.I was very displeased with our location.  Had a wonderful view of the roof top and air conditioning.  All in all I have stayed at Comfort Inns better than this. Not worth over $100.00 and I had the friends and family rate. Thinking about canceling my Marriott reward s card. Because frankly I have not been satisfied with the Marriotts I've. stayed in.MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2015</t>
+  </si>
+  <si>
+    <t>Make it sound its right next to the Spectrum.  Such is not the case. Rooms are very small and not very private.  The walls are paper thin and u can literally here the conversations of people in adjoining rooms.I was very displeased with our location.  Had a wonderful view of the roof top and air conditioning.  All in all I have stayed at Comfort Inns better than this. Not worth over $100.00 and I had the friends and family rate. Thinking about canceling my Marriott reward s card. Because frankly I have not been satisfied with the Marriotts I've. stayed in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r240419707-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>240419707</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Clean New Convenient</t>
+  </si>
+  <si>
+    <t>What more can I say about a new Courtyard.  Excellent staff and very clean.  Took family and in-law's to this location.  It was a perfect choice.  Great central location for all of the places we wanted to go to.  Quite area and easy parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded November 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2014</t>
+  </si>
+  <si>
+    <t>What more can I say about a new Courtyard.  Excellent staff and very clean.  Took family and in-law's to this location.  It was a perfect choice.  Great central location for all of the places we wanted to go to.  Quite area and easy parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r240283901-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>240283901</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Pretty good stay except for the Bistro</t>
+  </si>
+  <si>
+    <t>Excellent location off of 405.  Room was nice and big and a great comfortable bed, very clean with good selection of morning coffee items.  Everything worked well, except we did have problems with the free wifi in our room (but the hotel is big so distance may have been a problem).We noticed wind noise coming from the windows, however there was a note in the room that the hotel was replacing all the windows with new energy efficient and noise reduction ones.  The freeway noise really didn't bother us because it was more like white noise, which will probably go away with new windows.  My only disappointment was with the Bistro dining (I stay at many Courtyards so I'm very familiar with their breakfasts).  When you order the $10 egg breakfast (the most expensive item) you expect your eggs to be over-easy NOT hard, more than 8 small potato nuggets and NOT still cold on the inside and the toast NOT almost burnt.  Next time I'll go to the Carl's Junior just down the street.Otherwise the stay was good, check in and out very easy, professional front desk staff and the sleep quality was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Excellent location off of 405.  Room was nice and big and a great comfortable bed, very clean with good selection of morning coffee items.  Everything worked well, except we did have problems with the free wifi in our room (but the hotel is big so distance may have been a problem).We noticed wind noise coming from the windows, however there was a note in the room that the hotel was replacing all the windows with new energy efficient and noise reduction ones.  The freeway noise really didn't bother us because it was more like white noise, which will probably go away with new windows.  My only disappointment was with the Bistro dining (I stay at many Courtyards so I'm very familiar with their breakfasts).  When you order the $10 egg breakfast (the most expensive item) you expect your eggs to be over-easy NOT hard, more than 8 small potato nuggets and NOT still cold on the inside and the toast NOT almost burnt.  Next time I'll go to the Carl's Junior just down the street.Otherwise the stay was good, check in and out very easy, professional front desk staff and the sleep quality was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r238377707-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>238377707</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>Excellent Hotel!</t>
+  </si>
+  <si>
+    <t>This new hotel is one of my favorite Courtyards anywhere!  Perfect for business travelers! The hotel is very modern, and beautifully designed. The rooms are spacious and well appointed. Free Wi-Fi, coffee maker, and fridge in every room. Great work space and comfortable chair. I spend alot of time working in my room, so a comfortable work space environment is very important to me. The bathroom was very clean, spacious and well-laid out. I loved that the lobby was very large and offered a lot of seating. The breakfast was very good. I stayed at a more expensive hotel on my previous visit and this property was less expensive and in my opinion, a much nicer hotel. The staff was excellent and customer service was top notch.  
+My only complaint, which is the same for all of the nearby hotels, is the extra charge for overnight parking. It's not like the hotel is in a congested urban area with limited parking. There is literally a gigantic parking lot right outside the door that sits empty, so there is no shortage of parking at this property or at any of the other Irvine hotels in the area. This seems like just another avenue for hotels to nickel and dime their customers. I realize that if the hotel eliminates the parking fee, they'll just add it into the room rate, but hopefully with enough negative feedback, all the hotels will eliminate the...This new hotel is one of my favorite Courtyards anywhere!  Perfect for business travelers! The hotel is very modern, and beautifully designed. The rooms are spacious and well appointed. Free Wi-Fi, coffee maker, and fridge in every room. Great work space and comfortable chair. I spend alot of time working in my room, so a comfortable work space environment is very important to me. The bathroom was very clean, spacious and well-laid out. I loved that the lobby was very large and offered a lot of seating. The breakfast was very good. I stayed at a more expensive hotel on my previous visit and this property was less expensive and in my opinion, a much nicer hotel. The staff was excellent and customer service was top notch.  My only complaint, which is the same for all of the nearby hotels, is the extra charge for overnight parking. It's not like the hotel is in a congested urban area with limited parking. There is literally a gigantic parking lot right outside the door that sits empty, so there is no shortage of parking at this property or at any of the other Irvine hotels in the area. This seems like just another avenue for hotels to nickel and dime their customers. I realize that if the hotel eliminates the parking fee, they'll just add it into the room rate, but hopefully with enough negative feedback, all the hotels will eliminate the parking fee without affecting room rates. Again, other than this issue, this is an excellent hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This new hotel is one of my favorite Courtyards anywhere!  Perfect for business travelers! The hotel is very modern, and beautifully designed. The rooms are spacious and well appointed. Free Wi-Fi, coffee maker, and fridge in every room. Great work space and comfortable chair. I spend alot of time working in my room, so a comfortable work space environment is very important to me. The bathroom was very clean, spacious and well-laid out. I loved that the lobby was very large and offered a lot of seating. The breakfast was very good. I stayed at a more expensive hotel on my previous visit and this property was less expensive and in my opinion, a much nicer hotel. The staff was excellent and customer service was top notch.  
+My only complaint, which is the same for all of the nearby hotels, is the extra charge for overnight parking. It's not like the hotel is in a congested urban area with limited parking. There is literally a gigantic parking lot right outside the door that sits empty, so there is no shortage of parking at this property or at any of the other Irvine hotels in the area. This seems like just another avenue for hotels to nickel and dime their customers. I realize that if the hotel eliminates the parking fee, they'll just add it into the room rate, but hopefully with enough negative feedback, all the hotels will eliminate the...This new hotel is one of my favorite Courtyards anywhere!  Perfect for business travelers! The hotel is very modern, and beautifully designed. The rooms are spacious and well appointed. Free Wi-Fi, coffee maker, and fridge in every room. Great work space and comfortable chair. I spend alot of time working in my room, so a comfortable work space environment is very important to me. The bathroom was very clean, spacious and well-laid out. I loved that the lobby was very large and offered a lot of seating. The breakfast was very good. I stayed at a more expensive hotel on my previous visit and this property was less expensive and in my opinion, a much nicer hotel. The staff was excellent and customer service was top notch.  My only complaint, which is the same for all of the nearby hotels, is the extra charge for overnight parking. It's not like the hotel is in a congested urban area with limited parking. There is literally a gigantic parking lot right outside the door that sits empty, so there is no shortage of parking at this property or at any of the other Irvine hotels in the area. This seems like just another avenue for hotels to nickel and dime their customers. I realize that if the hotel eliminates the parking fee, they'll just add it into the room rate, but hopefully with enough negative feedback, all the hotels will eliminate the parking fee without affecting room rates. Again, other than this issue, this is an excellent hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r224706099-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>224706099</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Very good overall</t>
+  </si>
+  <si>
+    <t>I stayed two separate nights in two different rooms, as I was traveling through So Cal and Mexico. Both rooms appeared to be newly renovated, very nice, clean and comfortable. The lobby also appeared to be new and modern as another reviewer mentioned. I like the location of this property as well, close to freeways, shopping, restaurants, etc. The nightly rate may not be as cheap as some other nearby stays like the Laguna Hills Lodge, but it's a nicer hotel and I'd recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>I stayed two separate nights in two different rooms, as I was traveling through So Cal and Mexico. Both rooms appeared to be newly renovated, very nice, clean and comfortable. The lobby also appeared to be new and modern as another reviewer mentioned. I like the location of this property as well, close to freeways, shopping, restaurants, etc. The nightly rate may not be as cheap as some other nearby stays like the Laguna Hills Lodge, but it's a nicer hotel and I'd recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r223674123-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>223674123</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>Nice, comfortable rooms</t>
+  </si>
+  <si>
+    <t>We just spent 2 nights here last weekend and were pleased we had not taken the advice to stay in Costa Mesa.  The location of this hotel was perfect for heading down Hwy 133 to Laguna Beach, Newport Beach, and Balboa Island, as well as for access to shopping, movies, and places to dine right there in Irvine.  The rooms were nicely furnished, updated, and spacious.  Our room faced the back parking lot so there was no freeway noise.  With no parking fee and free WiFi, it was great for the value as compared to other hotels close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded August 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2014</t>
+  </si>
+  <si>
+    <t>We just spent 2 nights here last weekend and were pleased we had not taken the advice to stay in Costa Mesa.  The location of this hotel was perfect for heading down Hwy 133 to Laguna Beach, Newport Beach, and Balboa Island, as well as for access to shopping, movies, and places to dine right there in Irvine.  The rooms were nicely furnished, updated, and spacious.  Our room faced the back parking lot so there was no freeway noise.  With no parking fee and free WiFi, it was great for the value as compared to other hotels close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r221633578-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>221633578</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Clean and Convenient</t>
+  </si>
+  <si>
+    <t>Settled in a nice area, with good quick food choices near, we found this to be a really good stay. The rooms were clean and new with everything stocked and working. The family enjoyed the pool and it was nice to be in a place where most of the guests are there for business (it was quiet). Quick access to freeways was a bonus, but overall it's a really good place to rest as you go out/on to other fun things in California.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Settled in a nice area, with good quick food choices near, we found this to be a really good stay. The rooms were clean and new with everything stocked and working. The family enjoyed the pool and it was nice to be in a place where most of the guests are there for business (it was quiet). Quick access to freeways was a bonus, but overall it's a really good place to rest as you go out/on to other fun things in California.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r200996612-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>200996612</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>Outstanding front desk!!</t>
+  </si>
+  <si>
+    <t>Stay at this hotel more night than at home. I really enjoy staying there, they are the best in the area. The front desk staff is awesome particularly Caroline who always makes me feel at home! Located close to good restaurants. and is very convenient to where I am working.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded April 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2014</t>
+  </si>
+  <si>
+    <t>Stay at this hotel more night than at home. I really enjoy staying there, they are the best in the area. The front desk staff is awesome particularly Caroline who always makes me feel at home! Located close to good restaurants. and is very convenient to where I am working.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r200539933-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>200539933</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Outstanding Customer Service</t>
+  </si>
+  <si>
+    <t>After flying all day from New York I was greeted by Denise at the front desk who could not do enough for me.  She recommended several restaurants and gave me step by step instructions to walk to a local restaurant   Since Denise was running the front desk, Caroline offered to drive me to the restaurant.  I refused at first, but she would not have it.  She called the restaurant and discovered they were closed for renovations, but found another place and drove me the restaurant and offered to come back and pick me up.  Their commitment to the customer was truly outstanding.  I highly recommend the Marriott a Laguna Hills!!!  Denise and Caroline, I appreciate your help, appreciate your charming smiles and willingness to serve the customer!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>After flying all day from New York I was greeted by Denise at the front desk who could not do enough for me.  She recommended several restaurants and gave me step by step instructions to walk to a local restaurant   Since Denise was running the front desk, Caroline offered to drive me to the restaurant.  I refused at first, but she would not have it.  She called the restaurant and discovered they were closed for renovations, but found another place and drove me the restaurant and offered to come back and pick me up.  Their commitment to the customer was truly outstanding.  I highly recommend the Marriott a Laguna Hills!!!  Denise and Caroline, I appreciate your help, appreciate your charming smiles and willingness to serve the customer!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r198580940-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>198580940</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>Good hotel with friendly staff,  but food options are extremely limited.</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for 5 nights while visiting nearby family. I had the impression that the hotel was nowhere near full while I was there. The attractive restaurant area and lobby were generally empty.  The staff was exceptionally friendly and helpful. I was happy with the room and enjoyed the pool.  The main drawbacks were the extremely limited menu at the restaurant and rather isolated location with no restaurants or shops within walking distance. The rate I paid was reasonable except for the last night (a monday night), for which I somehow had to pay a rather exorbitant sum considering the location and amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for 5 nights while visiting nearby family. I had the impression that the hotel was nowhere near full while I was there. The attractive restaurant area and lobby were generally empty.  The staff was exceptionally friendly and helpful. I was happy with the room and enjoyed the pool.  The main drawbacks were the extremely limited menu at the restaurant and rather isolated location with no restaurants or shops within walking distance. The rate I paid was reasonable except for the last night (a monday night), for which I somehow had to pay a rather exorbitant sum considering the location and amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r193998079-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>193998079</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t>Good nights sleep but had one issue</t>
+  </si>
+  <si>
+    <t>This hotel is your standard Courtyard.  However, since I am an elite member, I was upgraded to their corner room that is a one bedroom suite.  The lobby area has been renovated to meet the new Courtyard standards.  The issue I had was I left my Bluetooth headset in the room when I checked out.  I called the next evening when I realized I left my headset to see if it was found.  I called back on Monday and was told my headset was not found.  I know for a fact, I left it on the lamp stand next to the couch, but somehow it was not found.  I guess it is partly my fault, but this is not the first time I have stayed at a Marriott and left a Bluetooth headset behind that was not found.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded February 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is your standard Courtyard.  However, since I am an elite member, I was upgraded to their corner room that is a one bedroom suite.  The lobby area has been renovated to meet the new Courtyard standards.  The issue I had was I left my Bluetooth headset in the room when I checked out.  I called the next evening when I realized I left my headset to see if it was found.  I called back on Monday and was told my headset was not found.  I know for a fact, I left it on the lamp stand next to the couch, but somehow it was not found.  I guess it is partly my fault, but this is not the first time I have stayed at a Marriott and left a Bluetooth headset behind that was not found.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r193917380-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>193917380</t>
+  </si>
+  <si>
+    <t>02/12/2014</t>
+  </si>
+  <si>
+    <t>NOT MILITARY FRIENDLY</t>
+  </si>
+  <si>
+    <t>This hotel was a bad experience before I could even check in.  I booked it on line and made my reservation under the Federal Government rate which according to Marriott policy, covers active duty military and their dependents on leisure travel.  Upon check in the manager was looking over the clerks shoulder as we checked in and proceeded to take my military dependent ID, look it over, then tell me I did not qualify for the rate.  She sat there at 9pm arguing with me while my children stood and watched and waited to get in the room after a long day of cross country travel.  The manager continued to argue with me and was downright rude before finally letting me have the rate.  I would have left if not for my tired children.  I will NEVER stay at this hotel again and will warn others away from it.  There is no reason a manager should ever argue with a guest, especially when we got to our room and it smelled bad and was dingy.  The hotel did not have Disney channel like every other Marriott property I have stayed at and like since I know what I am going to get when traveling with my children.  It is hard enough being a military family, but when I travel with my children when my husband in deployed and serving this country, I don't expect to be so disrespected by a...This hotel was a bad experience before I could even check in.  I booked it on line and made my reservation under the Federal Government rate which according to Marriott policy, covers active duty military and their dependents on leisure travel.  Upon check in the manager was looking over the clerks shoulder as we checked in and proceeded to take my military dependent ID, look it over, then tell me I did not qualify for the rate.  She sat there at 9pm arguing with me while my children stood and watched and waited to get in the room after a long day of cross country travel.  The manager continued to argue with me and was downright rude before finally letting me have the rate.  I would have left if not for my tired children.  I will NEVER stay at this hotel again and will warn others away from it.  There is no reason a manager should ever argue with a guest, especially when we got to our room and it smelled bad and was dingy.  The hotel did not have Disney channel like every other Marriott property I have stayed at and like since I know what I am going to get when traveling with my children.  It is hard enough being a military family, but when I travel with my children when my husband in deployed and serving this country, I don't expect to be so disrespected by a hotel manager.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded February 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was a bad experience before I could even check in.  I booked it on line and made my reservation under the Federal Government rate which according to Marriott policy, covers active duty military and their dependents on leisure travel.  Upon check in the manager was looking over the clerks shoulder as we checked in and proceeded to take my military dependent ID, look it over, then tell me I did not qualify for the rate.  She sat there at 9pm arguing with me while my children stood and watched and waited to get in the room after a long day of cross country travel.  The manager continued to argue with me and was downright rude before finally letting me have the rate.  I would have left if not for my tired children.  I will NEVER stay at this hotel again and will warn others away from it.  There is no reason a manager should ever argue with a guest, especially when we got to our room and it smelled bad and was dingy.  The hotel did not have Disney channel like every other Marriott property I have stayed at and like since I know what I am going to get when traveling with my children.  It is hard enough being a military family, but when I travel with my children when my husband in deployed and serving this country, I don't expect to be so disrespected by a...This hotel was a bad experience before I could even check in.  I booked it on line and made my reservation under the Federal Government rate which according to Marriott policy, covers active duty military and their dependents on leisure travel.  Upon check in the manager was looking over the clerks shoulder as we checked in and proceeded to take my military dependent ID, look it over, then tell me I did not qualify for the rate.  She sat there at 9pm arguing with me while my children stood and watched and waited to get in the room after a long day of cross country travel.  The manager continued to argue with me and was downright rude before finally letting me have the rate.  I would have left if not for my tired children.  I will NEVER stay at this hotel again and will warn others away from it.  There is no reason a manager should ever argue with a guest, especially when we got to our room and it smelled bad and was dingy.  The hotel did not have Disney channel like every other Marriott property I have stayed at and like since I know what I am going to get when traveling with my children.  It is hard enough being a military family, but when I travel with my children when my husband in deployed and serving this country, I don't expect to be so disrespected by a hotel manager.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r192009054-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>192009054</t>
+  </si>
+  <si>
+    <t>01/25/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel for Price</t>
+  </si>
+  <si>
+    <t>A nice stay considering the cost of the room in the area you are in.  If you have a car, and are ok with driving 10-15 mins to get to where ever you need to get to, it is perfect.  It's not a hotel that you would have a romantic stay at, but I assume that's obvious if you are at a Courtyard Marriott.  Price is the key factor for satisfaction here.Smaller room but recently updated in that Courtyard Marriott fashion.  Can't complain, when the parking and internet is free this close to Irvine, Costa Mesa, and Laguna Hills.One downside is location right off of the freeway.  Ask for a room facing away from the freeway.  The 5 freeway can get noisy at times.  I would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded January 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2014</t>
+  </si>
+  <si>
+    <t>A nice stay considering the cost of the room in the area you are in.  If you have a car, and are ok with driving 10-15 mins to get to where ever you need to get to, it is perfect.  It's not a hotel that you would have a romantic stay at, but I assume that's obvious if you are at a Courtyard Marriott.  Price is the key factor for satisfaction here.Smaller room but recently updated in that Courtyard Marriott fashion.  Can't complain, when the parking and internet is free this close to Irvine, Costa Mesa, and Laguna Hills.One downside is location right off of the freeway.  Ask for a room facing away from the freeway.  The 5 freeway can get noisy at times.  I would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r185590807-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>185590807</t>
+  </si>
+  <si>
+    <t>11/23/2013</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>Stayed there overnight while attending the Laguna Beach Festival of the Arts, which is about a 15 minute ride down the road.  We liked it because it's out of the summer crowds in Laguna Beach.  Nice accommodations; the beds were comfortable, rooms clean and quiet.  Friendly staff.  Would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded November 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2013</t>
+  </si>
+  <si>
+    <t>Stayed there overnight while attending the Laguna Beach Festival of the Arts, which is about a 15 minute ride down the road.  We liked it because it's out of the summer crowds in Laguna Beach.  Nice accommodations; the beds were comfortable, rooms clean and quiet.  Friendly staff.  Would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r182068808-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>182068808</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>Just enough for work</t>
+  </si>
+  <si>
+    <t>Stayed 3 days for work. Room was clean, bed was comfortable had 4 pillows and wifi worked great. Lobby has a small Bristo to get coffee and an egg sandwich which is all I need.Service was good, just enough so I would stay here again for work. MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded October 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2013</t>
+  </si>
+  <si>
+    <t>Stayed 3 days for work. Room was clean, bed was comfortable had 4 pillows and wifi worked great. Lobby has a small Bristo to get coffee and an egg sandwich which is all I need.Service was good, just enough so I would stay here again for work. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r182032979-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>182032979</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>Great hotel - Mediocre Food</t>
+  </si>
+  <si>
+    <t>This is a good hotel with very friendly service. I did notice walking through the halls that I could hear conversations in every room, but I was not affected by any noise, inside or out. The only disappointment was the bistro breakfast. It did not match up to my previous experiences. I would encourage you to drive down the road a bit to find food. There's a mall just a few minutes drive away with restaurants and Starbucks.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a good hotel with very friendly service. I did notice walking through the halls that I could hear conversations in every room, but I was not affected by any noise, inside or out. The only disappointment was the bistro breakfast. It did not match up to my previous experiences. I would encourage you to drive down the road a bit to find food. There's a mall just a few minutes drive away with restaurants and Starbucks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r173570278-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>173570278</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>Marriott Quality at a reasonable price</t>
+  </si>
+  <si>
+    <t>My GF and I were looking for a hotel with close proximity to Orange County coast cities such as Laguna Beach, Newport Beach and Dana Point.  I saw the pictures and read reviews about this hotel online and my reaction was this would be a good option.  I have always had good experiences with Marriott hotels in the past and this was no exception.  
+This place has great bang for the buck.   Even though it is located right off the 5 freeway, there is no noise factor (I assume it is because of double paned glass).  The lobby décor was colorful and unique: I really liked the private booths with individual flat screen TVs, and there were computers available to guests spread throughout the area.  The staff was friendly, helpful and highly efficient.  The room was immaculate and the bed was comfortable.   The amenities (workout room, pool, Jacuzzi) were well maintained.  We ended up ordering food in one night  from the Bistro, located in the lobby.  I thought the food was slightly over priced, but it was well prepared and tasty.  All things considered, I think this is a  well run facility that lives up to the Marriott name and reputation.  That being said, I think it is better suited for business travelers; the hotel was obviously planned for that market.  It also works well for families on a budget.
+I do have a complaint that I hope the management...My GF and I were looking for a hotel with close proximity to Orange County coast cities such as Laguna Beach, Newport Beach and Dana Point.  I saw the pictures and read reviews about this hotel online and my reaction was this would be a good option.  I have always had good experiences with Marriott hotels in the past and this was no exception.  This place has great bang for the buck.   Even though it is located right off the 5 freeway, there is no noise factor (I assume it is because of double paned glass).  The lobby décor was colorful and unique: I really liked the private booths with individual flat screen TVs, and there were computers available to guests spread throughout the area.  The staff was friendly, helpful and highly efficient.  The room was immaculate and the bed was comfortable.   The amenities (workout room, pool, Jacuzzi) were well maintained.  We ended up ordering food in one night  from the Bistro, located in the lobby.  I thought the food was slightly over priced, but it was well prepared and tasty.  All things considered, I think this is a  well run facility that lives up to the Marriott name and reputation.  That being said, I think it is better suited for business travelers; the hotel was obviously planned for that market.  It also works well for families on a budget.I do have a complaint that I hope the management will take notice of, and it really has nothing to do with the service or quality.  We stayed on a weekend and particularly on Saturday it was difficult to  take advantage of the amenities. I had to make a couple of trips to the workout room before I could find an open machine to use, due to crowding.  This was even a bigger issue for the Pool/Jacuzzi area; hordes of kids took over those areas Saturday from about 3 in the afternoon until almost 10 at night.  If this is a common occurrence on weekends, perhaps the staff could monitor those  areas to make sure people are not abusing the time and allowing others access.  Naturally, there was no way my GF and I could enjoy a romantic swim or Jacuzzi due to all the kid traffic.Bottom Line: Despite the amenities issues, we generally had a pleasant stay and would consider staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded September 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2013</t>
+  </si>
+  <si>
+    <t>My GF and I were looking for a hotel with close proximity to Orange County coast cities such as Laguna Beach, Newport Beach and Dana Point.  I saw the pictures and read reviews about this hotel online and my reaction was this would be a good option.  I have always had good experiences with Marriott hotels in the past and this was no exception.  
+This place has great bang for the buck.   Even though it is located right off the 5 freeway, there is no noise factor (I assume it is because of double paned glass).  The lobby décor was colorful and unique: I really liked the private booths with individual flat screen TVs, and there were computers available to guests spread throughout the area.  The staff was friendly, helpful and highly efficient.  The room was immaculate and the bed was comfortable.   The amenities (workout room, pool, Jacuzzi) were well maintained.  We ended up ordering food in one night  from the Bistro, located in the lobby.  I thought the food was slightly over priced, but it was well prepared and tasty.  All things considered, I think this is a  well run facility that lives up to the Marriott name and reputation.  That being said, I think it is better suited for business travelers; the hotel was obviously planned for that market.  It also works well for families on a budget.
+I do have a complaint that I hope the management...My GF and I were looking for a hotel with close proximity to Orange County coast cities such as Laguna Beach, Newport Beach and Dana Point.  I saw the pictures and read reviews about this hotel online and my reaction was this would be a good option.  I have always had good experiences with Marriott hotels in the past and this was no exception.  This place has great bang for the buck.   Even though it is located right off the 5 freeway, there is no noise factor (I assume it is because of double paned glass).  The lobby décor was colorful and unique: I really liked the private booths with individual flat screen TVs, and there were computers available to guests spread throughout the area.  The staff was friendly, helpful and highly efficient.  The room was immaculate and the bed was comfortable.   The amenities (workout room, pool, Jacuzzi) were well maintained.  We ended up ordering food in one night  from the Bistro, located in the lobby.  I thought the food was slightly over priced, but it was well prepared and tasty.  All things considered, I think this is a  well run facility that lives up to the Marriott name and reputation.  That being said, I think it is better suited for business travelers; the hotel was obviously planned for that market.  It also works well for families on a budget.I do have a complaint that I hope the management will take notice of, and it really has nothing to do with the service or quality.  We stayed on a weekend and particularly on Saturday it was difficult to  take advantage of the amenities. I had to make a couple of trips to the workout room before I could find an open machine to use, due to crowding.  This was even a bigger issue for the Pool/Jacuzzi area; hordes of kids took over those areas Saturday from about 3 in the afternoon until almost 10 at night.  If this is a common occurrence on weekends, perhaps the staff could monitor those  areas to make sure people are not abusing the time and allowing others access.  Naturally, there was no way my GF and I could enjoy a romantic swim or Jacuzzi due to all the kid traffic.Bottom Line: Despite the amenities issues, we generally had a pleasant stay and would consider staying again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r172664641-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>172664641</t>
+  </si>
+  <si>
+    <t>08/17/2013</t>
+  </si>
+  <si>
+    <t>Will not stay here again</t>
+  </si>
+  <si>
+    <t>I was drawn to this hotel because of its proximity to Irvine Spectrum -- it is an exit away but is located in an industrial area, by the freeway.  The environment is not at all like Irvine.We checked in at past 3pm but was told that the room wasn't ready.  I requested a room facing the back and was told that the room reserved for me was in the quiet area but I had to come back after an hour.When we got back, the hotel manager was at the front desk and told me that the room that we were assigned couldn't be released and we were going into another floor.  We had to wait for another 30 minutes to finally check in.  Surprisingly bad front desk service, considering that they are a business hotel and the hotel manager was there !The room we got was in the quiet area but the double beds seemed smaller in size compared to other hotels.  Saving grace for this hotel is the good service at the restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I was drawn to this hotel because of its proximity to Irvine Spectrum -- it is an exit away but is located in an industrial area, by the freeway.  The environment is not at all like Irvine.We checked in at past 3pm but was told that the room wasn't ready.  I requested a room facing the back and was told that the room reserved for me was in the quiet area but I had to come back after an hour.When we got back, the hotel manager was at the front desk and told me that the room that we were assigned couldn't be released and we were going into another floor.  We had to wait for another 30 minutes to finally check in.  Surprisingly bad front desk service, considering that they are a business hotel and the hotel manager was there !The room we got was in the quiet area but the double beds seemed smaller in size compared to other hotels.  Saving grace for this hotel is the good service at the restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r166989546-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>166989546</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Quick stay... good central location to several attractions in SoCal</t>
+  </si>
+  <si>
+    <t>Location is great if traveling to/from Anaheim or San Diego for attractions. Beach is close by as well. Rooms are decent and staff was nice. Pool decking needs to be re-done but still nice. We would stay here again. Traveled with kids.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Location is great if traveling to/from Anaheim or San Diego for attractions. Beach is close by as well. Rooms are decent and staff was nice. Pool decking needs to be re-done but still nice. We would stay here again. Traveled with kids.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r164014285-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>164014285</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>Got in on points.  Won't go back</t>
+  </si>
+  <si>
+    <t>Older facility that has been refurbished.  Not much to say other than it is a two star facility.Right on freeway, so make sure you get a room on the back side of hotel.  We had good service from the night desk clerk.MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded June 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2013</t>
+  </si>
+  <si>
+    <t>Older facility that has been refurbished.  Not much to say other than it is a two star facility.Right on freeway, so make sure you get a room on the back side of hotel.  We had good service from the night desk clerk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r160218847-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>160218847</t>
+  </si>
+  <si>
+    <t>05/09/2013</t>
+  </si>
+  <si>
+    <t>Exceeding the standard ...</t>
+  </si>
+  <si>
+    <t>Great staff - can not say enough how first class the personnel are working here. Room was comfortable, clean and had a balcony plus a mini fridge.  Quiet even though it is near freeway.  Stayed here for 3 nights while on business.  Location was perfect.  Had dinner and breakfast twice at the Bistro and all four times the food was prepared to my customizations, served quickly and was good.  Very attentative staff.  Seem to utilize flex staffing for breakfast and dinner peak times.  The staff is paying attention to the kind of details on customer service that one typically associates with upper end hotels (e.g. calling you Mr. or Ms after one meeting) - taking the time to acknowledge you ("how was your run / workout"?) - they are doing a very nice job of creating a temporary community.  Lobby is vibrant, functional and a place you actually want to utilize.  Pool and spa area were very nice.  Work out room is equipped with a stationary bike, 2 treadmills, 1 eliptical and some free weights.  Net - the general manager is hiring and training the right people in the right ways.  Additionally it appears the expecations about customer service and team work are communicated and it reflects in an experience that is far and above the "typical Courtyard experience".  I would absolutely stay here again whether or business or pleasure.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded May 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2013</t>
+  </si>
+  <si>
+    <t>Great staff - can not say enough how first class the personnel are working here. Room was comfortable, clean and had a balcony plus a mini fridge.  Quiet even though it is near freeway.  Stayed here for 3 nights while on business.  Location was perfect.  Had dinner and breakfast twice at the Bistro and all four times the food was prepared to my customizations, served quickly and was good.  Very attentative staff.  Seem to utilize flex staffing for breakfast and dinner peak times.  The staff is paying attention to the kind of details on customer service that one typically associates with upper end hotels (e.g. calling you Mr. or Ms after one meeting) - taking the time to acknowledge you ("how was your run / workout"?) - they are doing a very nice job of creating a temporary community.  Lobby is vibrant, functional and a place you actually want to utilize.  Pool and spa area were very nice.  Work out room is equipped with a stationary bike, 2 treadmills, 1 eliptical and some free weights.  Net - the general manager is hiring and training the right people in the right ways.  Additionally it appears the expecations about customer service and team work are communicated and it reflects in an experience that is far and above the "typical Courtyard experience".  I would absolutely stay here again whether or business or pleasure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r160164164-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>160164164</t>
+  </si>
+  <si>
+    <t>No free breakfast, problem with free Internet, no upgrade for platinum member</t>
+  </si>
+  <si>
+    <t>I stay over 200 nights at hotels a year.  Marriott Platinum member, Hilton Diamond, SPG Platinum, Pro:Good locationFree parkingCon:Dirty carpet in room (stains)No free breakfastNo upgrade for platinum member to better roomMoreShow less</t>
+  </si>
+  <si>
+    <t>I stay over 200 nights at hotels a year.  Marriott Platinum member, Hilton Diamond, SPG Platinum, Pro:Good locationFree parkingCon:Dirty carpet in room (stains)No free breakfastNo upgrade for platinum member to better roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r157000032-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>157000032</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Convenient comfort class</t>
+  </si>
+  <si>
+    <t>We have stayed here two years in a row while in Southern California. It's right on the freeway, but we didn't find it noisy at all. We stayed on the opposite side from the freeway, though. The hotel is nicely decorated, there is a comfy cozy lounge in the lobby, presumably where groups could hang out and watch the large flat screen. The rooms are impeccably clean, good Marriott beds and linens , as you would expect. The location is close enough to beaches, to LA, to the stellar Irvine Spectrum entertainment  complex , huge theater and restaurants galore. We will be back! That's a great team running the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded April 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2013</t>
+  </si>
+  <si>
+    <t>We have stayed here two years in a row while in Southern California. It's right on the freeway, but we didn't find it noisy at all. We stayed on the opposite side from the freeway, though. The hotel is nicely decorated, there is a comfy cozy lounge in the lobby, presumably where groups could hang out and watch the large flat screen. The rooms are impeccably clean, good Marriott beds and linens , as you would expect. The location is close enough to beaches, to LA, to the stellar Irvine Spectrum entertainment  complex , huge theater and restaurants galore. We will be back! That's a great team running the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r156530026-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>156530026</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Very Nice, Would Return Without Hesitation</t>
+  </si>
+  <si>
+    <t>We chose this property because we felt it gave us the guarantee of a solid stay while diminishing costs significantly when compared to the coast.  This was right on target.  We were just a few minutes from Downtown Laguna Beach but also back off the coast so that we could easily slide off from the hotel to places like San Juan Capistrano, Dana Point or Newport Beach.  It was ideal.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded April 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2013</t>
+  </si>
+  <si>
+    <t>We chose this property because we felt it gave us the guarantee of a solid stay while diminishing costs significantly when compared to the coast.  This was right on target.  We were just a few minutes from Downtown Laguna Beach but also back off the coast so that we could easily slide off from the hotel to places like San Juan Capistrano, Dana Point or Newport Beach.  It was ideal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r155284628-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>155284628</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Happy Travels</t>
+  </si>
+  <si>
+    <t>This Courtyards was beautifully furnished and decorated. If I say it's freeway close that is an understatement. It's on a frontage Road going south on the 5. If you were any closer to the freeway you would be siting on the shoulder with a AAA truck behind you. I don't think the noise in the rooms at the front will be a problem as it is most likely triple glazed.  Strictly business persons hotel, it is close to the Spectrum so if that is your destination on a weekend with a great rate it would work with children. The beds are so comfortable!MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded March 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2013</t>
+  </si>
+  <si>
+    <t>This Courtyards was beautifully furnished and decorated. If I say it's freeway close that is an understatement. It's on a frontage Road going south on the 5. If you were any closer to the freeway you would be siting on the shoulder with a AAA truck behind you. I don't think the noise in the rooms at the front will be a problem as it is most likely triple glazed.  Strictly business persons hotel, it is close to the Spectrum so if that is your destination on a weekend with a great rate it would work with children. The beds are so comfortable!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r153255562-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>153255562</t>
+  </si>
+  <si>
+    <t>02/26/2013</t>
+  </si>
+  <si>
+    <t>Just a place to sleep... Don't forget anything!!!</t>
+  </si>
+  <si>
+    <t>This hotel has an older feel to it. Well worn but somewhat clean despite the stained carpets. The front desk clerk was extremely polite and friendly. My request for extra towels was met promptly as well. I usually stay at courtyards and have come to enjoy the convenience of their breakfast buffet. This one had food to go that was outrageously priced. Additionally, I had to attend a meeting in the morning and  when I returned needing my coffee fix around 10:30 there was no longer any coffee around and the front desk lady said they don't offer it all day. Most of the other courtyards do. The topper was when my four year old left his prized possessions in a backpack in our hotel room.They couldn't find it. I knew exactly where it was... but after their "search" it was unable to be located. No blame on the front desk... I know they looked for it... but it didn't grow legs and walk out on its own. Obviously the result of an untrustworthy staff. Just sad. MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded March 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2013</t>
+  </si>
+  <si>
+    <t>This hotel has an older feel to it. Well worn but somewhat clean despite the stained carpets. The front desk clerk was extremely polite and friendly. My request for extra towels was met promptly as well. I usually stay at courtyards and have come to enjoy the convenience of their breakfast buffet. This one had food to go that was outrageously priced. Additionally, I had to attend a meeting in the morning and  when I returned needing my coffee fix around 10:30 there was no longer any coffee around and the front desk lady said they don't offer it all day. Most of the other courtyards do. The topper was when my four year old left his prized possessions in a backpack in our hotel room.They couldn't find it. I knew exactly where it was... but after their "search" it was unable to be located. No blame on the front desk... I know they looked for it... but it didn't grow legs and walk out on its own. Obviously the result of an untrustworthy staff. Just sad. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r148663331-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>148663331</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay with kids</t>
+  </si>
+  <si>
+    <t>The staff was so great.  We had a great time. Even if there was an issue they handled it so nicely. I would highly recommend this hotel. The convenience to the freeway is great as well. The pool and tennis courts were also very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded January 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2013</t>
+  </si>
+  <si>
+    <t>The staff was so great.  We had a great time. Even if there was an issue they handled it so nicely. I would highly recommend this hotel. The convenience to the freeway is great as well. The pool and tennis courts were also very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r144718522-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>144718522</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Friendly Staff and Clean Rooms</t>
+  </si>
+  <si>
+    <t>We made a pit stop at this property on our way back to San Diego and I was pleasantly surprised.  I called the hotel earlier with a question and when I checked in the front desk agent remembered our conversation.  She made me feel welcome right away.  There was a little bistro in the lobby so we ordered some desserts and an appetizer.  The servers there were very nice too.  The hotel lobby was inviting and the rooms were clean.  The bed and pillows were super comfortable.  I wish we were staying another night so that we could enjoy the outdoor pool.  I would definitely come here again even just for a weekend getaway.  It isn't a resort, but I love that it's super close to Irvine Spectrum.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded November 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2012</t>
+  </si>
+  <si>
+    <t>We made a pit stop at this property on our way back to San Diego and I was pleasantly surprised.  I called the hotel earlier with a question and when I checked in the front desk agent remembered our conversation.  She made me feel welcome right away.  There was a little bistro in the lobby so we ordered some desserts and an appetizer.  The servers there were very nice too.  The hotel lobby was inviting and the rooms were clean.  The bed and pillows were super comfortable.  I wish we were staying another night so that we could enjoy the outdoor pool.  I would definitely come here again even just for a weekend getaway.  It isn't a resort, but I love that it's super close to Irvine Spectrum.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r140211244-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>140211244</t>
+  </si>
+  <si>
+    <t>09/13/2012</t>
+  </si>
+  <si>
+    <t>A hotel which serves the purpose</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights so got a feel for the place. The staff are friendly and good. The rooms are big, equipped but basic. The food menu is the big let down so apart from breakfast don't plan to eat here. No atmosphere in the lobby or bar area at night if you want to unwind. Serves a nice and comfortable purpose for using as a crash pad.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded September 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for 5 nights so got a feel for the place. The staff are friendly and good. The rooms are big, equipped but basic. The food menu is the big let down so apart from breakfast don't plan to eat here. No atmosphere in the lobby or bar area at night if you want to unwind. Serves a nice and comfortable purpose for using as a crash pad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r139922357-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>139922357</t>
+  </si>
+  <si>
+    <t>09/10/2012</t>
+  </si>
+  <si>
+    <t>Perfect location, especially for Verizon Wireless Ampitheater</t>
+  </si>
+  <si>
+    <t>Loved my stay here this weekend. I was in town to see a concert at Verizon Wireless and 3 of us stayed here and loved it. Clean rooms, perfect location for the venue and really anything around Irvine and Newport Beach. Close to shopping, food, and the staff is fantastic. I would recommend this hotel to anyone in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded September 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2012</t>
+  </si>
+  <si>
+    <t>Loved my stay here this weekend. I was in town to see a concert at Verizon Wireless and 3 of us stayed here and loved it. Clean rooms, perfect location for the venue and really anything around Irvine and Newport Beach. Close to shopping, food, and the staff is fantastic. I would recommend this hotel to anyone in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r137781771-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>137781771</t>
+  </si>
+  <si>
+    <t>08/20/2012</t>
+  </si>
+  <si>
+    <t>Average Marriott on the freeway and close to John Wayne airport</t>
+  </si>
+  <si>
+    <t>As far as business hotels go, this one does the job and is close to anything in Irvine you might need. The rooms are ok, bathrooms are dated, and any rooms facing the freeway side will be noisy. The pool area is quite nice though, and the lobby looks rennovated and modern. They really need to do something about the bathrooms in the rooms though, which just don't fit with Marriotts in general or the rest of the hotel. A couple of miles down the road is Laguna Hills Mall, which has a lot of restaurants and shops. Just make a right out of the parking lot and keep going until it is on your right. The driving around there is very confusing and it's easy to  get caught up in a bunch of U-turns, trying to find your way around.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>MarcSchlesinger, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded August 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2012</t>
+  </si>
+  <si>
+    <t>As far as business hotels go, this one does the job and is close to anything in Irvine you might need. The rooms are ok, bathrooms are dated, and any rooms facing the freeway side will be noisy. The pool area is quite nice though, and the lobby looks rennovated and modern. They really need to do something about the bathrooms in the rooms though, which just don't fit with Marriotts in general or the rest of the hotel. A couple of miles down the road is Laguna Hills Mall, which has a lot of restaurants and shops. Just make a right out of the parking lot and keep going until it is on your right. The driving around there is very confusing and it's easy to  get caught up in a bunch of U-turns, trying to find your way around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r132189315-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>132189315</t>
+  </si>
+  <si>
+    <t>06/17/2012</t>
+  </si>
+  <si>
+    <t>Clean/Comfortable/Reasonably Priced</t>
+  </si>
+  <si>
+    <t>After reading prior reviews I booked a room with cautious optimism, not expecting much for the reasonable price of $92 senior rate. Because of previous reviewer complaints of freeway noise, I requested a room away from the freeway side and hoped for the best. We got the best.We had no noise from the freeway; the hotel had an almost new feel, with a courteous and helpful front desk, comfortable bed and bedding, and a tub shower w/ a fabulous shower head.There was a girls softball team staying on the same floor who were a bit noisy in the hall, but we just used the fan setting on the thermostat to block out the noise, and slept quite peacefully.We enjoyed our stay and plan to use this hotel again when we're in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>jmsch344, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded June 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2012</t>
+  </si>
+  <si>
+    <t>After reading prior reviews I booked a room with cautious optimism, not expecting much for the reasonable price of $92 senior rate. Because of previous reviewer complaints of freeway noise, I requested a room away from the freeway side and hoped for the best. We got the best.We had no noise from the freeway; the hotel had an almost new feel, with a courteous and helpful front desk, comfortable bed and bedding, and a tub shower w/ a fabulous shower head.There was a girls softball team staying on the same floor who were a bit noisy in the hall, but we just used the fan setting on the thermostat to block out the noise, and slept quite peacefully.We enjoyed our stay and plan to use this hotel again when we're in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r129536647-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>129536647</t>
+  </si>
+  <si>
+    <t>05/07/2012</t>
+  </si>
+  <si>
+    <t>Look forward to next visit!</t>
+  </si>
+  <si>
+    <t>Great staff, I checked in late Friday and was quickly and pleasantly checked in.Remodeled lobby looks fantastic, now includes a bistro, starbucks, and plenty of furniture.Room was just a pictured in photos. Beautiful, clean. No problems.Only thing they could improve on is high speed internet.They have free wifi but it is painfully sloooooooooow.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>jmsch344, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded May 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2012</t>
+  </si>
+  <si>
+    <t>Great staff, I checked in late Friday and was quickly and pleasantly checked in.Remodeled lobby looks fantastic, now includes a bistro, starbucks, and plenty of furniture.Room was just a pictured in photos. Beautiful, clean. No problems.Only thing they could improve on is high speed internet.They have free wifi but it is painfully sloooooooooow.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r128940614-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>128940614</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>Love it!</t>
+  </si>
+  <si>
+    <t>My family was in town, unfortunately for a funeral, and the staff at the Laguna Hills Courtyard was so kind to them. I was so happy to hear that they all were well taken care of and were told if they needed anything to let the front staff know and it would get done. We all meet one morning for breakfast at the hotel and it was wonderful.  Oh and the kids loved the pool too!Recently, my husband and I stayed there while our house was being tented and I love the new upgraded wifi and the new bistro area. Thanks for making our staff so easy and comfortable. I was already stressed about the house, but soon relaxed when I saw how I was going to be taken care of at the Courtyard.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>jmsch344, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded April 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2012</t>
+  </si>
+  <si>
+    <t>My family was in town, unfortunately for a funeral, and the staff at the Laguna Hills Courtyard was so kind to them. I was so happy to hear that they all were well taken care of and were told if they needed anything to let the front staff know and it would get done. We all meet one morning for breakfast at the hotel and it was wonderful.  Oh and the kids loved the pool too!Recently, my husband and I stayed there while our house was being tented and I love the new upgraded wifi and the new bistro area. Thanks for making our staff so easy and comfortable. I was already stressed about the house, but soon relaxed when I saw how I was going to be taken care of at the Courtyard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r126117928-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>126117928</t>
+  </si>
+  <si>
+    <t>03/14/2012</t>
+  </si>
+  <si>
+    <t>Nice Courtyard!</t>
+  </si>
+  <si>
+    <t>Came to the Courtyard after checking out of a not-so-savory hotel nearby, on the advice of a friend who had stayed at this location in Laguna Hills before.Called the hotel directly for some clarification on the room types and rates available and was promptly serviced. Check in was very efficient by a friendly gentleman. Room was ready on time as requested.However, Courtyards in general don't seem to cater to Marriott Rewards Gold members...so we didn't get any magical upgrade, or free drinks, or free breakfast.Nonetheless, the rooms were pretty spacious. I still don't know why hotels use double beds instead of queens...but the beds were at least comfy. The room was very clean and included a regular coffeepot instead of some substitution thereof.The lobby was nice to relax in. Lots of places to sit with plenty of power ports for charging laptops, iPads or phones. Free wi-fi was fast.The "bistro" served standard fare for breakfast, lunch and dinner and had alcoholic beverages for purchase. Prices were pretty steep; $30 for breakfast was about average and $7-8 for one drink in the evening.Pool was nice and there was a hot tub/whirlpool.I'd stay here again. It was close to a lot of things and easily accessed off the 5 or the 405.If I could change anything...I'd like to see Gold Rewards members get some benefits.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Came to the Courtyard after checking out of a not-so-savory hotel nearby, on the advice of a friend who had stayed at this location in Laguna Hills before.Called the hotel directly for some clarification on the room types and rates available and was promptly serviced. Check in was very efficient by a friendly gentleman. Room was ready on time as requested.However, Courtyards in general don't seem to cater to Marriott Rewards Gold members...so we didn't get any magical upgrade, or free drinks, or free breakfast.Nonetheless, the rooms were pretty spacious. I still don't know why hotels use double beds instead of queens...but the beds were at least comfy. The room was very clean and included a regular coffeepot instead of some substitution thereof.The lobby was nice to relax in. Lots of places to sit with plenty of power ports for charging laptops, iPads or phones. Free wi-fi was fast.The "bistro" served standard fare for breakfast, lunch and dinner and had alcoholic beverages for purchase. Prices were pretty steep; $30 for breakfast was about average and $7-8 for one drink in the evening.Pool was nice and there was a hot tub/whirlpool.I'd stay here again. It was close to a lot of things and easily accessed off the 5 or the 405.If I could change anything...I'd like to see Gold Rewards members get some benefits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r125869576-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>125869576</t>
+  </si>
+  <si>
+    <t>03/09/2012</t>
+  </si>
+  <si>
+    <t>Can't Handle Problems</t>
+  </si>
+  <si>
+    <t>A few hours after check-in someone opened my front door and upon seeing me asked when I was planning to check out.  I yelled at him to shut the door and get out.  I immediately reported this to the front desk and got the reply sorry about that but no other explanation.  I had the deadbolt latch set but that had no effect in stopping entry.  At this point I did not know if a thief was trying to break in or if it was a hotel employee.  I called front desk again asking to speak to the manager but was told none was available, instead I was given the person who just broke into my room.  He said he was instructed by housekeeping to repair my room and insisted he knocked before entering.  He called me a liar when I said he walked in without knocking.  I called the front desk again asking to speak to the manager.  I was told the manager would call back but that never happened.  Totally unacceptable.  Your stay might be fine but look out if there is a problem.  Marriott tends to be customer oriented, not this location. To summarize: employee walks into my room without knocking, I call front desk to complain, I'm called a liar.MoreShow less</t>
+  </si>
+  <si>
+    <t>A few hours after check-in someone opened my front door and upon seeing me asked when I was planning to check out.  I yelled at him to shut the door and get out.  I immediately reported this to the front desk and got the reply sorry about that but no other explanation.  I had the deadbolt latch set but that had no effect in stopping entry.  At this point I did not know if a thief was trying to break in or if it was a hotel employee.  I called front desk again asking to speak to the manager but was told none was available, instead I was given the person who just broke into my room.  He said he was instructed by housekeeping to repair my room and insisted he knocked before entering.  He called me a liar when I said he walked in without knocking.  I called the front desk again asking to speak to the manager.  I was told the manager would call back but that never happened.  Totally unacceptable.  Your stay might be fine but look out if there is a problem.  Marriott tends to be customer oriented, not this location. To summarize: employee walks into my room without knocking, I call front desk to complain, I'm called a liar.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r124676042-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>124676042</t>
+  </si>
+  <si>
+    <t>02/16/2012</t>
+  </si>
+  <si>
+    <t>Great people, very noisy</t>
+  </si>
+  <si>
+    <t>I really like the staff at this hotel.  Every single person was polite, professional and legitimately interested in my well being.I will say that the hotel was very noisy.  I had to change my room after the first night, which they were able to accomodate.  Even though the new room was not on the freeway side, it was still very noisy. So, if you need a quiet place, don't stay here.  If you want good service, consider it.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>jmsch344, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded March 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2012</t>
+  </si>
+  <si>
+    <t>I really like the staff at this hotel.  Every single person was polite, professional and legitimately interested in my well being.I will say that the hotel was very noisy.  I had to change my room after the first night, which they were able to accomodate.  Even though the new room was not on the freeway side, it was still very noisy. So, if you need a quiet place, don't stay here.  If you want good service, consider it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r123423402-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>123423402</t>
+  </si>
+  <si>
+    <t>01/21/2012</t>
+  </si>
+  <si>
+    <t>Great Weekend Getaway......</t>
+  </si>
+  <si>
+    <t>Drove in from Vegas to spend the weekend in Laguna and really lucked out with this place. Friendly staff was very helpful upon check-in. Room was modern, clean and quiet. We were on opposite side of the freeway and didn't hear any noise at all the entire night. Since we got in late, we ate at the hotel that night, lite fare, not bad at all and reasonably priced with excellent service. Short drive to Laguna Beach. For the price, we were very satisfied with our stay and would definately go there again.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r123040847-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>123040847</t>
+  </si>
+  <si>
+    <t>01/13/2012</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>Stayed three nights 12/29/11 to 1/1/12. We had a wedding to attend down the road in San Clemente about 25 minutes away.  Occupancy was very low. I'd say 15% to 20% of the parking lot was used. Located next to the freeway, you will some noise, but it could have been worse. At a hundred dollars per night you can't expect greatness anymore and that's what we got. This was a clean hotel, so no complaints there. The staff was nice, even if not helpful. The first night was noisy, like they were carrying out some kind of repair on our floor, like hammering. We put up with it and tried to sleep. The next morning staff said they weren't doing any work, so who knows what it was. Night two was okay, but night three was New Years Eve. We celebrated early and were in bed by 11:00 pm. We awoke at midnight to hear fireworks, etc. and expected something like that. What we didn't expect was yelling and crying from across the hall. About 2:30 a.m. it sounded like a domestic dispute situation and a young girl was crying, so we called the front desk. A person came up and knocked on their door, but no one answered, so the hotel staff left. More yelling but they finally quieted down, but we had only one good night's rest out of three. We asked for an adjustment of one...Stayed three nights 12/29/11 to 1/1/12. We had a wedding to attend down the road in San Clemente about 25 minutes away.  Occupancy was very low. I'd say 15% to 20% of the parking lot was used. Located next to the freeway, you will some noise, but it could have been worse. At a hundred dollars per night you can't expect greatness anymore and that's what we got. This was a clean hotel, so no complaints there. The staff was nice, even if not helpful. The first night was noisy, like they were carrying out some kind of repair on our floor, like hammering. We put up with it and tried to sleep. The next morning staff said they weren't doing any work, so who knows what it was. Night two was okay, but night three was New Years Eve. We celebrated early and were in bed by 11:00 pm. We awoke at midnight to hear fireworks, etc. and expected something like that. What we didn't expect was yelling and crying from across the hall. About 2:30 a.m. it sounded like a domestic dispute situation and a young girl was crying, so we called the front desk. A person came up and knocked on their door, but no one answered, so the hotel staff left. More yelling but they finally quieted down, but we had only one good night's rest out of three. We asked for an adjustment of one night's stay when we left, but were told a "manager" was not in until January 3rd. When my wife called them, they were argumentative and said we should have expected noise on New Year's Eve. Okay, but we were there three nights and two of them were much less than restful. They eventually gave us back a night, but she had to talk to three people on different days before it was resolved. The Wi-fi worked well, but the free morning coffee in the Lobby was pretty bad--too weak and not good tasting compared to ordinary Starbucks brewed coffee. The snack shack in the Lobby was filled mostly with junk, so not a lot of relief there. The good news is restaurants are plentiful not far away.  With restful nights this would have been just an okay place if you want an inexpensive place to stay, but it's no resort, so don't expect that.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Stayed three nights 12/29/11 to 1/1/12. We had a wedding to attend down the road in San Clemente about 25 minutes away.  Occupancy was very low. I'd say 15% to 20% of the parking lot was used. Located next to the freeway, you will some noise, but it could have been worse. At a hundred dollars per night you can't expect greatness anymore and that's what we got. This was a clean hotel, so no complaints there. The staff was nice, even if not helpful. The first night was noisy, like they were carrying out some kind of repair on our floor, like hammering. We put up with it and tried to sleep. The next morning staff said they weren't doing any work, so who knows what it was. Night two was okay, but night three was New Years Eve. We celebrated early and were in bed by 11:00 pm. We awoke at midnight to hear fireworks, etc. and expected something like that. What we didn't expect was yelling and crying from across the hall. About 2:30 a.m. it sounded like a domestic dispute situation and a young girl was crying, so we called the front desk. A person came up and knocked on their door, but no one answered, so the hotel staff left. More yelling but they finally quieted down, but we had only one good night's rest out of three. We asked for an adjustment of one...Stayed three nights 12/29/11 to 1/1/12. We had a wedding to attend down the road in San Clemente about 25 minutes away.  Occupancy was very low. I'd say 15% to 20% of the parking lot was used. Located next to the freeway, you will some noise, but it could have been worse. At a hundred dollars per night you can't expect greatness anymore and that's what we got. This was a clean hotel, so no complaints there. The staff was nice, even if not helpful. The first night was noisy, like they were carrying out some kind of repair on our floor, like hammering. We put up with it and tried to sleep. The next morning staff said they weren't doing any work, so who knows what it was. Night two was okay, but night three was New Years Eve. We celebrated early and were in bed by 11:00 pm. We awoke at midnight to hear fireworks, etc. and expected something like that. What we didn't expect was yelling and crying from across the hall. About 2:30 a.m. it sounded like a domestic dispute situation and a young girl was crying, so we called the front desk. A person came up and knocked on their door, but no one answered, so the hotel staff left. More yelling but they finally quieted down, but we had only one good night's rest out of three. We asked for an adjustment of one night's stay when we left, but were told a "manager" was not in until January 3rd. When my wife called them, they were argumentative and said we should have expected noise on New Year's Eve. Okay, but we were there three nights and two of them were much less than restful. They eventually gave us back a night, but she had to talk to three people on different days before it was resolved. The Wi-fi worked well, but the free morning coffee in the Lobby was pretty bad--too weak and not good tasting compared to ordinary Starbucks brewed coffee. The snack shack in the Lobby was filled mostly with junk, so not a lot of relief there. The good news is restaurants are plentiful not far away.  With restful nights this would have been just an okay place if you want an inexpensive place to stay, but it's no resort, so don't expect that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r121610308-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>121610308</t>
+  </si>
+  <si>
+    <t>12/10/2011</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel thursday-sunday and it's quiet during the weekends. more of a business person hotel but that works for me!  was a little disappointed to hear the highway traffic at first but everything else made up for it. The entire place is very clean, staff is friendly and the food at the starbucks/ lobby restaurant is good.  I ate there all three nights because I didn't feel like going anywhere- great variety and yummy food. Exercise room is nice too.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r118079258-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>118079258</t>
+  </si>
+  <si>
+    <t>09/13/2011</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The hotel is in great shape having been recently been renovated.  They serve breakfast and dinner.  We stayed in a handicapped room which was excellent for my wife's broken ankle.  The room was spacious and airy.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>jmsch344, Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded September 26, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2011</t>
+  </si>
+  <si>
+    <t>The hotel is in great shape having been recently been renovated.  They serve breakfast and dinner.  We stayed in a handicapped room which was excellent for my wife's broken ankle.  The room was spacious and airy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r117922663-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>117922663</t>
+  </si>
+  <si>
+    <t>09/10/2011</t>
+  </si>
+  <si>
+    <t>Good hotel for business traveller</t>
+  </si>
+  <si>
+    <t>My one night was just the night of sleep I needed after a long day traveling.  The hotel is convenient to the highway (405 and 5) and is nicely renovated.  All the comforts one would expect in a courtyard. You may want to avoid the rooms facing the highways if your noise averse, I asked for a far room to avoid the noise of the roads.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>jmsch344, General Manager at Courtyard Laguna Hills Irvine Spectrum/Orange County, responded to this reviewResponded September 26, 2011</t>
+  </si>
+  <si>
+    <t>My one night was just the night of sleep I needed after a long day traveling.  The hotel is convenient to the highway (405 and 5) and is nicely renovated.  All the comforts one would expect in a courtyard. You may want to avoid the rooms facing the highways if your noise averse, I asked for a far room to avoid the noise of the roads.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r117398453-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>117398453</t>
+  </si>
+  <si>
+    <t>08/29/2011</t>
+  </si>
+  <si>
+    <t>beautiful and modern hotel</t>
+  </si>
+  <si>
+    <t>Room beautifully decorated with great TV. Bed was excellent with feather pillows.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Room beautifully decorated with great TV. Bed was excellent with feather pillows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r115967179-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>115967179</t>
+  </si>
+  <si>
+    <t>07/29/2011</t>
+  </si>
+  <si>
+    <t>Amazing and Comfortable</t>
+  </si>
+  <si>
+    <t>Convenient to the I-5, restaurants within a mile and the Irvine Spectrum is a city within itself!  Our rooms faced away from the front of the hotel and were quiet, clean and comfy.  The only drawback was the choice of a king bed or double.  Seems the double is small for two adults when you're used to sleeping on a california king; no big deal.  Great job Marriott!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Convenient to the I-5, restaurants within a mile and the Irvine Spectrum is a city within itself!  Our rooms faced away from the front of the hotel and were quiet, clean and comfy.  The only drawback was the choice of a king bed or double.  Seems the double is small for two adults when you're used to sleeping on a california king; no big deal.  Great job Marriott!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r115928231-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>115928231</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Business travelers: don't expect to leave this location.</t>
+  </si>
+  <si>
+    <t>In short, this is about 10 to 15 min away from most of the business parks in the area. There is no shuttle and be prepared to wait in excess of 15-20 min for a taxi to arrive. The setup of the hotel is the saving grace. The atmosphere is very business traveller friendly. The front lobby is great for meetings and casual conversations. The bistro is nice and has the right size portioned food for any meal bbut of course, it leans more towards the expensive side. Internet in the rooms is good but can be slow during peak times (I found btwn 5 and 9 pm). As for the surrounding area, there isn't much. If you want a decent meal or change from the bistro, you will need to walk 6-8 min to find a Coco's and a Carl's Jr. Walk about a mile and there is a Buffalo Wild Wings on the other sidebar the overpass. If you have a car or don't needto rely in transportation, this is a good hotel. Otherwise, expect to get everything you need at/in the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>In short, this is about 10 to 15 min away from most of the business parks in the area. There is no shuttle and be prepared to wait in excess of 15-20 min for a taxi to arrive. The setup of the hotel is the saving grace. The atmosphere is very business traveller friendly. The front lobby is great for meetings and casual conversations. The bistro is nice and has the right size portioned food for any meal bbut of course, it leans more towards the expensive side. Internet in the rooms is good but can be slow during peak times (I found btwn 5 and 9 pm). As for the surrounding area, there isn't much. If you want a decent meal or change from the bistro, you will need to walk 6-8 min to find a Coco's and a Carl's Jr. Walk about a mile and there is a Buffalo Wild Wings on the other sidebar the overpass. If you have a car or don't needto rely in transportation, this is a good hotel. Otherwise, expect to get everything you need at/in the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r115066533-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>115066533</t>
+  </si>
+  <si>
+    <t>07/05/2011</t>
+  </si>
+  <si>
+    <t>I was very pleased with my recent stay.</t>
+  </si>
+  <si>
+    <t>I am always a little leary of hotels websites photos of their facilities. The hotel was better than advertised. Upon arrival into the lobby i was warmly greeted by the front desk. The lobby was very nice and  had a small restaurant which we ordered a pizza. We sat in one of the updated booths with a personal flat screen Tv in the booth.The rooms were modern, clean  and had a in suite refrigerator. The satellite tv had plenty of channels and most importantly the king size bed was quite comfortable. It was nice to have a couch in the room for us to watch tv from. The couch also was a fold out bed. We stopped in the exercise room which appeared to have have. Nice equipment including free weights. The pool was nice as well. If you are looking for a nice clean and comfortable room at a reasonable rate I suggest trying this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>I am always a little leary of hotels websites photos of their facilities. The hotel was better than advertised. Upon arrival into the lobby i was warmly greeted by the front desk. The lobby was very nice and  had a small restaurant which we ordered a pizza. We sat in one of the updated booths with a personal flat screen Tv in the booth.The rooms were modern, clean  and had a in suite refrigerator. The satellite tv had plenty of channels and most importantly the king size bed was quite comfortable. It was nice to have a couch in the room for us to watch tv from. The couch also was a fold out bed. We stopped in the exercise room which appeared to have have. Nice equipment including free weights. The pool was nice as well. If you are looking for a nice clean and comfortable room at a reasonable rate I suggest trying this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r102781198-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>102781198</t>
+  </si>
+  <si>
+    <t>04/04/2011</t>
+  </si>
+  <si>
+    <t>Pleasant place to stay near Laguna Niguel</t>
+  </si>
+  <si>
+    <t>We checked in late but were greeted warmly and sent right to our comfortable, connecting rooms. It was clean and pleasant and quiet even though it was right off the highway.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r102120426-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>102120426</t>
+  </si>
+  <si>
+    <t>03/29/2011</t>
+  </si>
+  <si>
+    <t>Needs some major, core upgrades</t>
+  </si>
+  <si>
+    <t>Check-in was good - got up to my room, and noticed immediately the traffic noise.  This was caused by the window not being all the way shut, but I was not able to close it.  Called to front desk to have this fixed.  Someone was sent up immediately, but they still couldn't get it to latch.  It appears that the window is beyond repair.  I had also discovered that one of the cleaning staff had left behind a dirty cleaning towel on the sink.  
+I soon noticed that half the channels on the TV were not working.  I called down regarding that issue.  They sent someone up immediately, and then I was told that it would be fixed right away.  It wasn't fixed, and I was not notified of any update.  It has now been three days without access to any March Madness games or HBO.  I've had to call the front desk six times now looking for updates.  A couple of times they told me it was all fixed - except my TV didn't seem to agree with them.  When I called this evening and spoke with Gary,  I received a lot of attitude.  He got upset because he stated he left me a message.  Well, I did not have any message light on my phone, so I suggested that they need to look into the issues with their phones now.  Oddly, about two minutes after I got off...Check-in was good - got up to my room, and noticed immediately the traffic noise.  This was caused by the window not being all the way shut, but I was not able to close it.  Called to front desk to have this fixed.  Someone was sent up immediately, but they still couldn't get it to latch.  It appears that the window is beyond repair.  I had also discovered that one of the cleaning staff had left behind a dirty cleaning towel on the sink.  I soon noticed that half the channels on the TV were not working.  I called down regarding that issue.  They sent someone up immediately, and then I was told that it would be fixed right away.  It wasn't fixed, and I was not notified of any update.  It has now been three days without access to any March Madness games or HBO.  I've had to call the front desk six times now looking for updates.  A couple of times they told me it was all fixed - except my TV didn't seem to agree with them.  When I called this evening and spoke with Gary,  I received a lot of attitude.  He got upset because he stated he left me a message.  Well, I did not have any message light on my phone, so I suggested that they need to look into the issues with their phones now.  Oddly, about two minutes after I got off the call, my message light came on.  I guess "someone" got maintenance on that one right away, since they don't appreciate looking stupid to the customer.Additional items of concern:  the internet service is very slow, and the workout room has been jammed into a space that isn't fully suitable.  It is rather difficult to run on the treadmill when there is only a two inch clearance between your head and the ceiling, so beware if you are over 6 foot.The guest rooms are also on the small side.  I recently stayed at a Courtyard in South Carolina, outside of Greenville.  The standard guest rooms there were significantly larger - and didn't come with all of the issues I encountered here.It seems that this place has a number of issues that the cosmetic updates haven't corrected.  They need to go beyond that.  Now, they really need to work on the basics of the building - such as windows, phones, internet, cable, and appropriately sized space.Finally, if you want a quiet place to sleep, look elsewhere.  The hotel is overlooking the 405, and because the freeway is at an angle there is no side that faces away from the freeway.  I had asked for a room opposite the freeway, and I was told this room was.  I think they need to be more honest with the fact that neither side is away from the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Check-in was good - got up to my room, and noticed immediately the traffic noise.  This was caused by the window not being all the way shut, but I was not able to close it.  Called to front desk to have this fixed.  Someone was sent up immediately, but they still couldn't get it to latch.  It appears that the window is beyond repair.  I had also discovered that one of the cleaning staff had left behind a dirty cleaning towel on the sink.  
+I soon noticed that half the channels on the TV were not working.  I called down regarding that issue.  They sent someone up immediately, and then I was told that it would be fixed right away.  It wasn't fixed, and I was not notified of any update.  It has now been three days without access to any March Madness games or HBO.  I've had to call the front desk six times now looking for updates.  A couple of times they told me it was all fixed - except my TV didn't seem to agree with them.  When I called this evening and spoke with Gary,  I received a lot of attitude.  He got upset because he stated he left me a message.  Well, I did not have any message light on my phone, so I suggested that they need to look into the issues with their phones now.  Oddly, about two minutes after I got off...Check-in was good - got up to my room, and noticed immediately the traffic noise.  This was caused by the window not being all the way shut, but I was not able to close it.  Called to front desk to have this fixed.  Someone was sent up immediately, but they still couldn't get it to latch.  It appears that the window is beyond repair.  I had also discovered that one of the cleaning staff had left behind a dirty cleaning towel on the sink.  I soon noticed that half the channels on the TV were not working.  I called down regarding that issue.  They sent someone up immediately, and then I was told that it would be fixed right away.  It wasn't fixed, and I was not notified of any update.  It has now been three days without access to any March Madness games or HBO.  I've had to call the front desk six times now looking for updates.  A couple of times they told me it was all fixed - except my TV didn't seem to agree with them.  When I called this evening and spoke with Gary,  I received a lot of attitude.  He got upset because he stated he left me a message.  Well, I did not have any message light on my phone, so I suggested that they need to look into the issues with their phones now.  Oddly, about two minutes after I got off the call, my message light came on.  I guess "someone" got maintenance on that one right away, since they don't appreciate looking stupid to the customer.Additional items of concern:  the internet service is very slow, and the workout room has been jammed into a space that isn't fully suitable.  It is rather difficult to run on the treadmill when there is only a two inch clearance between your head and the ceiling, so beware if you are over 6 foot.The guest rooms are also on the small side.  I recently stayed at a Courtyard in South Carolina, outside of Greenville.  The standard guest rooms there were significantly larger - and didn't come with all of the issues I encountered here.It seems that this place has a number of issues that the cosmetic updates haven't corrected.  They need to go beyond that.  Now, they really need to work on the basics of the building - such as windows, phones, internet, cable, and appropriately sized space.Finally, if you want a quiet place to sleep, look elsewhere.  The hotel is overlooking the 405, and because the freeway is at an angle there is no side that faces away from the freeway.  I had asked for a room opposite the freeway, and I was told this room was.  I think they need to be more honest with the fact that neither side is away from the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r96331999-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>96331999</t>
+  </si>
+  <si>
+    <t>02/12/2011</t>
+  </si>
+  <si>
+    <t>Accomodating</t>
+  </si>
+  <si>
+    <t>The entire hotel has recently been renovated and looks great.  The staff at Courtyrd Marriott Laguna Hills Irvine Spectrum was fantastic.  They allowed us to check in early.  Although the lobby restaurant was closed, the receptionist got me a plate so I could heat up my leftovers.  She even got me a Dr. Pepper from her own stash (free of charge) because I didn't like the Pepsi products available at the front desk.  Every time I walked by, they were smiling and never made me feel like a nuisance.  My husband was there on business and I was there on pleasure.  I sat by the pool and enjoyed silence for hours while he was away at work.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>The entire hotel has recently been renovated and looks great.  The staff at Courtyrd Marriott Laguna Hills Irvine Spectrum was fantastic.  They allowed us to check in early.  Although the lobby restaurant was closed, the receptionist got me a plate so I could heat up my leftovers.  She even got me a Dr. Pepper from her own stash (free of charge) because I didn't like the Pepsi products available at the front desk.  Every time I walked by, they were smiling and never made me feel like a nuisance.  My husband was there on business and I was there on pleasure.  I sat by the pool and enjoyed silence for hours while he was away at work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r74631409-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>74631409</t>
+  </si>
+  <si>
+    <t>08/10/2010</t>
+  </si>
+  <si>
+    <t>Horrible Check in Experience</t>
+  </si>
+  <si>
+    <t>I stayed here August 7, 2010 to go to the Pageant of The Masters in Laguna Beach. I reserved 2 rooms, one for myself and the 2nd one for my 2 friends. My room was ready upon check in at 2p.m. There room was not ready .We put our luggage in my room until theirs was ready. Understandable considering Check in was 3 p.m. We went to wait by the pool area, which was very nice. 3 p.m. comes and room still not ready. It needed to be cleaned still. The desk clerk could not give us a time when it would be ready and said they have no communication with the maid staff. What? Seriously? Every hotel I have ever stayed in has had communication with their maids. Anyway. 3:30 come around. Still nothing. My one friend asked to talk to the manager as this is unacceptable. No manager there. Again, what? After much urging they finally call their corporate office and give the phone to my friend who proceeded ina  professional manner tell them this a bad customer service and their desk clerks could offer no reason and no appology. They onyl said they were busy last night and the rooms are extra dirty. Did not make sense at all. In the menatime, I run up to the floor wher our rooms were and noticed teh maid at my friends room and asked how long. He was very...I stayed here August 7, 2010 to go to the Pageant of The Masters in Laguna Beach. I reserved 2 rooms, one for myself and the 2nd one for my 2 friends. My room was ready upon check in at 2p.m. There room was not ready .We put our luggage in my room until theirs was ready. Understandable considering Check in was 3 p.m. We went to wait by the pool area, which was very nice. 3 p.m. comes and room still not ready. It needed to be cleaned still. The desk clerk could not give us a time when it would be ready and said they have no communication with the maid staff. What? Seriously? Every hotel I have ever stayed in has had communication with their maids. Anyway. 3:30 come around. Still nothing. My one friend asked to talk to the manager as this is unacceptable. No manager there. Again, what? After much urging they finally call their corporate office and give the phone to my friend who proceeded ina  professional manner tell them this a bad customer service and their desk clerks could offer no reason and no appology. They onyl said they were busy last night and the rooms are extra dirty. Did not make sense at all. In the menatime, I run up to the floor wher our rooms were and noticed teh maid at my friends room and asked how long. He was very pleasant and said 20 minutes. That's all it took was for some one to go up and ask. The rest of the stay was very nice, the rooms were clean and the pool veiw was nice. We had rooms 202 and 204. 202 was much bigger and the same price as room 202. 204 had 500 sq ft, Separate bedroom with a door and 2 double beds. Refridgerator, microwave, coffe maker,etc. The breakfast was good too.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I stayed here August 7, 2010 to go to the Pageant of The Masters in Laguna Beach. I reserved 2 rooms, one for myself and the 2nd one for my 2 friends. My room was ready upon check in at 2p.m. There room was not ready .We put our luggage in my room until theirs was ready. Understandable considering Check in was 3 p.m. We went to wait by the pool area, which was very nice. 3 p.m. comes and room still not ready. It needed to be cleaned still. The desk clerk could not give us a time when it would be ready and said they have no communication with the maid staff. What? Seriously? Every hotel I have ever stayed in has had communication with their maids. Anyway. 3:30 come around. Still nothing. My one friend asked to talk to the manager as this is unacceptable. No manager there. Again, what? After much urging they finally call their corporate office and give the phone to my friend who proceeded ina  professional manner tell them this a bad customer service and their desk clerks could offer no reason and no appology. They onyl said they were busy last night and the rooms are extra dirty. Did not make sense at all. In the menatime, I run up to the floor wher our rooms were and noticed teh maid at my friends room and asked how long. He was very...I stayed here August 7, 2010 to go to the Pageant of The Masters in Laguna Beach. I reserved 2 rooms, one for myself and the 2nd one for my 2 friends. My room was ready upon check in at 2p.m. There room was not ready .We put our luggage in my room until theirs was ready. Understandable considering Check in was 3 p.m. We went to wait by the pool area, which was very nice. 3 p.m. comes and room still not ready. It needed to be cleaned still. The desk clerk could not give us a time when it would be ready and said they have no communication with the maid staff. What? Seriously? Every hotel I have ever stayed in has had communication with their maids. Anyway. 3:30 come around. Still nothing. My one friend asked to talk to the manager as this is unacceptable. No manager there. Again, what? After much urging they finally call their corporate office and give the phone to my friend who proceeded ina  professional manner tell them this a bad customer service and their desk clerks could offer no reason and no appology. They onyl said they were busy last night and the rooms are extra dirty. Did not make sense at all. In the menatime, I run up to the floor wher our rooms were and noticed teh maid at my friends room and asked how long. He was very pleasant and said 20 minutes. That's all it took was for some one to go up and ask. The rest of the stay was very nice, the rooms were clean and the pool veiw was nice. We had rooms 202 and 204. 202 was much bigger and the same price as room 202. 204 had 500 sq ft, Separate bedroom with a door and 2 double beds. Refridgerator, microwave, coffe maker,etc. The breakfast was good too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r60899798-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>60899798</t>
+  </si>
+  <si>
+    <t>04/10/2010</t>
+  </si>
+  <si>
+    <t>Predictably ordinary and correct but traffic noise an issue</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights on the occasion of a family visit. It is close to Interstate I-5 amongst a mixture of suburban office buildings, specialised shops and gated communities typical of Orange County. It contains what it says on the box: it is a standard suburban hotel/motelpart of huge chain. It is not bad but it does not offer much. Unfortunately I was ill so didn't use the swimming pool, which looked quite nice. Although my room was along on the side of building and rather towards the back, traffic noise from the interstate is noticable even with all windows closed. It must be pretty bad for the rooms at the front, facing the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights on the occasion of a family visit. It is close to Interstate I-5 amongst a mixture of suburban office buildings, specialised shops and gated communities typical of Orange County. It contains what it says on the box: it is a standard suburban hotel/motelpart of huge chain. It is not bad but it does not offer much. Unfortunately I was ill so didn't use the swimming pool, which looked quite nice. Although my room was along on the side of building and rather towards the back, traffic noise from the interstate is noticable even with all windows closed. It must be pretty bad for the rooms at the front, facing the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r53317625-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>53317625</t>
+  </si>
+  <si>
+    <t>01/12/2010</t>
+  </si>
+  <si>
+    <t>Don't stay here if customer service and cleanliness matters to you</t>
+  </si>
+  <si>
+    <t>Booked this trip via Priceline.com at the last minute for a Friday/Saturday stay.  We arrived At 3:30am Saturday morning.  Found a guest sleeping in the lobby who let us in.  The night clerk was MIA for a while.  Once the clerk checked us in, we went to our room. I located the fridge and found 3 bottles of what looked like very old bottled water that had been left in the fridge when the fridge had been on, then turned off!. Also, the room had no 'do not disturb' signs.  Also found some kind of black hairs on the sheets.Appears as if the room isn't cleaned thoroughly.  Left room @ 9:30 am, returned at 10pm that night only to find that the maid hadn't cleaned our room or made the bed!  Complained to the front desk, a Thomas, who could not have cared less!  He couldn't even say 'sorry' or 'I apologize for the inconvenience, what can I do to make things right?"  Instead, he tried to blame us for the problem saying we must have left the 'do not disturb' sign on the door.  Explained that couldn't be the problem cuz there was no sign in the room.  Again, instead of apologizing all he could say is he could have someone bring towels and empty the trash, if we wanted.  But his tone of voice wasn't friendly.  He clearly didn't want to be bothered. Told him I wanted the...Booked this trip via Priceline.com at the last minute for a Friday/Saturday stay.  We arrived At 3:30am Saturday morning.  Found a guest sleeping in the lobby who let us in.  The night clerk was MIA for a while.  Once the clerk checked us in, we went to our room. I located the fridge and found 3 bottles of what looked like very old bottled water that had been left in the fridge when the fridge had been on, then turned off!. Also, the room had no 'do not disturb' signs.  Also found some kind of black hairs on the sheets.Appears as if the room isn't cleaned thoroughly.  Left room @ 9:30 am, returned at 10pm that night only to find that the maid hadn't cleaned our room or made the bed!  Complained to the front desk, a Thomas, who could not have cared less!  He couldn't even say 'sorry' or 'I apologize for the inconvenience, what can I do to make things right?"  Instead, he tried to blame us for the problem saying we must have left the 'do not disturb' sign on the door.  Explained that couldn't be the problem cuz there was no sign in the room.  Again, instead of apologizing all he could say is he could have someone bring towels and empty the trash, if we wanted.  But his tone of voice wasn't friendly.  He clearly didn't want to be bothered. Told him I wanted the bed made, but all he would say is to repeat that he would have someone bring clean towels.  Explained that wasn't satisfactory.  Asked him where was the concern for customer satisfaction?  Where was the apology?  Why wasn't there ANY effort to compensate us for the inconveniences???  He said we were Priceline customers and just kept repeating that he would bring clean towels and empty the trash, only if we wanted that,  Advised him I would complain, but he didn't care.  Spoke to the maid the next morning, who didn't even realize we were there!!  She hadn't been told we were had checked in, so she didn't come to clean the room.  Told her about the missing signs, which she promptly replaced.  Also spoke to the front desk the morning we checked out to explain the problems and let her know how unhappy we were.  I also told her I was very unhappy that we weren't offered some kind of compensation for our poor treatment and inconveniences, but she said we were Priceline customers. (Apparently, if you are a Priceline customer, they don't feel the need to ensure customer satisfaction or offer compensations for mis-treating customers).  At least she said she was sorry, but she NEVER asked if there was anything she could do to make up for the problems, nor did she offer any kind of compensation.  Only after the THIRD time of me saying 'I can't believe you didn''t offer me SOME kind of compensation, did she offer us a free breakfast.  However, it was too late, as we had to get on the road.  We left a comment card with her, explaining all of the issues that we had.  Also complained to Priceline.com who investigated the problem.  The Marriott management had the nerve to say that there was no note left at the front desk stating there was a problem.  (Guess the woman at the front desk *accidently* lost my comment card).  But, they told Priceline that they did offer to clean my room, which I turned down.  If there was no problem, why would they offer to clean my room???  Priceline bought that!!!  They NEVER OFFERED TO CLEAN MY ROOM and I wouldn't have turned that offer down!  Honestly, this is the second time my family has had problems with hotels mistreating us, yet because we were Priceline customers, the hotels don't feel the need to rectify customer issues.  I don't know that I will use Priceline again, firstly because I don't want to stay at a Marriott again and secondly, I don't want to deal with the headaches when something goes wrong.  In my opinion, this hotel isn't getting enough customers to allow them to hire enough maids to properly and routinely clean the rooms.  The staff at this hotel doesn't careMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>Booked this trip via Priceline.com at the last minute for a Friday/Saturday stay.  We arrived At 3:30am Saturday morning.  Found a guest sleeping in the lobby who let us in.  The night clerk was MIA for a while.  Once the clerk checked us in, we went to our room. I located the fridge and found 3 bottles of what looked like very old bottled water that had been left in the fridge when the fridge had been on, then turned off!. Also, the room had no 'do not disturb' signs.  Also found some kind of black hairs on the sheets.Appears as if the room isn't cleaned thoroughly.  Left room @ 9:30 am, returned at 10pm that night only to find that the maid hadn't cleaned our room or made the bed!  Complained to the front desk, a Thomas, who could not have cared less!  He couldn't even say 'sorry' or 'I apologize for the inconvenience, what can I do to make things right?"  Instead, he tried to blame us for the problem saying we must have left the 'do not disturb' sign on the door.  Explained that couldn't be the problem cuz there was no sign in the room.  Again, instead of apologizing all he could say is he could have someone bring towels and empty the trash, if we wanted.  But his tone of voice wasn't friendly.  He clearly didn't want to be bothered. Told him I wanted the...Booked this trip via Priceline.com at the last minute for a Friday/Saturday stay.  We arrived At 3:30am Saturday morning.  Found a guest sleeping in the lobby who let us in.  The night clerk was MIA for a while.  Once the clerk checked us in, we went to our room. I located the fridge and found 3 bottles of what looked like very old bottled water that had been left in the fridge when the fridge had been on, then turned off!. Also, the room had no 'do not disturb' signs.  Also found some kind of black hairs on the sheets.Appears as if the room isn't cleaned thoroughly.  Left room @ 9:30 am, returned at 10pm that night only to find that the maid hadn't cleaned our room or made the bed!  Complained to the front desk, a Thomas, who could not have cared less!  He couldn't even say 'sorry' or 'I apologize for the inconvenience, what can I do to make things right?"  Instead, he tried to blame us for the problem saying we must have left the 'do not disturb' sign on the door.  Explained that couldn't be the problem cuz there was no sign in the room.  Again, instead of apologizing all he could say is he could have someone bring towels and empty the trash, if we wanted.  But his tone of voice wasn't friendly.  He clearly didn't want to be bothered. Told him I wanted the bed made, but all he would say is to repeat that he would have someone bring clean towels.  Explained that wasn't satisfactory.  Asked him where was the concern for customer satisfaction?  Where was the apology?  Why wasn't there ANY effort to compensate us for the inconveniences???  He said we were Priceline customers and just kept repeating that he would bring clean towels and empty the trash, only if we wanted that,  Advised him I would complain, but he didn't care.  Spoke to the maid the next morning, who didn't even realize we were there!!  She hadn't been told we were had checked in, so she didn't come to clean the room.  Told her about the missing signs, which she promptly replaced.  Also spoke to the front desk the morning we checked out to explain the problems and let her know how unhappy we were.  I also told her I was very unhappy that we weren't offered some kind of compensation for our poor treatment and inconveniences, but she said we were Priceline customers. (Apparently, if you are a Priceline customer, they don't feel the need to ensure customer satisfaction or offer compensations for mis-treating customers).  At least she said she was sorry, but she NEVER asked if there was anything she could do to make up for the problems, nor did she offer any kind of compensation.  Only after the THIRD time of me saying 'I can't believe you didn''t offer me SOME kind of compensation, did she offer us a free breakfast.  However, it was too late, as we had to get on the road.  We left a comment card with her, explaining all of the issues that we had.  Also complained to Priceline.com who investigated the problem.  The Marriott management had the nerve to say that there was no note left at the front desk stating there was a problem.  (Guess the woman at the front desk *accidently* lost my comment card).  But, they told Priceline that they did offer to clean my room, which I turned down.  If there was no problem, why would they offer to clean my room???  Priceline bought that!!!  They NEVER OFFERED TO CLEAN MY ROOM and I wouldn't have turned that offer down!  Honestly, this is the second time my family has had problems with hotels mistreating us, yet because we were Priceline customers, the hotels don't feel the need to rectify customer issues.  I don't know that I will use Priceline again, firstly because I don't want to stay at a Marriott again and secondly, I don't want to deal with the headaches when something goes wrong.  In my opinion, this hotel isn't getting enough customers to allow them to hire enough maids to properly and routinely clean the rooms.  The staff at this hotel doesn't careMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r14446749-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>14446749</t>
+  </si>
+  <si>
+    <t>03/22/2008</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>Stayed Feb 24th -28th 2008:  Room’s decent and certainly clean and a comfortable bed, decent shower, shampoo etc and plenty of towels available. I had super wireless connectivity.  Breakfast was grand - not included but something for all and a very pleasant gentleman served me each day of my stay (names!).  Reception folk were also very friendly; newspaper popped under the door each morning, free coffee and tea, little shop for emergencies, overall my experience = a really pleasant stay.</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r13908812-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>13908812</t>
+  </si>
+  <si>
+    <t>02/28/2008</t>
+  </si>
+  <si>
+    <t>Really bad wired internet.  Basic Courtyard</t>
+  </si>
+  <si>
+    <t>This is your basic Courtyard.  I had to change rooms when I arrived from the east coast due to non functioning internet modem in the room.   Next room had an intermittent internet connection.  I ended up switching to my verizon PC card for a slower but at least consistent internet connection.   I asked for a late check out.  Being a Platinum Marriott member I would expect at least 2 hours but got a whole 1 hour.   I'll be back in the area in 2 weeks but won't stay here again.  OK hotel if a solid internet connection isn't necessary for your work.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r12146523-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>12146523</t>
+  </si>
+  <si>
+    <t>12/31/2007</t>
+  </si>
+  <si>
+    <t>Excellent Hotel in Laguna Hills</t>
+  </si>
+  <si>
+    <t>The Courtyard Laguna Hills/Irvine Spectrum was perfect for our stay in Orange County while visiting family in Rancho Santa Margarita.  It is between the Laguna Hills Mall and the Irvine Spectrum Center.  Both feature a lot of shopping opportunities.  The room was on par with other Courtyard hotels, which means that it was excellent.  There was a refrigerator in the room which can come in handy.  They had Otis Spunkmeyer cookies in the evening.  I did not try breakfast since you have to pay like all Courtyards.  The front staff was friendly and courteous.  The area is safe and it has easy access to the 5 freeway.  I really don't have any complaints since this hotel did fit all my needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>The Courtyard Laguna Hills/Irvine Spectrum was perfect for our stay in Orange County while visiting family in Rancho Santa Margarita.  It is between the Laguna Hills Mall and the Irvine Spectrum Center.  Both feature a lot of shopping opportunities.  The room was on par with other Courtyard hotels, which means that it was excellent.  There was a refrigerator in the room which can come in handy.  They had Otis Spunkmeyer cookies in the evening.  I did not try breakfast since you have to pay like all Courtyards.  The front staff was friendly and courteous.  The area is safe and it has easy access to the 5 freeway.  I really don't have any complaints since this hotel did fit all my needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r8395831-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>8395831</t>
+  </si>
+  <si>
+    <t>08/10/2007</t>
+  </si>
+  <si>
+    <t>Always good</t>
+  </si>
+  <si>
+    <t>We have stayed here over the last 3 years for various events in the area and have never had a bad stay.The rooms have always been clean,ample free parking, and friendly staff.It is just a good,clean convienant place to stay if you need to be in the area or are passing through.</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r8097620-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>8097620</t>
+  </si>
+  <si>
+    <t>07/09/2007</t>
+  </si>
+  <si>
+    <t>A descent place to stay...</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here Thursday July 5th and Friday July 6th. The purpose of our trip was to visit with my wie's aunt in Santa Margarita. The hotel is close to shopping and restaurants where I-5 and the 405 split...it would help if you have a car with a GPS. Very nice of the hotel to provide access to the internet in their lobby. They also provide fresh water with lemons and apples. For $10.75 per person, the breakfast buffet did not look that appetizing so we went out to eat. I guess I was comparing it to the Marriott Courtyard where we stayed at in Portland. They had an awesome breakfast buffet.Our room 205 was standard for a Marriott Courtyard but the shower was great. The workout room was small but adequate. Plenty of parking available on the property.The employees behind the desk were very polite and helpful. I would stay here again wen in the area and I would recommend this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here Thursday July 5th and Friday July 6th. The purpose of our trip was to visit with my wie's aunt in Santa Margarita. The hotel is close to shopping and restaurants where I-5 and the 405 split...it would help if you have a car with a GPS. Very nice of the hotel to provide access to the internet in their lobby. They also provide fresh water with lemons and apples. For $10.75 per person, the breakfast buffet did not look that appetizing so we went out to eat. I guess I was comparing it to the Marriott Courtyard where we stayed at in Portland. They had an awesome breakfast buffet.Our room 205 was standard for a Marriott Courtyard but the shower was great. The workout room was small but adequate. Plenty of parking available on the property.The employees behind the desk were very polite and helpful. I would stay here again wen in the area and I would recommend this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r5707166-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>5707166</t>
+  </si>
+  <si>
+    <t>08/23/2006</t>
+  </si>
+  <si>
+    <t>Nice, well-located hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for two nights in mid-August, and we were in town for a family reunion in nearby San Juan Capistrano. It's convenient to the 405 and 5 highways, and close to the John Wayne Airport, shopping and restaurants (Irvine Spectrum). The area around it is industrial and not very pretty to look at, but you're less than 20 minutes from the beach via the I-5 and Crowne Valley. The hotel is typical Courtyard Marriott, with nice, clean updated rooms, an outdoor lap pool and hot tub, and an open lobby where you can hang out. The breakfast buffet at $9 is a good one,  and the hotel also has a little market where you can pick  up soft drinks, beer, sandwiches, salads and snacks. You could basically pick up a quick beach picnic here. The staff is very friendly and helpful. This is a good, relatively inexpensive ($119 a night) hotel for business and hanging out in Orange County.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2006</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for two nights in mid-August, and we were in town for a family reunion in nearby San Juan Capistrano. It's convenient to the 405 and 5 highways, and close to the John Wayne Airport, shopping and restaurants (Irvine Spectrum). The area around it is industrial and not very pretty to look at, but you're less than 20 minutes from the beach via the I-5 and Crowne Valley. The hotel is typical Courtyard Marriott, with nice, clean updated rooms, an outdoor lap pool and hot tub, and an open lobby where you can hang out. The breakfast buffet at $9 is a good one,  and the hotel also has a little market where you can pick  up soft drinks, beer, sandwiches, salads and snacks. You could basically pick up a quick beach picnic here. The staff is very friendly and helpful. This is a good, relatively inexpensive ($119 a night) hotel for business and hanging out in Orange County.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r3608674-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>3608674</t>
+  </si>
+  <si>
+    <t>06/23/2005</t>
+  </si>
+  <si>
+    <t>The Walls are so thin</t>
+  </si>
+  <si>
+    <t>The rooms are a basic courtyard; new fresh clean and perfect. The only thing they forgot to do at this hotel was put insulation in the walls, you can hear the other rooms television along with when anyone takes a bath.  We changed rooms twice and still the same problem.  My husband thinks its because it was an older courtyard thats why the sound is such an issue.  If you are sensative to sound; well try another place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r2330008-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>2330008</t>
+  </si>
+  <si>
+    <t>07/28/2004</t>
+  </si>
+  <si>
+    <t>Courtyard the friendliest place</t>
+  </si>
+  <si>
+    <t>From the moment we checked in after very longflight from Australia we were convinced we werein the friendliest hotel in the States.  Room not ready but coffee appeared like magic as we sat andwaited.  Every effort was made to ensure our stayand that of our friends was exceptional.Reception was one of the friendliest I have encountered throughout the world and there was always a friendly chat each time we passed through reception.Have never stayed in Courtyard Hotels before but after this initiation would certainly put them at thetop of the list for future stays in America.For some the location would be a little out of the way although during our 4 nights, hotel seemed filled to capacity.Once again Congratulations on a lovely hotel with service, room facilities and cleanliness above reproach.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the moment we checked in after very longflight from Australia we were convinced we werein the friendliest hotel in the States.  Room not ready but coffee appeared like magic as we sat andwaited.  Every effort was made to ensure our stayand that of our friends was exceptional.Reception was one of the friendliest I have encountered throughout the world and there was always a friendly chat each time we passed through reception.Have never stayed in Courtyard Hotels before but after this initiation would certainly put them at thetop of the list for future stays in America.For some the location would be a little out of the way although during our 4 nights, hotel seemed filled to capacity.Once again Congratulations on a lovely hotel with service, room facilities and cleanliness above reproach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r1539202-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
+  </si>
+  <si>
+    <t>1539202</t>
+  </si>
+  <si>
+    <t>01/04/2004</t>
+  </si>
+  <si>
+    <t>Wonderful Place to Stay</t>
+  </si>
+  <si>
+    <t>We spent two nights at this hotel and couldn't be happier with our choice. Rooms were very clean, decor was tasteful, and staff were very helpful.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3016,7022 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" t="s">
+        <v>124</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>138</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>144</v>
+      </c>
+      <c r="X16" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>148</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" t="s">
+        <v>151</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>131</v>
+      </c>
+      <c r="O17" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>131</v>
+      </c>
+      <c r="O18" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>158</v>
+      </c>
+      <c r="X18" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>164</v>
+      </c>
+      <c r="L19" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" t="s">
+        <v>177</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>178</v>
+      </c>
+      <c r="O21" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>179</v>
+      </c>
+      <c r="X21" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>182</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>195</v>
+      </c>
+      <c r="X23" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>203</v>
+      </c>
+      <c r="O24" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
+      <c r="O25" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>210</v>
+      </c>
+      <c r="X25" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" t="s">
+        <v>217</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>218</v>
+      </c>
+      <c r="X26" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" t="s">
+        <v>223</v>
+      </c>
+      <c r="K27" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s">
+        <v>225</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>226</v>
+      </c>
+      <c r="O27" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>218</v>
+      </c>
+      <c r="X27" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28" t="s">
+        <v>152</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>218</v>
+      </c>
+      <c r="X28" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" t="s">
+        <v>237</v>
+      </c>
+      <c r="L29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>218</v>
+      </c>
+      <c r="X29" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>242</v>
+      </c>
+      <c r="J30" t="s">
+        <v>243</v>
+      </c>
+      <c r="K30" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>246</v>
+      </c>
+      <c r="X30" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>250</v>
+      </c>
+      <c r="J31" t="s">
+        <v>251</v>
+      </c>
+      <c r="K31" t="s">
+        <v>252</v>
+      </c>
+      <c r="L31" t="s">
+        <v>253</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>254</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" t="s">
+        <v>259</v>
+      </c>
+      <c r="L32" t="s">
+        <v>260</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>263</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" t="s">
+        <v>265</v>
+      </c>
+      <c r="K33" t="s">
+        <v>266</v>
+      </c>
+      <c r="L33" t="s">
+        <v>267</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>261</v>
+      </c>
+      <c r="O33" t="s">
+        <v>152</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J34" t="s">
+        <v>270</v>
+      </c>
+      <c r="K34" t="s">
+        <v>271</v>
+      </c>
+      <c r="L34" t="s">
+        <v>272</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>261</v>
+      </c>
+      <c r="O34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>273</v>
+      </c>
+      <c r="X34" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>281</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>283</v>
+      </c>
+      <c r="J36" t="s">
+        <v>284</v>
+      </c>
+      <c r="K36" t="s">
+        <v>285</v>
+      </c>
+      <c r="L36" t="s">
+        <v>286</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>281</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>288</v>
+      </c>
+      <c r="J37" t="s">
+        <v>289</v>
+      </c>
+      <c r="K37" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>292</v>
+      </c>
+      <c r="O37" t="s">
+        <v>152</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>293</v>
+      </c>
+      <c r="X37" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>297</v>
+      </c>
+      <c r="J38" t="s">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s">
+        <v>299</v>
+      </c>
+      <c r="L38" t="s">
+        <v>300</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>301</v>
+      </c>
+      <c r="O38" t="s">
+        <v>92</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>302</v>
+      </c>
+      <c r="X38" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>306</v>
+      </c>
+      <c r="J39" t="s">
+        <v>307</v>
+      </c>
+      <c r="K39" t="s">
+        <v>308</v>
+      </c>
+      <c r="L39" t="s">
+        <v>309</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>301</v>
+      </c>
+      <c r="O39" t="s">
+        <v>61</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>310</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>311</v>
+      </c>
+      <c r="J40" t="s">
+        <v>312</v>
+      </c>
+      <c r="K40" t="s">
+        <v>313</v>
+      </c>
+      <c r="L40" t="s">
+        <v>314</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>292</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>315</v>
+      </c>
+      <c r="X40" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>319</v>
+      </c>
+      <c r="J41" t="s">
+        <v>320</v>
+      </c>
+      <c r="K41" t="s">
+        <v>321</v>
+      </c>
+      <c r="L41" t="s">
+        <v>322</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>292</v>
+      </c>
+      <c r="O41" t="s">
+        <v>92</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>315</v>
+      </c>
+      <c r="X41" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>324</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>325</v>
+      </c>
+      <c r="J42" t="s">
+        <v>326</v>
+      </c>
+      <c r="K42" t="s">
+        <v>327</v>
+      </c>
+      <c r="L42" t="s">
+        <v>328</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>292</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>329</v>
+      </c>
+      <c r="X42" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>332</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>333</v>
+      </c>
+      <c r="J43" t="s">
+        <v>334</v>
+      </c>
+      <c r="K43" t="s">
+        <v>335</v>
+      </c>
+      <c r="L43" t="s">
+        <v>336</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>337</v>
+      </c>
+      <c r="O43" t="s">
+        <v>92</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>338</v>
+      </c>
+      <c r="X43" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>341</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>342</v>
+      </c>
+      <c r="J44" t="s">
+        <v>343</v>
+      </c>
+      <c r="K44" t="s">
+        <v>344</v>
+      </c>
+      <c r="L44" t="s">
+        <v>345</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>194</v>
+      </c>
+      <c r="O44" t="s">
+        <v>61</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>346</v>
+      </c>
+      <c r="X44" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>349</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>350</v>
+      </c>
+      <c r="J45" t="s">
+        <v>351</v>
+      </c>
+      <c r="K45" t="s">
+        <v>352</v>
+      </c>
+      <c r="L45" t="s">
+        <v>353</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>194</v>
+      </c>
+      <c r="O45" t="s">
+        <v>138</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>354</v>
+      </c>
+      <c r="X45" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>357</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>358</v>
+      </c>
+      <c r="J46" t="s">
+        <v>359</v>
+      </c>
+      <c r="K46" t="s">
+        <v>360</v>
+      </c>
+      <c r="L46" t="s">
+        <v>361</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>194</v>
+      </c>
+      <c r="O46" t="s">
+        <v>92</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>354</v>
+      </c>
+      <c r="X46" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>363</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>364</v>
+      </c>
+      <c r="J47" t="s">
+        <v>365</v>
+      </c>
+      <c r="K47" t="s">
+        <v>366</v>
+      </c>
+      <c r="L47" t="s">
+        <v>367</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>194</v>
+      </c>
+      <c r="O47" t="s">
+        <v>92</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>369</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>370</v>
+      </c>
+      <c r="J48" t="s">
+        <v>371</v>
+      </c>
+      <c r="K48" t="s">
+        <v>372</v>
+      </c>
+      <c r="L48" t="s">
+        <v>373</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>239</v>
+      </c>
+      <c r="O48" t="s">
+        <v>92</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>374</v>
+      </c>
+      <c r="X48" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>377</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>378</v>
+      </c>
+      <c r="J49" t="s">
+        <v>379</v>
+      </c>
+      <c r="K49" t="s">
+        <v>380</v>
+      </c>
+      <c r="L49" t="s">
+        <v>381</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>239</v>
+      </c>
+      <c r="O49" t="s">
+        <v>152</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>382</v>
+      </c>
+      <c r="X49" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>385</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>386</v>
+      </c>
+      <c r="J50" t="s">
+        <v>387</v>
+      </c>
+      <c r="K50" t="s">
+        <v>388</v>
+      </c>
+      <c r="L50" t="s">
+        <v>389</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>390</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>391</v>
+      </c>
+      <c r="X50" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>394</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>395</v>
+      </c>
+      <c r="J51" t="s">
+        <v>396</v>
+      </c>
+      <c r="K51" t="s">
+        <v>397</v>
+      </c>
+      <c r="L51" t="s">
+        <v>398</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>399</v>
+      </c>
+      <c r="O51" t="s">
+        <v>92</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>391</v>
+      </c>
+      <c r="X51" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>401</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>402</v>
+      </c>
+      <c r="J52" t="s">
+        <v>403</v>
+      </c>
+      <c r="K52" t="s">
+        <v>404</v>
+      </c>
+      <c r="L52" t="s">
+        <v>405</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>399</v>
+      </c>
+      <c r="O52" t="s">
+        <v>92</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>407</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>408</v>
+      </c>
+      <c r="J53" t="s">
+        <v>409</v>
+      </c>
+      <c r="K53" t="s">
+        <v>410</v>
+      </c>
+      <c r="L53" t="s">
+        <v>411</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>412</v>
+      </c>
+      <c r="O53" t="s">
+        <v>152</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>391</v>
+      </c>
+      <c r="X53" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>414</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>415</v>
+      </c>
+      <c r="J54" t="s">
+        <v>416</v>
+      </c>
+      <c r="K54" t="s">
+        <v>417</v>
+      </c>
+      <c r="L54" t="s">
+        <v>418</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>412</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>419</v>
+      </c>
+      <c r="X54" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>422</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>423</v>
+      </c>
+      <c r="J55" t="s">
+        <v>424</v>
+      </c>
+      <c r="K55" t="s">
+        <v>425</v>
+      </c>
+      <c r="L55" t="s">
+        <v>426</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>427</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>391</v>
+      </c>
+      <c r="X55" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>429</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>430</v>
+      </c>
+      <c r="J56" t="s">
+        <v>431</v>
+      </c>
+      <c r="K56" t="s">
+        <v>432</v>
+      </c>
+      <c r="L56" t="s">
+        <v>433</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>434</v>
+      </c>
+      <c r="O56" t="s">
+        <v>92</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>435</v>
+      </c>
+      <c r="X56" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>438</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>439</v>
+      </c>
+      <c r="J57" t="s">
+        <v>440</v>
+      </c>
+      <c r="K57" t="s">
+        <v>441</v>
+      </c>
+      <c r="L57" t="s">
+        <v>442</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>390</v>
+      </c>
+      <c r="O57" t="s">
+        <v>92</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>391</v>
+      </c>
+      <c r="X57" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>444</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>445</v>
+      </c>
+      <c r="J58" t="s">
+        <v>446</v>
+      </c>
+      <c r="K58" t="s">
+        <v>447</v>
+      </c>
+      <c r="L58" t="s">
+        <v>448</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>449</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>450</v>
+      </c>
+      <c r="X58" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>453</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>454</v>
+      </c>
+      <c r="J59" t="s">
+        <v>455</v>
+      </c>
+      <c r="K59" t="s">
+        <v>456</v>
+      </c>
+      <c r="L59" t="s">
+        <v>457</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>458</v>
+      </c>
+      <c r="O59" t="s">
+        <v>92</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>459</v>
+      </c>
+      <c r="X59" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>462</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>463</v>
+      </c>
+      <c r="J60" t="s">
+        <v>464</v>
+      </c>
+      <c r="K60" t="s">
+        <v>465</v>
+      </c>
+      <c r="L60" t="s">
+        <v>466</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>467</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>468</v>
+      </c>
+      <c r="X60" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>471</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>472</v>
+      </c>
+      <c r="J61" t="s">
+        <v>473</v>
+      </c>
+      <c r="K61" t="s">
+        <v>474</v>
+      </c>
+      <c r="L61" t="s">
+        <v>475</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>449</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>476</v>
+      </c>
+      <c r="X61" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>479</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>480</v>
+      </c>
+      <c r="J62" t="s">
+        <v>481</v>
+      </c>
+      <c r="K62" t="s">
+        <v>482</v>
+      </c>
+      <c r="L62" t="s">
+        <v>483</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>484</v>
+      </c>
+      <c r="O62" t="s">
+        <v>61</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>485</v>
+      </c>
+      <c r="X62" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>488</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>489</v>
+      </c>
+      <c r="J63" t="s">
+        <v>490</v>
+      </c>
+      <c r="K63" t="s">
+        <v>491</v>
+      </c>
+      <c r="L63" t="s">
+        <v>492</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>467</v>
+      </c>
+      <c r="O63" t="s">
+        <v>92</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>493</v>
+      </c>
+      <c r="X63" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>496</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>497</v>
+      </c>
+      <c r="J64" t="s">
+        <v>498</v>
+      </c>
+      <c r="K64" t="s">
+        <v>499</v>
+      </c>
+      <c r="L64" t="s">
+        <v>500</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>467</v>
+      </c>
+      <c r="O64" t="s">
+        <v>92</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>493</v>
+      </c>
+      <c r="X64" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>502</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>503</v>
+      </c>
+      <c r="J65" t="s">
+        <v>504</v>
+      </c>
+      <c r="K65" t="s">
+        <v>505</v>
+      </c>
+      <c r="L65" t="s">
+        <v>506</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>484</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>507</v>
+      </c>
+      <c r="X65" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>510</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>511</v>
+      </c>
+      <c r="J66" t="s">
+        <v>512</v>
+      </c>
+      <c r="K66" t="s">
+        <v>513</v>
+      </c>
+      <c r="L66" t="s">
+        <v>514</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>515</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>507</v>
+      </c>
+      <c r="X66" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>517</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>518</v>
+      </c>
+      <c r="J67" t="s">
+        <v>519</v>
+      </c>
+      <c r="K67" t="s">
+        <v>520</v>
+      </c>
+      <c r="L67" t="s">
+        <v>521</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>522</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>507</v>
+      </c>
+      <c r="X67" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>524</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>525</v>
+      </c>
+      <c r="J68" t="s">
+        <v>526</v>
+      </c>
+      <c r="K68" t="s">
+        <v>527</v>
+      </c>
+      <c r="L68" t="s">
+        <v>528</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>515</v>
+      </c>
+      <c r="O68" t="s">
+        <v>61</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>529</v>
+      </c>
+      <c r="X68" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>532</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>533</v>
+      </c>
+      <c r="J69" t="s">
+        <v>534</v>
+      </c>
+      <c r="K69" t="s">
+        <v>535</v>
+      </c>
+      <c r="L69" t="s">
+        <v>536</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>537</v>
+      </c>
+      <c r="O69" t="s">
+        <v>92</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>538</v>
+      </c>
+      <c r="X69" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>541</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>542</v>
+      </c>
+      <c r="J70" t="s">
+        <v>534</v>
+      </c>
+      <c r="K70" t="s">
+        <v>543</v>
+      </c>
+      <c r="L70" t="s">
+        <v>544</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>537</v>
+      </c>
+      <c r="O70" t="s">
+        <v>92</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>538</v>
+      </c>
+      <c r="X70" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>546</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>547</v>
+      </c>
+      <c r="J71" t="s">
+        <v>548</v>
+      </c>
+      <c r="K71" t="s">
+        <v>549</v>
+      </c>
+      <c r="L71" t="s">
+        <v>550</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>551</v>
+      </c>
+      <c r="O71" t="s">
+        <v>61</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>552</v>
+      </c>
+      <c r="X71" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>555</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>556</v>
+      </c>
+      <c r="J72" t="s">
+        <v>557</v>
+      </c>
+      <c r="K72" t="s">
+        <v>558</v>
+      </c>
+      <c r="L72" t="s">
+        <v>559</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>560</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>561</v>
+      </c>
+      <c r="X72" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>564</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>565</v>
+      </c>
+      <c r="J73" t="s">
+        <v>566</v>
+      </c>
+      <c r="K73" t="s">
+        <v>567</v>
+      </c>
+      <c r="L73" t="s">
+        <v>568</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>560</v>
+      </c>
+      <c r="O73" t="s">
+        <v>92</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>569</v>
+      </c>
+      <c r="X73" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>572</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>573</v>
+      </c>
+      <c r="J74" t="s">
+        <v>574</v>
+      </c>
+      <c r="K74" t="s">
+        <v>575</v>
+      </c>
+      <c r="L74" t="s">
+        <v>576</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>577</v>
+      </c>
+      <c r="X74" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>580</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>581</v>
+      </c>
+      <c r="J75" t="s">
+        <v>582</v>
+      </c>
+      <c r="K75" t="s">
+        <v>583</v>
+      </c>
+      <c r="L75" t="s">
+        <v>584</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>585</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>586</v>
+      </c>
+      <c r="X75" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>589</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>590</v>
+      </c>
+      <c r="J76" t="s">
+        <v>591</v>
+      </c>
+      <c r="K76" t="s">
+        <v>592</v>
+      </c>
+      <c r="L76" t="s">
+        <v>593</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>594</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>595</v>
+      </c>
+      <c r="X76" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>598</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>599</v>
+      </c>
+      <c r="J77" t="s">
+        <v>600</v>
+      </c>
+      <c r="K77" t="s">
+        <v>601</v>
+      </c>
+      <c r="L77" t="s">
+        <v>602</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>603</v>
+      </c>
+      <c r="O77" t="s">
+        <v>92</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>604</v>
+      </c>
+      <c r="X77" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>607</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>608</v>
+      </c>
+      <c r="J78" t="s">
+        <v>609</v>
+      </c>
+      <c r="K78" t="s">
+        <v>610</v>
+      </c>
+      <c r="L78" t="s">
+        <v>611</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>603</v>
+      </c>
+      <c r="O78" t="s">
+        <v>152</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>612</v>
+      </c>
+      <c r="X78" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>615</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>616</v>
+      </c>
+      <c r="J79" t="s">
+        <v>617</v>
+      </c>
+      <c r="K79" t="s">
+        <v>618</v>
+      </c>
+      <c r="L79" t="s">
+        <v>619</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>620</v>
+      </c>
+      <c r="O79" t="s">
+        <v>92</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>621</v>
+      </c>
+      <c r="X79" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>624</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>625</v>
+      </c>
+      <c r="J80" t="s">
+        <v>626</v>
+      </c>
+      <c r="K80" t="s">
+        <v>627</v>
+      </c>
+      <c r="L80" t="s">
+        <v>628</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>629</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>630</v>
+      </c>
+      <c r="X80" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>633</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>634</v>
+      </c>
+      <c r="J81" t="s">
+        <v>635</v>
+      </c>
+      <c r="K81" t="s">
+        <v>636</v>
+      </c>
+      <c r="L81" t="s">
+        <v>637</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>638</v>
+      </c>
+      <c r="O81" t="s">
+        <v>138</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>639</v>
+      </c>
+      <c r="X81" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>642</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>643</v>
+      </c>
+      <c r="J82" t="s">
+        <v>644</v>
+      </c>
+      <c r="K82" t="s">
+        <v>645</v>
+      </c>
+      <c r="L82" t="s">
+        <v>646</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>647</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>648</v>
+      </c>
+      <c r="X82" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>651</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>652</v>
+      </c>
+      <c r="J83" t="s">
+        <v>653</v>
+      </c>
+      <c r="K83" t="s">
+        <v>654</v>
+      </c>
+      <c r="L83" t="s">
+        <v>655</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>656</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>648</v>
+      </c>
+      <c r="X83" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>658</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>659</v>
+      </c>
+      <c r="J84" t="s">
+        <v>660</v>
+      </c>
+      <c r="K84" t="s">
+        <v>661</v>
+      </c>
+      <c r="L84" t="s">
+        <v>662</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>656</v>
+      </c>
+      <c r="O84" t="s">
+        <v>138</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>648</v>
+      </c>
+      <c r="X84" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>664</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>665</v>
+      </c>
+      <c r="J85" t="s">
+        <v>666</v>
+      </c>
+      <c r="K85" t="s">
+        <v>667</v>
+      </c>
+      <c r="L85" t="s">
+        <v>668</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>669</v>
+      </c>
+      <c r="O85" t="s">
+        <v>92</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>670</v>
+      </c>
+      <c r="X85" t="s">
+        <v>671</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>673</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>674</v>
+      </c>
+      <c r="J86" t="s">
+        <v>675</v>
+      </c>
+      <c r="K86" t="s">
+        <v>676</v>
+      </c>
+      <c r="L86" t="s">
+        <v>677</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>678</v>
+      </c>
+      <c r="O86" t="s">
+        <v>61</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>679</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>680</v>
+      </c>
+      <c r="J87" t="s">
+        <v>681</v>
+      </c>
+      <c r="K87" t="s">
+        <v>682</v>
+      </c>
+      <c r="L87" t="s">
+        <v>683</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="s">
+        <v>684</v>
+      </c>
+      <c r="O87" t="s">
+        <v>61</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>686</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>687</v>
+      </c>
+      <c r="J88" t="s">
+        <v>688</v>
+      </c>
+      <c r="K88" t="s">
+        <v>689</v>
+      </c>
+      <c r="L88" t="s">
+        <v>690</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>684</v>
+      </c>
+      <c r="O88" t="s">
+        <v>92</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>691</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>692</v>
+      </c>
+      <c r="J89" t="s">
+        <v>693</v>
+      </c>
+      <c r="K89" t="s">
+        <v>694</v>
+      </c>
+      <c r="L89" t="s">
+        <v>695</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>696</v>
+      </c>
+      <c r="O89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>697</v>
+      </c>
+      <c r="X89" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>700</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>701</v>
+      </c>
+      <c r="J90" t="s">
+        <v>702</v>
+      </c>
+      <c r="K90" t="s">
+        <v>703</v>
+      </c>
+      <c r="L90" t="s">
+        <v>704</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>705</v>
+      </c>
+      <c r="O90" t="s">
+        <v>92</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>706</v>
+      </c>
+      <c r="X90" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>708</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>709</v>
+      </c>
+      <c r="J91" t="s">
+        <v>710</v>
+      </c>
+      <c r="K91" t="s">
+        <v>711</v>
+      </c>
+      <c r="L91" t="s">
+        <v>712</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>713</v>
+      </c>
+      <c r="O91" t="s">
+        <v>138</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>706</v>
+      </c>
+      <c r="X91" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>715</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>716</v>
+      </c>
+      <c r="J92" t="s">
+        <v>717</v>
+      </c>
+      <c r="K92" t="s">
+        <v>718</v>
+      </c>
+      <c r="L92" t="s">
+        <v>719</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>720</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>706</v>
+      </c>
+      <c r="X92" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>722</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>723</v>
+      </c>
+      <c r="J93" t="s">
+        <v>724</v>
+      </c>
+      <c r="K93" t="s">
+        <v>725</v>
+      </c>
+      <c r="L93" t="s">
+        <v>726</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>728</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>729</v>
+      </c>
+      <c r="J94" t="s">
+        <v>730</v>
+      </c>
+      <c r="K94" t="s">
+        <v>731</v>
+      </c>
+      <c r="L94" t="s">
+        <v>732</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>734</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>735</v>
+      </c>
+      <c r="J95" t="s">
+        <v>736</v>
+      </c>
+      <c r="K95" t="s">
+        <v>737</v>
+      </c>
+      <c r="L95" t="s">
+        <v>738</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>739</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>740</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>741</v>
+      </c>
+      <c r="J96" t="s">
+        <v>742</v>
+      </c>
+      <c r="K96" t="s">
+        <v>743</v>
+      </c>
+      <c r="L96" t="s">
+        <v>744</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
+        <v>739</v>
+      </c>
+      <c r="O96" t="s">
+        <v>92</v>
+      </c>
+      <c r="P96" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>746</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>747</v>
+      </c>
+      <c r="J97" t="s">
+        <v>748</v>
+      </c>
+      <c r="K97" t="s">
+        <v>749</v>
+      </c>
+      <c r="L97" t="s">
+        <v>750</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>751</v>
+      </c>
+      <c r="O97" t="s">
+        <v>92</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>753</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>754</v>
+      </c>
+      <c r="J98" t="s">
+        <v>755</v>
+      </c>
+      <c r="K98" t="s">
+        <v>756</v>
+      </c>
+      <c r="L98" t="s">
+        <v>757</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>758</v>
+      </c>
+      <c r="O98" t="s">
+        <v>152</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>760</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>761</v>
+      </c>
+      <c r="J99" t="s">
+        <v>762</v>
+      </c>
+      <c r="K99" t="s">
+        <v>763</v>
+      </c>
+      <c r="L99" t="s">
+        <v>764</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>765</v>
+      </c>
+      <c r="O99" t="s">
+        <v>138</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>2</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>767</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>768</v>
+      </c>
+      <c r="J100" t="s">
+        <v>769</v>
+      </c>
+      <c r="K100" t="s">
+        <v>770</v>
+      </c>
+      <c r="L100" t="s">
+        <v>771</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s">
+        <v>772</v>
+      </c>
+      <c r="O100" t="s">
+        <v>61</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2</v>
+      </c>
+      <c r="S100" t="n">
+        <v>2</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>774</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>775</v>
+      </c>
+      <c r="J101" t="s">
+        <v>776</v>
+      </c>
+      <c r="K101" t="s">
+        <v>777</v>
+      </c>
+      <c r="L101" t="s">
+        <v>778</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>779</v>
+      </c>
+      <c r="O101" t="s">
+        <v>92</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>780</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>781</v>
+      </c>
+      <c r="J102" t="s">
+        <v>782</v>
+      </c>
+      <c r="K102" t="s">
+        <v>783</v>
+      </c>
+      <c r="L102" t="s">
+        <v>784</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="s">
+        <v>779</v>
+      </c>
+      <c r="O102" t="s">
+        <v>92</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>785</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>786</v>
+      </c>
+      <c r="J103" t="s">
+        <v>787</v>
+      </c>
+      <c r="K103" t="s">
+        <v>788</v>
+      </c>
+      <c r="L103" t="s">
+        <v>789</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>790</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>792</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>793</v>
+      </c>
+      <c r="J104" t="s">
+        <v>794</v>
+      </c>
+      <c r="K104" t="s">
+        <v>795</v>
+      </c>
+      <c r="L104" t="s">
+        <v>796</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>797</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>798</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>799</v>
+      </c>
+      <c r="J105" t="s">
+        <v>800</v>
+      </c>
+      <c r="K105" t="s">
+        <v>801</v>
+      </c>
+      <c r="L105" t="s">
+        <v>802</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>803</v>
+      </c>
+      <c r="O105" t="s">
+        <v>61</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>805</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>806</v>
+      </c>
+      <c r="J106" t="s">
+        <v>807</v>
+      </c>
+      <c r="K106" t="s">
+        <v>808</v>
+      </c>
+      <c r="L106" t="s">
+        <v>809</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>810</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>812</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>813</v>
+      </c>
+      <c r="J107" t="s">
+        <v>814</v>
+      </c>
+      <c r="K107" t="s">
+        <v>815</v>
+      </c>
+      <c r="L107" t="s">
+        <v>816</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="s"/>
+      <c r="O107" t="s"/>
+      <c r="P107" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>2</v>
+      </c>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>2</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>817</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>818</v>
+      </c>
+      <c r="J108" t="s">
+        <v>819</v>
+      </c>
+      <c r="K108" t="s">
+        <v>820</v>
+      </c>
+      <c r="L108" t="s">
+        <v>821</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s"/>
+      <c r="O108" t="s"/>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="s"/>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>27514</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>823</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>824</v>
+      </c>
+      <c r="J109" t="s">
+        <v>825</v>
+      </c>
+      <c r="K109" t="s">
+        <v>826</v>
+      </c>
+      <c r="L109" t="s">
+        <v>827</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="s"/>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>827</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_149.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_149.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="828">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="932">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>WyndMills</t>
+  </si>
+  <si>
     <t>06/29/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>DO NOT STAY HERE, THEY WILL TAKE YOUR MONEY!Arrived Thanksgiving evening at 7pm, got to our room and it absolutely reeked of cigarette smoke. So nasty, couldn't imagine sleeping in the room without having all our belongings smell. Called the front desk, she offered to put us in a different room down the hall.Nothing much to report, check out the next day. Didn't make any purchase or eat there and left at 8am. However, I look at my credit card statement and find they charged me for the room!I paid via Expedia but the hotel charged me too. I spent 90 minutes with Expedia, they called the Hotel and insisted it was for "incidentals" sorry but what could possibly cost $123.08 at their hotel, there's no spa or services! The hotel could not tell me what these charges were for either. Expedia said I'd have to speak to their manager. I have called the hotel 3 days in a row and left a voicemail with their manager. Clearly no one wants to deal with me and refund my money. Now I have to dispute the charge with the credit card company.  Not an apology, no "sorry but let us look into this" NOTHINGMore</t>
   </si>
   <si>
+    <t>Bud K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r544454525-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Ching P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r526635895-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>mbsternfels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r516081907-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>mrg128</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r509480035-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>Location near the freeway is good if you're staying here in order to visit somewhere locally, otherwise it's a bit odd. Rooms are spacious, but quite dated and old. Lobby area is ok though the bar and coffee area is not staffed during the day. Basically a decent place for a quick stop on your way somewhere or to visit friends / family in the area.</t>
   </si>
   <si>
+    <t>Mike C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r505308666-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>Stayed recently with family. Convenient to freeways. Within an hour of many attractions - ferrys, beaches, theme parks, hiking, UC Irvine, OC Great Park, etc. Small issue with front desk as we made reservations in a room block for two nights, and added a third. Initially told we could keep same room; then first morning as we were leaving to catch a ferry told we'd need to move our stuff. Staff eventually gave us the ok to stay in same room but were reluctant to do so. Learned lesson - get message in in system when making reservation; clarify and get staff name when checking in!Room clean, nice AM and PM bistro.  Would stay again.More</t>
   </si>
   <si>
+    <t>forteiii</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r477530353-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r472557977-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>I booked my stay for three nights and left after one. The hotel is on a random area right next to the freeway with an awkward entrance. The lobby is remodeled to Courtyard standards, but the rooms were not. This Courtyard seemed to have done the minimal remodeling efforts (poor lighting, bad design, popcorn textured ceilings, bad wallpaper/paint jobs) and the rooms (especially the King) were small. The staff was on one hand pleasant and on the other hand rude at the same time. Both front desk agents (I was passed off because one was over time and needed to leave) became easily annoyed and frustrated by simple common hospitality requests (especially when most of my preferences are already linked to my rewards account). If I had the patience and wasn't so tired, I would have gone to another property that night.Better staff and attention to detail when it comes to the sleeping rooms is needed. This property needs to be brought up to the Marriott standards to which I am accustomed. Until then, I will not be returning. More</t>
   </si>
   <si>
+    <t>Her_0611</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r463238860-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -336,6 +363,9 @@
     <t>Probably my worst Marriott experience ever. Front desk staff was not friendly upon check-in. There was an issue with our booking and I was okay with the changes. Only thing that bothered me was how the person at the front desk approached my situation. Very cold and unwelcoming. We had a long day of travels and at this point we were not going to look around for a hotel at 11pm. We were placed on the 2nd floor directly near the elevator and we could hear noise from the washing machines near by. We were in and out of the hotel most of our stay, and from the service we had received upon check-in we didn't want to bother asking to switch rooms. The following couple days we also noticed that we were overcharged and when I asked the front desk as to why we were over charged the agent simply "didn't know". Unacceptable. Service is a big part of my review and the customer service just wasn't up to par. Property is nice rooms are decently clean, we didn't have any food at the hotel or try any other services but the lobby/lounge area looked nice. Unfortunately due to the service we most likely will not be returning. More</t>
   </si>
   <si>
+    <t>Robert H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r454745052-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -363,6 +393,9 @@
     <t>The hotel is well priced for the area. It is getting old but it is clean. The beds are comfortable , rooms have enough space. The staff at the reception is friendly and helpful. The only problem of my stay was the fact that room cleaning service arrived past 3 pm when they had from 7 am to 3 pm to clean the room. So I had to vacate the room for them to clean when I had work to do to finish my day! They need to organize their cleaning serviceMore</t>
   </si>
   <si>
+    <t>JBeedo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r454310099-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -378,6 +411,9 @@
     <t>I got here at the Courtyard around 9:00.  It was a late night  decision to stay here, but when I got to the hotel I received a lot of help from the front desk.  Her name was Vivian, and she helped me with all the forms I was trying to use to get a small discount on the room.  She went way out of the way to help, more than I am use to.The room was small but clean.  It gave me a good nights sleep.</t>
   </si>
   <si>
+    <t>GlobalTraveller81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r436944185-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -396,6 +432,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>miggee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r420264354-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -414,6 +453,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>Scott M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r417702799-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -435,6 +477,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>FresnoTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r412025763-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -459,6 +504,9 @@
     <t>Doesn't measure up to Courtyard standards, particularly when it comes to customer service. Asked for a room with two beds and was given one bed and an uncomfortable sofa bed that didn't even come with sheets. (Had to ask for it to be made up when we arrived at 11 pm.) Ice machine on ground floor was broken. Then we were double-billed on credit card and am still pursuing that complaint.More</t>
   </si>
   <si>
+    <t>JPinAZ256</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r409030439-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -477,6 +525,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>PJG66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r406792696-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -501,6 +552,9 @@
     <t>Typically, Marriott brand hotels offer excellent comfort.  Unfortunately, I found the bed to be a bit too firm (woke up with a back ache 2 days in a row) and the couch I my king room was uncomfortable -- difficult to sit and watch TV without slouching against stiff cushions.The shower head was old and in need of replacing, but the bathroom was large and clean with decent lighting.The room overall was clean and the bathroom and bed were functional, just not comfortable.More</t>
   </si>
   <si>
+    <t>KimberlyE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r397479268-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -516,6 +570,9 @@
     <t>I stayed at this hotel this past Saturday night on my way down to San Diego for the last day of Comic Con. Check in was smooth. The front area was modern looking and chic. My room was clean and stocked with nice toiletries. The pool was amazing! I've been in heated pools before but none as warm as this. After the pool, I enjoyed the spa. It was a just a quick trip away from Laguna Beach and the front desk person had printed out directions ready to go. Check out was just as smooth the next day. I will definitely stay here again. A++</t>
   </si>
   <si>
+    <t>Mike G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r378136024-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -537,6 +594,9 @@
     <t>I had business throughout SoCal over an 8-day period, so it made sense to situate myself in a location where I could access I-5 and beyond.  This was he place.  No frills, but it works.Location:  there is a shopping mall a mile away.  CVS, Carl's Junior, and a bunch of fast food within about a 20-minute walk.  Access to north and south 5 is about a mile away.  I had access to toll toads to take me to Anaheim, San Bernardino, Laguna Nigel, and finally L.A.Hotel:  being right off the 5, the exterior of the hotel is noisy, however the staff and the interior make up for it.  My room faced the opposite direction from the highway and it looked over parking and the back of another business.  They had a small restaurant and a few menu options for dining.  There is a bar on site.  Pool, fitness center, and sidewalk to get to the shopping and food.More</t>
   </si>
   <si>
+    <t>Brian H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r371754896-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -564,6 +624,9 @@
     <t>Good location if you are doing business in this part of Los Angeles.  It is near the freeway and lots of restaurants and shopping.  Hotel has been remodeled to the new courtyard standard.  Food choices are small and weren't real appetizing.More</t>
   </si>
   <si>
+    <t>Orchard609</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r368954001-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -585,6 +648,9 @@
     <t>I stayed for three nights.  Location is easy to I 5 with many eating places close by but not walking distance.  The property is in good condition and the rooms are good.  I did have stains on the carpet by the sink, rather ugly looking.  The room otherwise was clean and nice.  The Bistro is consistent with other properties.  It was odd for me but I was able to use the pool area for an hour this trip.  It was clean and nice and the lounge chair comfy.  They had clean towels out for use.  I even used the spa for a few minutes.  Request a room as far from the freeway as possible to reduce road noise.  Other nice thing, the windows open for fresh air.  More</t>
   </si>
   <si>
+    <t>LambdaD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r340545768-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -612,6 +678,9 @@
     <t>This hotel was adequate enough for a work trip.  It was very clean, inexpensive,  and the staff was nice and helpful.  The location literally overlooked the freeway though.  My room though overlooked a very ugly parking lot.  Food choices were very limited in the hotel,  nothing really in walking distance,  and lobby/bar area was pretty dead.  This may have been a VPN issue,  but I couldn't get Internet in my room,  so I had to work in the business center/lobby area.More</t>
   </si>
   <si>
+    <t>TheHotelier313</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r338778238-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -630,6 +699,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>maiboston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r336644253-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -657,6 +729,9 @@
     <t>The hotel is right next to the freeway, so if you want to really relax in a nice quiet setting, forget it. My room smelled like a cross between dirty socks and mildew. I saw a customer bringing in a small little dog, which I thought courtyards do not allow. I saw dog poop in the parking lot which was cleaned up quickly. The staff didn't appear happy, because I wasn't greeted like other courtyards. I can't recommend this courtyard especially if motel 6 can do the job cheaper.More</t>
   </si>
   <si>
+    <t>rbkranch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r331524210-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -681,6 +756,9 @@
     <t>This was a nice hotel to stay at. The beds were comfortable, bathrooms were clean, hotel was quiet except for freeway noise (expected though when on a busy freeway), nice starbucks coffee for purchase downstairs, etc. My ONLY complaint though is when I was in my room looking for the fridge I came upon a drawer with clothes left behind. I called the front desk to inform them they told me "housekeeping doesn't clean the drawers".....I would think this would be part of the routine but I guess it's not. It makes me wonder what other cleaning procedures are omitted from this Courtyard's routine. Overall, nice hotel for a night or two.More</t>
   </si>
   <si>
+    <t>Heather M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r330160058-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -702,6 +780,9 @@
     <t>The hotel is freeway close for easy access with lots of free parking.  Check in was quick and easy.We stayed in a king room on the 3rd floor.  It was a little small, but very clean and quiet.  The bed was very comfortable.  The sink was outside the bathroom so getting ready in the morning was great.  The bathroom was also extremely clean.Wifi was free.The hotel is not far from a shopping mall with a number of shops and restaurants.More</t>
   </si>
   <si>
+    <t>goriajk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r326812320-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -720,6 +801,9 @@
     <t>I enjoyed visiting this particular Courtyard by Marriott as I had a special rate and decided to get out of my apartment and hang with my OC buds. King Bed was splendid and the hotel grounds clean. The jacuzzi was nice and enjoyed the late check out per my MR Gold membership. Four Claws Up!!!! Gay friendly. Thanks fer reading my review. Joe the Bear - Redondo Beach, CAMore</t>
   </si>
   <si>
+    <t>ABC2575</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r316642927-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -741,6 +825,9 @@
     <t>It a nice courtyard, the rooms were fresh and warm. The staff was great, and knew the area well. The only issue i had was there weren't many restaurants near by, you had to drive some way to find a good one. Otherwise, a good hotel.More</t>
   </si>
   <si>
+    <t>Joy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r314584640-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -765,6 +852,9 @@
     <t>Very nice hotel, the area is not far from a few shopping centers but the hotel itself is a little isolated on the Avenida de la Carlotta. Needless to say it is very quiet. The rooms are very nice and there was a mini-fridge in our room with the King size bed. There was also a nice sized sofa bed which my son said was very comfortable.More</t>
   </si>
   <si>
+    <t>flpattie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r313748258-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -786,6 +876,9 @@
     <t>Very busy at check-in, but clerk was very professional and friendly.  We asked for and received a room away from the highway noise, which was a plus.Room was clean and well appointed, the bed and linens super comfy;gym was small but adequate for our needs.  Parking was not too convenient because you had to walk down the parking lot hill into traffic to access the sidewalk in front of the hotel..there were no side or back entrances.Only disappointment was breakfast and the "Starbucks" coffee.  Eggs were overcooked &amp; dry -- tasted like they were sitting under a heat lap for hours.  I reported my disappointment, and received an apology, but no offer to correct or compensate.  The coffee was terrible and so was the Barista... my husband picked it up and brought it to room which is when we first tasted it. I  promptly returned it and was told they had already closed the register so no refund was available,  I was firm  in getting the $$ back, and then was directed to the front desk -- as I walked away, I asked how much it was and he said it was cash so wasn't sure.  I challenged that knowing it was charged to the room, and suddenly he found the receipt was was able to refund the charge.  I reported this incident to the front desk who offered some extra points for this snafu.More</t>
   </si>
   <si>
+    <t>s_traveler050</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r303395940-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -807,6 +900,9 @@
     <t>Perfect location right off of the freeway and close to restaurants and shops. Check in - easy, fast and accommodatingParking - Lots of parking close to entrancesRooms - Small, but clean. We had a couple of issues that were not deal breakers.Closet space - None. There was only a small armoire in the room which could not accommodate a long, formal dress. There was no other place to hang it. We ran into each other every time one of us needed to go anywhere in the room. It's pretty small. The lotions/shampoo were used and gosh, at the very least, someone should have refilled them.Other than that, the room was fine and quiet. Bed was comfy. Furniture could use a cleaning and update.Nice lobby!Would stay again.More</t>
   </si>
   <si>
+    <t>lbreves</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r300032994-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -822,6 +918,9 @@
     <t>This hotel is clean and friendly personnel. They have a bistro where you can grab a bite to eat in the AM.  Also they are open for a snack and drinks in the evening till 9:30.   The margarita flatbread is really tasty.  The Starbucks coffees in the AM are really good.  They have scones and bagels for the AM along with egg sandwiches. It's right off the freeway at the 5 and 405 freeway at Lake Forest Drive.  So Ray access.   We stayed here when we went to the Pageant of the Masters so easy access to Laguna Beach area too.</t>
   </si>
   <si>
+    <t>Cypressman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r296612547-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -846,6 +945,9 @@
     <t>Manager checked me in was very pleasant.  I tried calling earlier to check on my room status and was told to hold - that hold was long.  I called again and told the lady that I already held, she was rude and put me on hold again.  Definitely was not the manager.  This hotel is close to numerous restaurants, the freeway and business.  As long as they are pleasant I would recommend for convenience.More</t>
   </si>
   <si>
+    <t>Ghassan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r291600972-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -864,6 +966,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Trvlbug31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r289846282-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -877,6 +982,9 @@
   </si>
   <si>
     <t>We stayed here one night en route to Laguna beach for a wedding. The staff were very friendly upon arrival very late at night. Rooms were a bit dated and the walls were a bit thin. There was nothing terrible about the rooms or hotel, it was just a bit blah for the Marriott chain. I would have expected a little nicer for the name and price. Location was right off the highway and minutes away from the 'downtown area' of Laguna hills. Overall, an okay stay but I'd consider staying at  a cheaper hotel next time.</t>
+  </si>
+  <si>
+    <t>OwlYaDoing</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r288317573-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
@@ -914,6 +1022,9 @@
 4.) Odd interaction with the front desk person in the morning. I stood there (around 6am) trying to check out, with no one in sight. Rang the bell, no one came. Eventually he sauntered over to the desk to check us out -- apparently, he was...This is pretty much your standard Courtyard, and if it was your standard Courtyard, I'd give it 5 stars. But things were a bit off...mostly with the staff1.) Check in took FOREVER. Normally, it takes less than 5 minutes. I think I was trying to check in for a good half hour, even though I was the only one there. The lady checking me in took her sweet time, fussing around with the computer, doing who-knows-what. This reservation was booked a good two months in advance, so I don't know what she was doing.2.) Apparently, she did something because we ended up with the handicapped room. We do not need this, I did not ask for this (nor would I ever ask for this because what if someone truly needs this???). This is a problem because the bathroom is designed for someone in a wheelchair, so the shower was difficult to use. 3.) Hallways were extremely noisy - kids running around everywhere at 10:30 pm. We were trying to get to sleep as we needed to be up at 4:30 am. Had to call the front desk twice about the noisy kids.4.) Odd interaction with the front desk person in the morning. I stood there (around 6am) trying to check out, with no one in sight. Rang the bell, no one came. Eventually he sauntered over to the desk to check us out -- apparently, he was cooking food at the Bistro. He seemed shocked that someone would want to check out at 6am. Odd.... He also asked if we wanted to buy any food at the Bistro. No thanks, that stuff is way overpriced and just not good.The property itself is nice, and easy to find.More</t>
   </si>
   <si>
+    <t>Longmich</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r283384648-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -941,6 +1052,9 @@
     <t>The hotel is updated and clean. The service was great and was very fast in the Bistro. The hotel is right off the highway and easy to locate. My only complaint is the the bathroom had a horrible sewer smell I am not sure if it was just the room but I did not smell it in the hall?  I really hope they get their plumbing checked out.More</t>
   </si>
   <si>
+    <t>indeo86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r283243533-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -956,6 +1070,9 @@
     <t>Me and my husband travel with marriott a lot. But let me tell you, so far this is our favorite place to stay when we visit Irvine. The service is amazing, all the hotel staff are extremely friendly and helpful.We will go back againI have to thank the front desk team specially Vivian who helped us a lot and the general manager Michael Thank you Courtyard</t>
   </si>
   <si>
+    <t>Mon S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r275552381-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -980,6 +1097,9 @@
     <t>There is not enough parking here. When we arrived at 3:00pm it was tough to find a parking spot. The staff was slow and the guests were obnoxious. I know the hotel can't help that, but we were in line with one person being helped in front of us for twenty minutes. I had pre-checked in and took 2 minutes to get my keys and leave the desk. The person being helped next to us put her foot up on the counter and was picking at ther toes and the staff did not even ask her politely to get her foot offf of the counter. The rooms were standard. Ours faced the freeway and you could hear the freeway noise some, but not too loud. There is a smoking area right outside the side door of the hotel so as soon as you walk out you have to hold your breath unless you want to inhale a bunch of smoke, and then you end up stinking some anyways. we went to a concert for the night and when we came back we had an even harder time finding a spot to park our car than we had in the afternoon. The positive is that they do have a small refrigerator in the room, otherwise it is your basic standard room.....and this one was set up rather awkwardly. I don't think I'd stay at this location again. It was not horrible,...There is not enough parking here. When we arrived at 3:00pm it was tough to find a parking spot. The staff was slow and the guests were obnoxious. I know the hotel can't help that, but we were in line with one person being helped in front of us for twenty minutes. I had pre-checked in and took 2 minutes to get my keys and leave the desk. The person being helped next to us put her foot up on the counter and was picking at ther toes and the staff did not even ask her politely to get her foot offf of the counter. The rooms were standard. Ours faced the freeway and you could hear the freeway noise some, but not too loud. There is a smoking area right outside the side door of the hotel so as soon as you walk out you have to hold your breath unless you want to inhale a bunch of smoke, and then you end up stinking some anyways. we went to a concert for the night and when we came back we had an even harder time finding a spot to park our car than we had in the afternoon. The positive is that they do have a small refrigerator in the room, otherwise it is your basic standard room.....and this one was set up rather awkwardly. I don't think I'd stay at this location again. It was not horrible, but there are better Marriott hotels close by.More</t>
   </si>
   <si>
+    <t>TaylorRose</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r270480517-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -998,6 +1118,9 @@
     <t>When visiting the Irvine area, I always book at this Courtyard because of it's convenience to the 405, dining and business area that I need to access.  I have stayed here 3 times.Check-in is always easy and I usually get the type of room I request - a quiet location.  The beds here are so comfortable and I've never had a noise complaint/problem. The room amenities are quality items and the coffee in plentiful (housekeeping brings more if I want it too).  Parking is convenient and plentiful.  I will stop for drinks at the Bistro which can be nice after a long day and I don't feel like going out.  I usually skip the Bistro meals though - just not my type of menu.More</t>
   </si>
   <si>
+    <t>Clint L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r269329248-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1022,6 +1145,9 @@
     <t>Our travel is for a memorial service in the area.  This location is convenient.  Others have mentioned the staff and I reiterate that the staff is first rate.  Our room is generous, clean and comfortable.  The Bistro flunks.  It is convenient, expensive, and the portions are tiny.  I expected convenient and expensive but my salad was so meager that I could see the small plate through the lettuce.  They haven't gotten the news that we have a water shortage.More</t>
   </si>
   <si>
+    <t>bungam161</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r265902127-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1049,6 +1175,9 @@
     <t>I called to make a reservation. I was transferred to the reservation.  As I was telling her what room I wanted to book, I heard a CLICK. She HUNG UP.  OKAY, if that's how they do business, I will take my $$$ elsewhere.  There's plenty of other hotels around.More</t>
   </si>
   <si>
+    <t>SuzieQ154</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r261263971-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1073,6 +1202,9 @@
     <t>This was our first time staying at this hotel.  We had a room block for our wedding (Sarah in special events is awesome!) and I don’t know if we were treated better than most because I was the bride but everyone was absolutely soooo nice and accommodating.  The hotel lobby and decor are modern.  Check in was a breeze with our check in guy being very friendly. Our bartender was also super friendly and efficient.  Our rooms were clean and spacious.  AC worked perfectly. The only negative thing I can say about the hotel is that their restaurant/bar closes too early.  They close at 10pm, which is a bit early for us.  But other than that, a fabulous stay.More</t>
   </si>
   <si>
+    <t>Jayda L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r260139129-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1097,6 +1229,9 @@
     <t>Have stayed at a few hotels in the area, and this is one of the better ones located of the 5 freeway. It's a lot more expensive than other hotels in the area and does not include breakfast. Room and bed were comfortable and a very short walk or drive to some places to eat if your hungry. I would consider this hotel again depending on the price.More</t>
   </si>
   <si>
+    <t>Welike2explore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r259891866-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1115,6 +1250,9 @@
     <t>location is good as it is close to freeway. However, that also means highway noise if you are on that side of hotel. Pool is good. People are great. On premise market is helpful if you choose to stay in your room. Central lobby has a welcoming feel with plenty of open group areas and booths to be more private. More</t>
   </si>
   <si>
+    <t>292chrisp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r258762291-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1133,6 +1271,9 @@
     <t>Good location close (by car) to Panera's and other restaurants.  Staff was attentive.  The breakfast and dinner setup with Starbucks coffee served was quite handy.  The pantry / mini store by the front desk stocks most of the things you may need in a pinch..snack, drink aspirin etc..  Pool and sun area is secluded and comfortable.  Work out area is available 24hrs/day. Now for the other side....The  WIFI setup in the room and public areas was for me VERY disappointing.  Even paying for premium service the lag and number of disconnects was disturbing.  The only reason this property didn't get a 5 star rating is the far below average performance of the Internet connection.  There was no provision for plugging directly into an ethernet connection to offset with the poor wireless performance.  My Room on the NON freeway side was quiet and comfortable.  Maid service was good, bed was comfortable, TV was a modern HD Flat screen with HDMI connectivity for laptop.  Stay off I5 freeway when going North into the city if at all possible.More</t>
   </si>
   <si>
+    <t>Kim S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r253455600-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1157,6 +1298,9 @@
     <t>Average for a Courtyard. Getting back on the freeway North legally isn't easy; there's no U-turn to get onto the on-ramp. My room had stained carpet, which they tried to deal with, unsuccessfully, after I informed them of it (and a stained ironing board cover that they replaced). However, that said, in general the rooms are nice (&amp; clean otherwise), the staff is fine/nice, the Bistro was fast in the morning for oatmeal, and for the area the value is OK.More</t>
   </si>
   <si>
+    <t>Joseph G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r250939642-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1181,6 +1325,9 @@
     <t>Make it sound its right next to the Spectrum.  Such is not the case. Rooms are very small and not very private.  The walls are paper thin and u can literally here the conversations of people in adjoining rooms.I was very displeased with our location.  Had a wonderful view of the roof top and air conditioning.  All in all I have stayed at Comfort Inns better than this. Not worth over $100.00 and I had the friends and family rate. Thinking about canceling my Marriott reward s card. Because frankly I have not been satisfied with the Marriotts I've. stayed in.More</t>
   </si>
   <si>
+    <t>mohk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r240419707-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1227,6 +1374,9 @@
   </si>
   <si>
     <t>Excellent location off of 405.  Room was nice and big and a great comfortable bed, very clean with good selection of morning coffee items.  Everything worked well, except we did have problems with the free wifi in our room (but the hotel is big so distance may have been a problem).We noticed wind noise coming from the windows, however there was a note in the room that the hotel was replacing all the windows with new energy efficient and noise reduction ones.  The freeway noise really didn't bother us because it was more like white noise, which will probably go away with new windows.  My only disappointment was with the Bistro dining (I stay at many Courtyards so I'm very familiar with their breakfasts).  When you order the $10 egg breakfast (the most expensive item) you expect your eggs to be over-easy NOT hard, more than 8 small potato nuggets and NOT still cold on the inside and the toast NOT almost burnt.  Next time I'll go to the Carl's Junior just down the street.Otherwise the stay was good, check in and out very easy, professional front desk staff and the sleep quality was great.More</t>
+  </si>
+  <si>
+    <t>Runningrock</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r238377707-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
@@ -1249,6 +1399,9 @@
 My only complaint, which is the same for all of the nearby hotels, is the extra charge for overnight parking. It's not like the hotel is in a congested urban area with limited parking. There is literally a gigantic parking lot right outside the door that sits empty, so there is no shortage of parking at this property or at any of the other Irvine hotels in the area. This seems like just another avenue for hotels to nickel and dime their customers. I realize that if the hotel eliminates the parking fee, they'll just add it into the room rate, but hopefully with enough negative feedback, all the hotels will eliminate the...This new hotel is one of my favorite Courtyards anywhere!  Perfect for business travelers! The hotel is very modern, and beautifully designed. The rooms are spacious and well appointed. Free Wi-Fi, coffee maker, and fridge in every room. Great work space and comfortable chair. I spend alot of time working in my room, so a comfortable work space environment is very important to me. The bathroom was very clean, spacious and well-laid out. I loved that the lobby was very large and offered a lot of seating. The breakfast was very good. I stayed at a more expensive hotel on my previous visit and this property was less expensive and in my opinion, a much nicer hotel. The staff was excellent and customer service was top notch.  My only complaint, which is the same for all of the nearby hotels, is the extra charge for overnight parking. It's not like the hotel is in a congested urban area with limited parking. There is literally a gigantic parking lot right outside the door that sits empty, so there is no shortage of parking at this property or at any of the other Irvine hotels in the area. This seems like just another avenue for hotels to nickel and dime their customers. I realize that if the hotel eliminates the parking fee, they'll just add it into the room rate, but hopefully with enough negative feedback, all the hotels will eliminate the parking fee without affecting room rates. Again, other than this issue, this is an excellent hotel.More</t>
   </si>
   <si>
+    <t>Jo S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r224706099-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1270,6 +1423,9 @@
     <t>I stayed two separate nights in two different rooms, as I was traveling through So Cal and Mexico. Both rooms appeared to be newly renovated, very nice, clean and comfortable. The lobby also appeared to be new and modern as another reviewer mentioned. I like the location of this property as well, close to freeways, shopping, restaurants, etc. The nightly rate may not be as cheap as some other nearby stays like the Laguna Hills Lodge, but it's a nicer hotel and I'd recommend it.More</t>
   </si>
   <si>
+    <t>Yvonne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r223674123-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1294,6 +1450,9 @@
     <t>We just spent 2 nights here last weekend and were pleased we had not taken the advice to stay in Costa Mesa.  The location of this hotel was perfect for heading down Hwy 133 to Laguna Beach, Newport Beach, and Balboa Island, as well as for access to shopping, movies, and places to dine right there in Irvine.  The rooms were nicely furnished, updated, and spacious.  Our room faced the back parking lot so there was no freeway noise.  With no parking fee and free WiFi, it was great for the value as compared to other hotels close by.More</t>
   </si>
   <si>
+    <t>MrViking2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r221633578-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1315,6 +1474,9 @@
     <t>Settled in a nice area, with good quick food choices near, we found this to be a really good stay. The rooms were clean and new with everything stocked and working. The family enjoyed the pool and it was nice to be in a place where most of the guests are there for business (it was quiet). Quick access to freeways was a bonus, but overall it's a really good place to rest as you go out/on to other fun things in California.More</t>
   </si>
   <si>
+    <t>Barb457</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r200996612-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1342,6 +1504,9 @@
     <t>Stay at this hotel more night than at home. I really enjoy staying there, they are the best in the area. The front desk staff is awesome particularly Caroline who always makes me feel at home! Located close to good restaurants. and is very convenient to where I am working.More</t>
   </si>
   <si>
+    <t>Jim K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r200539933-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1360,6 +1525,9 @@
     <t>After flying all day from New York I was greeted by Denise at the front desk who could not do enough for me.  She recommended several restaurants and gave me step by step instructions to walk to a local restaurant   Since Denise was running the front desk, Caroline offered to drive me to the restaurant.  I refused at first, but she would not have it.  She called the restaurant and discovered they were closed for renovations, but found another place and drove me the restaurant and offered to come back and pick me up.  Their commitment to the customer was truly outstanding.  I highly recommend the Marriott a Laguna Hills!!!  Denise and Caroline, I appreciate your help, appreciate your charming smiles and willingness to serve the customer!!!More</t>
   </si>
   <si>
+    <t>Wilhelmina87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r198580940-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1387,6 +1555,9 @@
     <t>Stayed in this hotel for 5 nights while visiting nearby family. I had the impression that the hotel was nowhere near full while I was there. The attractive restaurant area and lobby were generally empty.  The staff was exceptionally friendly and helpful. I was happy with the room and enjoyed the pool.  The main drawbacks were the extremely limited menu at the restaurant and rather isolated location with no restaurants or shops within walking distance. The rate I paid was reasonable except for the last night (a monday night), for which I somehow had to pay a rather exorbitant sum considering the location and amenities.More</t>
   </si>
   <si>
+    <t>RSquar3d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r193998079-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1414,6 +1585,9 @@
     <t>This hotel is your standard Courtyard.  However, since I am an elite member, I was upgraded to their corner room that is a one bedroom suite.  The lobby area has been renovated to meet the new Courtyard standards.  The issue I had was I left my Bluetooth headset in the room when I checked out.  I called the next evening when I realized I left my headset to see if it was found.  I called back on Monday and was told my headset was not found.  I know for a fact, I left it on the lamp stand next to the couch, but somehow it was not found.  I guess it is partly my fault, but this is not the first time I have stayed at a Marriott and left a Bluetooth headset behind that was not found.More</t>
   </si>
   <si>
+    <t>Wendy J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r193917380-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1441,6 +1615,9 @@
     <t>This hotel was a bad experience before I could even check in.  I booked it on line and made my reservation under the Federal Government rate which according to Marriott policy, covers active duty military and their dependents on leisure travel.  Upon check in the manager was looking over the clerks shoulder as we checked in and proceeded to take my military dependent ID, look it over, then tell me I did not qualify for the rate.  She sat there at 9pm arguing with me while my children stood and watched and waited to get in the room after a long day of cross country travel.  The manager continued to argue with me and was downright rude before finally letting me have the rate.  I would have left if not for my tired children.  I will NEVER stay at this hotel again and will warn others away from it.  There is no reason a manager should ever argue with a guest, especially when we got to our room and it smelled bad and was dingy.  The hotel did not have Disney channel like every other Marriott property I have stayed at and like since I know what I am going to get when traveling with my children.  It is hard enough being a military family, but when I travel with my children when my husband in deployed and serving this country, I don't expect to be so disrespected by a...This hotel was a bad experience before I could even check in.  I booked it on line and made my reservation under the Federal Government rate which according to Marriott policy, covers active duty military and their dependents on leisure travel.  Upon check in the manager was looking over the clerks shoulder as we checked in and proceeded to take my military dependent ID, look it over, then tell me I did not qualify for the rate.  She sat there at 9pm arguing with me while my children stood and watched and waited to get in the room after a long day of cross country travel.  The manager continued to argue with me and was downright rude before finally letting me have the rate.  I would have left if not for my tired children.  I will NEVER stay at this hotel again and will warn others away from it.  There is no reason a manager should ever argue with a guest, especially when we got to our room and it smelled bad and was dingy.  The hotel did not have Disney channel like every other Marriott property I have stayed at and like since I know what I am going to get when traveling with my children.  It is hard enough being a military family, but when I travel with my children when my husband in deployed and serving this country, I don't expect to be so disrespected by a hotel manager.More</t>
   </si>
   <si>
+    <t>EP348</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r192009054-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1465,6 +1642,9 @@
     <t>A nice stay considering the cost of the room in the area you are in.  If you have a car, and are ok with driving 10-15 mins to get to where ever you need to get to, it is perfect.  It's not a hotel that you would have a romantic stay at, but I assume that's obvious if you are at a Courtyard Marriott.  Price is the key factor for satisfaction here.Smaller room but recently updated in that Courtyard Marriott fashion.  Can't complain, when the parking and internet is free this close to Irvine, Costa Mesa, and Laguna Hills.One downside is location right off of the freeway.  Ask for a room facing away from the freeway.  The 5 freeway can get noisy at times.  I would definitely stay again.More</t>
   </si>
   <si>
+    <t>nmp66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r185590807-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1492,6 +1672,9 @@
     <t>Stayed there overnight while attending the Laguna Beach Festival of the Arts, which is about a 15 minute ride down the road.  We liked it because it's out of the summer crowds in Laguna Beach.  Nice accommodations; the beds were comfortable, rooms clean and quiet.  Friendly staff.  Would stay there again.More</t>
   </si>
   <si>
+    <t>Eddie S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r182068808-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1516,6 +1699,9 @@
     <t>Stayed 3 days for work. Room was clean, bed was comfortable had 4 pillows and wifi worked great. Lobby has a small Bristo to get coffee and an egg sandwich which is all I need.Service was good, just enough so I would stay here again for work. More</t>
   </si>
   <si>
+    <t>5_Frosts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r182032979-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1532,6 +1718,9 @@
   </si>
   <si>
     <t>This is a good hotel with very friendly service. I did notice walking through the halls that I could hear conversations in every room, but I was not affected by any noise, inside or out. The only disappointment was the bistro breakfast. It did not match up to my previous experiences. I would encourage you to drive down the road a bit to find food. There's a mall just a few minutes drive away with restaurants and Starbucks.More</t>
+  </si>
+  <si>
+    <t>Anson J</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r173570278-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
@@ -1562,6 +1751,9 @@
 I do have a complaint that I hope the management...My GF and I were looking for a hotel with close proximity to Orange County coast cities such as Laguna Beach, Newport Beach and Dana Point.  I saw the pictures and read reviews about this hotel online and my reaction was this would be a good option.  I have always had good experiences with Marriott hotels in the past and this was no exception.  This place has great bang for the buck.   Even though it is located right off the 5 freeway, there is no noise factor (I assume it is because of double paned glass).  The lobby décor was colorful and unique: I really liked the private booths with individual flat screen TVs, and there were computers available to guests spread throughout the area.  The staff was friendly, helpful and highly efficient.  The room was immaculate and the bed was comfortable.   The amenities (workout room, pool, Jacuzzi) were well maintained.  We ended up ordering food in one night  from the Bistro, located in the lobby.  I thought the food was slightly over priced, but it was well prepared and tasty.  All things considered, I think this is a  well run facility that lives up to the Marriott name and reputation.  That being said, I think it is better suited for business travelers; the hotel was obviously planned for that market.  It also works well for families on a budget.I do have a complaint that I hope the management will take notice of, and it really has nothing to do with the service or quality.  We stayed on a weekend and particularly on Saturday it was difficult to  take advantage of the amenities. I had to make a couple of trips to the workout room before I could find an open machine to use, due to crowding.  This was even a bigger issue for the Pool/Jacuzzi area; hordes of kids took over those areas Saturday from about 3 in the afternoon until almost 10 at night.  If this is a common occurrence on weekends, perhaps the staff could monitor those  areas to make sure people are not abusing the time and allowing others access.  Naturally, there was no way my GF and I could enjoy a romantic swim or Jacuzzi due to all the kid traffic.Bottom Line: Despite the amenities issues, we generally had a pleasant stay and would consider staying again.More</t>
   </si>
   <si>
+    <t>Travelnow2011db</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r172664641-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1583,6 +1775,9 @@
     <t>I was drawn to this hotel because of its proximity to Irvine Spectrum -- it is an exit away but is located in an industrial area, by the freeway.  The environment is not at all like Irvine.We checked in at past 3pm but was told that the room wasn't ready.  I requested a room facing the back and was told that the room reserved for me was in the quiet area but I had to come back after an hour.When we got back, the hotel manager was at the front desk and told me that the room that we were assigned couldn't be released and we were going into another floor.  We had to wait for another 30 minutes to finally check in.  Surprisingly bad front desk service, considering that they are a business hotel and the hotel manager was there !The room we got was in the quiet area but the double beds seemed smaller in size compared to other hotels.  Saving grace for this hotel is the good service at the restaurant.More</t>
   </si>
   <si>
+    <t>lvchick79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r166989546-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1604,6 +1799,9 @@
     <t>Location is great if traveling to/from Anaheim or San Diego for attractions. Beach is close by as well. Rooms are decent and staff was nice. Pool decking needs to be re-done but still nice. We would stay here again. Traveled with kids.More</t>
   </si>
   <si>
+    <t>cooperlynx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r164014285-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1628,6 +1826,9 @@
     <t>Older facility that has been refurbished.  Not much to say other than it is a two star facility.Right on freeway, so make sure you get a room on the back side of hotel.  We had good service from the night desk clerk.More</t>
   </si>
   <si>
+    <t>MargaretL750</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r160218847-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1655,6 +1856,9 @@
     <t>Great staff - can not say enough how first class the personnel are working here. Room was comfortable, clean and had a balcony plus a mini fridge.  Quiet even though it is near freeway.  Stayed here for 3 nights while on business.  Location was perfect.  Had dinner and breakfast twice at the Bistro and all four times the food was prepared to my customizations, served quickly and was good.  Very attentative staff.  Seem to utilize flex staffing for breakfast and dinner peak times.  The staff is paying attention to the kind of details on customer service that one typically associates with upper end hotels (e.g. calling you Mr. or Ms after one meeting) - taking the time to acknowledge you ("how was your run / workout"?) - they are doing a very nice job of creating a temporary community.  Lobby is vibrant, functional and a place you actually want to utilize.  Pool and spa area were very nice.  Work out room is equipped with a stationary bike, 2 treadmills, 1 eliptical and some free weights.  Net - the general manager is hiring and training the right people in the right ways.  Additionally it appears the expecations about customer service and team work are communicated and it reflects in an experience that is far and above the "typical Courtyard experience".  I would absolutely stay here again whether or business or pleasure.More</t>
   </si>
   <si>
+    <t>Tom Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r160164164-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1670,6 +1874,9 @@
     <t>I stay over 200 nights at hotels a year.  Marriott Platinum member, Hilton Diamond, SPG Platinum, Pro:Good locationFree parkingCon:Dirty carpet in room (stains)No free breakfastNo upgrade for platinum member to better roomMore</t>
   </si>
   <si>
+    <t>sm_art_1970</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r157000032-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1697,6 +1904,9 @@
     <t>We have stayed here two years in a row while in Southern California. It's right on the freeway, but we didn't find it noisy at all. We stayed on the opposite side from the freeway, though. The hotel is nicely decorated, there is a comfy cozy lounge in the lobby, presumably where groups could hang out and watch the large flat screen. The rooms are impeccably clean, good Marriott beds and linens , as you would expect. The location is close enough to beaches, to LA, to the stellar Irvine Spectrum entertainment  complex , huge theater and restaurants galore. We will be back! That's a great team running the hotel.More</t>
   </si>
   <si>
+    <t>A_and_B_from_PA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r156530026-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1724,6 +1934,9 @@
     <t>We chose this property because we felt it gave us the guarantee of a solid stay while diminishing costs significantly when compared to the coast.  This was right on target.  We were just a few minutes from Downtown Laguna Beach but also back off the coast so that we could easily slide off from the hotel to places like San Juan Capistrano, Dana Point or Newport Beach.  It was ideal.More</t>
   </si>
   <si>
+    <t>Uptowngal12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r155284628-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1748,6 +1961,9 @@
     <t>This Courtyards was beautifully furnished and decorated. If I say it's freeway close that is an understatement. It's on a frontage Road going south on the 5. If you were any closer to the freeway you would be siting on the shoulder with a AAA truck behind you. I don't think the noise in the rooms at the front will be a problem as it is most likely triple glazed.  Strictly business persons hotel, it is close to the Spectrum so if that is your destination on a weekend with a great rate it would work with children. The beds are so comfortable!More</t>
   </si>
   <si>
+    <t>Mommy23Angels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r153255562-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1772,6 +1988,9 @@
     <t>This hotel has an older feel to it. Well worn but somewhat clean despite the stained carpets. The front desk clerk was extremely polite and friendly. My request for extra towels was met promptly as well. I usually stay at courtyards and have come to enjoy the convenience of their breakfast buffet. This one had food to go that was outrageously priced. Additionally, I had to attend a meeting in the morning and  when I returned needing my coffee fix around 10:30 there was no longer any coffee around and the front desk lady said they don't offer it all day. Most of the other courtyards do. The topper was when my four year old left his prized possessions in a backpack in our hotel room.They couldn't find it. I knew exactly where it was... but after their "search" it was unable to be located. No blame on the front desk... I know they looked for it... but it didn't grow legs and walk out on its own. Obviously the result of an untrustworthy staff. Just sad. More</t>
   </si>
   <si>
+    <t>Shirin S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r148663331-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1799,6 +2018,9 @@
     <t>The staff was so great.  We had a great time. Even if there was an issue they handled it so nicely. I would highly recommend this hotel. The convenience to the freeway is great as well. The pool and tennis courts were also very nice.More</t>
   </si>
   <si>
+    <t>ryze619</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r144718522-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1826,6 +2048,9 @@
     <t>We made a pit stop at this property on our way back to San Diego and I was pleasantly surprised.  I called the hotel earlier with a question and when I checked in the front desk agent remembered our conversation.  She made me feel welcome right away.  There was a little bistro in the lobby so we ordered some desserts and an appetizer.  The servers there were very nice too.  The hotel lobby was inviting and the rooms were clean.  The bed and pillows were super comfortable.  I wish we were staying another night so that we could enjoy the outdoor pool.  I would definitely come here again even just for a weekend getaway.  It isn't a resort, but I love that it's super close to Irvine Spectrum.More</t>
   </si>
   <si>
+    <t>Kevin K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r140211244-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1853,6 +2078,9 @@
     <t>Stayed here for 5 nights so got a feel for the place. The staff are friendly and good. The rooms are big, equipped but basic. The food menu is the big let down so apart from breakfast don't plan to eat here. No atmosphere in the lobby or bar area at night if you want to unwind. Serves a nice and comfortable purpose for using as a crash pad.More</t>
   </si>
   <si>
+    <t>Ethano2003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r139922357-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1877,6 +2105,9 @@
     <t>Loved my stay here this weekend. I was in town to see a concert at Verizon Wireless and 3 of us stayed here and loved it. Clean rooms, perfect location for the venue and really anything around Irvine and Newport Beach. Close to shopping, food, and the staff is fantastic. I would recommend this hotel to anyone in the area!More</t>
   </si>
   <si>
+    <t>Mnree7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r137781771-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1904,6 +2135,9 @@
     <t>As far as business hotels go, this one does the job and is close to anything in Irvine you might need. The rooms are ok, bathrooms are dated, and any rooms facing the freeway side will be noisy. The pool area is quite nice though, and the lobby looks rennovated and modern. They really need to do something about the bathrooms in the rooms though, which just don't fit with Marriotts in general or the rest of the hotel. A couple of miles down the road is Laguna Hills Mall, which has a lot of restaurants and shops. Just make a right out of the parking lot and keep going until it is on your right. The driving around there is very confusing and it's easy to  get caught up in a bunch of U-turns, trying to find your way around.More</t>
   </si>
   <si>
+    <t>2BizzyTravlin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r132189315-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1931,6 +2165,9 @@
     <t>After reading prior reviews I booked a room with cautious optimism, not expecting much for the reasonable price of $92 senior rate. Because of previous reviewer complaints of freeway noise, I requested a room away from the freeway side and hoped for the best. We got the best.We had no noise from the freeway; the hotel had an almost new feel, with a courteous and helpful front desk, comfortable bed and bedding, and a tub shower w/ a fabulous shower head.There was a girls softball team staying on the same floor who were a bit noisy in the hall, but we just used the fan setting on the thermostat to block out the noise, and slept quite peacefully.We enjoyed our stay and plan to use this hotel again when we're in the area.More</t>
   </si>
   <si>
+    <t>Mr Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r129536647-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1958,6 +2195,9 @@
     <t>Great staff, I checked in late Friday and was quickly and pleasantly checked in.Remodeled lobby looks fantastic, now includes a bistro, starbucks, and plenty of furniture.Room was just a pictured in photos. Beautiful, clean. No problems.Only thing they could improve on is high speed internet.They have free wifi but it is painfully sloooooooooow.More</t>
   </si>
   <si>
+    <t>Wendie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r128940614-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -1985,6 +2225,9 @@
     <t>My family was in town, unfortunately for a funeral, and the staff at the Laguna Hills Courtyard was so kind to them. I was so happy to hear that they all were well taken care of and were told if they needed anything to let the front staff know and it would get done. We all meet one morning for breakfast at the hotel and it was wonderful.  Oh and the kids loved the pool too!Recently, my husband and I stayed there while our house was being tented and I love the new upgraded wifi and the new bistro area. Thanks for making our staff so easy and comfortable. I was already stressed about the house, but soon relaxed when I saw how I was going to be taken care of at the Courtyard.More</t>
   </si>
   <si>
+    <t>ap3266</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r126117928-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2006,6 +2249,9 @@
     <t>Came to the Courtyard after checking out of a not-so-savory hotel nearby, on the advice of a friend who had stayed at this location in Laguna Hills before.Called the hotel directly for some clarification on the room types and rates available and was promptly serviced. Check in was very efficient by a friendly gentleman. Room was ready on time as requested.However, Courtyards in general don't seem to cater to Marriott Rewards Gold members...so we didn't get any magical upgrade, or free drinks, or free breakfast.Nonetheless, the rooms were pretty spacious. I still don't know why hotels use double beds instead of queens...but the beds were at least comfy. The room was very clean and included a regular coffeepot instead of some substitution thereof.The lobby was nice to relax in. Lots of places to sit with plenty of power ports for charging laptops, iPads or phones. Free wi-fi was fast.The "bistro" served standard fare for breakfast, lunch and dinner and had alcoholic beverages for purchase. Prices were pretty steep; $30 for breakfast was about average and $7-8 for one drink in the evening.Pool was nice and there was a hot tub/whirlpool.I'd stay here again. It was close to a lot of things and easily accessed off the 5 or the 405.If I could change anything...I'd like to see Gold Rewards members get some benefits.More</t>
   </si>
   <si>
+    <t>vagabond_biker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r125869576-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2024,6 +2270,9 @@
     <t>A few hours after check-in someone opened my front door and upon seeing me asked when I was planning to check out.  I yelled at him to shut the door and get out.  I immediately reported this to the front desk and got the reply sorry about that but no other explanation.  I had the deadbolt latch set but that had no effect in stopping entry.  At this point I did not know if a thief was trying to break in or if it was a hotel employee.  I called front desk again asking to speak to the manager but was told none was available, instead I was given the person who just broke into my room.  He said he was instructed by housekeeping to repair my room and insisted he knocked before entering.  He called me a liar when I said he walked in without knocking.  I called the front desk again asking to speak to the manager.  I was told the manager would call back but that never happened.  Totally unacceptable.  Your stay might be fine but look out if there is a problem.  Marriott tends to be customer oriented, not this location. To summarize: employee walks into my room without knocking, I call front desk to complain, I'm called a liar.More</t>
   </si>
   <si>
+    <t>onobed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r124676042-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2051,6 +2300,9 @@
     <t>I really like the staff at this hotel.  Every single person was polite, professional and legitimately interested in my well being.I will say that the hotel was very noisy.  I had to change my room after the first night, which they were able to accomodate.  Even though the new room was not on the freeway side, it was still very noisy. So, if you need a quiet place, don't stay here.  If you want good service, consider it.More</t>
   </si>
   <si>
+    <t>P O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r123423402-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2069,6 +2321,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>Michael F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r123040847-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2090,6 +2345,9 @@
     <t>Stayed three nights 12/29/11 to 1/1/12. We had a wedding to attend down the road in San Clemente about 25 minutes away.  Occupancy was very low. I'd say 15% to 20% of the parking lot was used. Located next to the freeway, you will some noise, but it could have been worse. At a hundred dollars per night you can't expect greatness anymore and that's what we got. This was a clean hotel, so no complaints there. The staff was nice, even if not helpful. The first night was noisy, like they were carrying out some kind of repair on our floor, like hammering. We put up with it and tried to sleep. The next morning staff said they weren't doing any work, so who knows what it was. Night two was okay, but night three was New Years Eve. We celebrated early and were in bed by 11:00 pm. We awoke at midnight to hear fireworks, etc. and expected something like that. What we didn't expect was yelling and crying from across the hall. About 2:30 a.m. it sounded like a domestic dispute situation and a young girl was crying, so we called the front desk. A person came up and knocked on their door, but no one answered, so the hotel staff left. More yelling but they finally quieted down, but we had only one good night's rest out of three. We asked for an adjustment of one...Stayed three nights 12/29/11 to 1/1/12. We had a wedding to attend down the road in San Clemente about 25 minutes away.  Occupancy was very low. I'd say 15% to 20% of the parking lot was used. Located next to the freeway, you will some noise, but it could have been worse. At a hundred dollars per night you can't expect greatness anymore and that's what we got. This was a clean hotel, so no complaints there. The staff was nice, even if not helpful. The first night was noisy, like they were carrying out some kind of repair on our floor, like hammering. We put up with it and tried to sleep. The next morning staff said they weren't doing any work, so who knows what it was. Night two was okay, but night three was New Years Eve. We celebrated early and were in bed by 11:00 pm. We awoke at midnight to hear fireworks, etc. and expected something like that. What we didn't expect was yelling and crying from across the hall. About 2:30 a.m. it sounded like a domestic dispute situation and a young girl was crying, so we called the front desk. A person came up and knocked on their door, but no one answered, so the hotel staff left. More yelling but they finally quieted down, but we had only one good night's rest out of three. We asked for an adjustment of one night's stay when we left, but were told a "manager" was not in until January 3rd. When my wife called them, they were argumentative and said we should have expected noise on New Year's Eve. Okay, but we were there three nights and two of them were much less than restful. They eventually gave us back a night, but she had to talk to three people on different days before it was resolved. The Wi-fi worked well, but the free morning coffee in the Lobby was pretty bad--too weak and not good tasting compared to ordinary Starbucks brewed coffee. The snack shack in the Lobby was filled mostly with junk, so not a lot of relief there. The good news is restaurants are plentiful not far away.  With restful nights this would have been just an okay place if you want an inexpensive place to stay, but it's no resort, so don't expect that.More</t>
   </si>
   <si>
+    <t>catherine c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r121610308-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2105,6 +2363,9 @@
     <t>Stayed at this hotel thursday-sunday and it's quiet during the weekends. more of a business person hotel but that works for me!  was a little disappointed to hear the highway traffic at first but everything else made up for it. The entire place is very clean, staff is friendly and the food at the starbucks/ lobby restaurant is good.  I ate there all three nights because I didn't feel like going anywhere- great variety and yummy food. Exercise room is nice too.</t>
   </si>
   <si>
+    <t>Shuvah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r118079258-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2132,6 +2393,9 @@
     <t>The hotel is in great shape having been recently been renovated.  They serve breakfast and dinner.  We stayed in a handicapped room which was excellent for my wife's broken ankle.  The room was spacious and airy.More</t>
   </si>
   <si>
+    <t>flipper95</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r117922663-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2156,6 +2420,9 @@
     <t>My one night was just the night of sleep I needed after a long day traveling.  The hotel is convenient to the highway (405 and 5) and is nicely renovated.  All the comforts one would expect in a courtyard. You may want to avoid the rooms facing the highways if your noise averse, I asked for a far room to avoid the noise of the roads.More</t>
   </si>
   <si>
+    <t>bwaller1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r117398453-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2177,6 +2444,9 @@
     <t>Room beautifully decorated with great TV. Bed was excellent with feather pillows.More</t>
   </si>
   <si>
+    <t>Paradise31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r115967179-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2198,6 +2468,9 @@
     <t>Convenient to the I-5, restaurants within a mile and the Irvine Spectrum is a city within itself!  Our rooms faced away from the front of the hotel and were quiet, clean and comfy.  The only drawback was the choice of a king bed or double.  Seems the double is small for two adults when you're used to sleeping on a california king; no big deal.  Great job Marriott!More</t>
   </si>
   <si>
+    <t>Vegasvec</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r115928231-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2216,6 +2489,9 @@
     <t>In short, this is about 10 to 15 min away from most of the business parks in the area. There is no shuttle and be prepared to wait in excess of 15-20 min for a taxi to arrive. The setup of the hotel is the saving grace. The atmosphere is very business traveller friendly. The front lobby is great for meetings and casual conversations. The bistro is nice and has the right size portioned food for any meal bbut of course, it leans more towards the expensive side. Internet in the rooms is good but can be slow during peak times (I found btwn 5 and 9 pm). As for the surrounding area, there isn't much. If you want a decent meal or change from the bistro, you will need to walk 6-8 min to find a Coco's and a Carl's Jr. Walk about a mile and there is a Buffalo Wild Wings on the other sidebar the overpass. If you have a car or don't needto rely in transportation, this is a good hotel. Otherwise, expect to get everything you need at/in the hotel. More</t>
   </si>
   <si>
+    <t>Franciscolopez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r115066533-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2234,6 +2510,9 @@
     <t>I am always a little leary of hotels websites photos of their facilities. The hotel was better than advertised. Upon arrival into the lobby i was warmly greeted by the front desk. The lobby was very nice and  had a small restaurant which we ordered a pizza. We sat in one of the updated booths with a personal flat screen Tv in the booth.The rooms were modern, clean  and had a in suite refrigerator. The satellite tv had plenty of channels and most importantly the king size bed was quite comfortable. It was nice to have a couch in the room for us to watch tv from. The couch also was a fold out bed. We stopped in the exercise room which appeared to have have. Nice equipment including free weights. The pool was nice as well. If you are looking for a nice clean and comfortable room at a reasonable rate I suggest trying this hotel. More</t>
   </si>
   <si>
+    <t>TexasKami</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r102781198-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2250,6 +2529,9 @@
   </si>
   <si>
     <t>March 2011</t>
+  </si>
+  <si>
+    <t>C00per01</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r102120426-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
@@ -2272,6 +2554,9 @@
 I soon noticed that half the channels on the TV were not working.  I called down regarding that issue.  They sent someone up immediately, and then I was told that it would be fixed right away.  It wasn't fixed, and I was not notified of any update.  It has now been three days without access to any March Madness games or HBO.  I've had to call the front desk six times now looking for updates.  A couple of times they told me it was all fixed - except my TV didn't seem to agree with them.  When I called this evening and spoke with Gary,  I received a lot of attitude.  He got upset because he stated he left me a message.  Well, I did not have any message light on my phone, so I suggested that they need to look into the issues with their phones now.  Oddly, about two minutes after I got off...Check-in was good - got up to my room, and noticed immediately the traffic noise.  This was caused by the window not being all the way shut, but I was not able to close it.  Called to front desk to have this fixed.  Someone was sent up immediately, but they still couldn't get it to latch.  It appears that the window is beyond repair.  I had also discovered that one of the cleaning staff had left behind a dirty cleaning towel on the sink.  I soon noticed that half the channels on the TV were not working.  I called down regarding that issue.  They sent someone up immediately, and then I was told that it would be fixed right away.  It wasn't fixed, and I was not notified of any update.  It has now been three days without access to any March Madness games or HBO.  I've had to call the front desk six times now looking for updates.  A couple of times they told me it was all fixed - except my TV didn't seem to agree with them.  When I called this evening and spoke with Gary,  I received a lot of attitude.  He got upset because he stated he left me a message.  Well, I did not have any message light on my phone, so I suggested that they need to look into the issues with their phones now.  Oddly, about two minutes after I got off the call, my message light came on.  I guess "someone" got maintenance on that one right away, since they don't appreciate looking stupid to the customer.Additional items of concern:  the internet service is very slow, and the workout room has been jammed into a space that isn't fully suitable.  It is rather difficult to run on the treadmill when there is only a two inch clearance between your head and the ceiling, so beware if you are over 6 foot.The guest rooms are also on the small side.  I recently stayed at a Courtyard in South Carolina, outside of Greenville.  The standard guest rooms there were significantly larger - and didn't come with all of the issues I encountered here.It seems that this place has a number of issues that the cosmetic updates haven't corrected.  They need to go beyond that.  Now, they really need to work on the basics of the building - such as windows, phones, internet, cable, and appropriately sized space.Finally, if you want a quiet place to sleep, look elsewhere.  The hotel is overlooking the 405, and because the freeway is at an angle there is no side that faces away from the freeway.  I had asked for a room opposite the freeway, and I was told this room was.  I think they need to be more honest with the fact that neither side is away from the freeway.More</t>
   </si>
   <si>
+    <t>et0607</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r96331999-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2293,6 +2578,9 @@
     <t>The entire hotel has recently been renovated and looks great.  The staff at Courtyrd Marriott Laguna Hills Irvine Spectrum was fantastic.  They allowed us to check in early.  Although the lobby restaurant was closed, the receptionist got me a plate so I could heat up my leftovers.  She even got me a Dr. Pepper from her own stash (free of charge) because I didn't like the Pepsi products available at the front desk.  Every time I walked by, they were smiling and never made me feel like a nuisance.  My husband was there on business and I was there on pleasure.  I sat by the pool and enjoyed silence for hours while he was away at work.More</t>
   </si>
   <si>
+    <t>meechmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r74631409-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2314,6 +2602,9 @@
     <t>I stayed here August 7, 2010 to go to the Pageant of The Masters in Laguna Beach. I reserved 2 rooms, one for myself and the 2nd one for my 2 friends. My room was ready upon check in at 2p.m. There room was not ready .We put our luggage in my room until theirs was ready. Understandable considering Check in was 3 p.m. We went to wait by the pool area, which was very nice. 3 p.m. comes and room still not ready. It needed to be cleaned still. The desk clerk could not give us a time when it would be ready and said they have no communication with the maid staff. What? Seriously? Every hotel I have ever stayed in has had communication with their maids. Anyway. 3:30 come around. Still nothing. My one friend asked to talk to the manager as this is unacceptable. No manager there. Again, what? After much urging they finally call their corporate office and give the phone to my friend who proceeded ina  professional manner tell them this a bad customer service and their desk clerks could offer no reason and no appology. They onyl said they were busy last night and the rooms are extra dirty. Did not make sense at all. In the menatime, I run up to the floor wher our rooms were and noticed teh maid at my friends room and asked how long. He was very...I stayed here August 7, 2010 to go to the Pageant of The Masters in Laguna Beach. I reserved 2 rooms, one for myself and the 2nd one for my 2 friends. My room was ready upon check in at 2p.m. There room was not ready .We put our luggage in my room until theirs was ready. Understandable considering Check in was 3 p.m. We went to wait by the pool area, which was very nice. 3 p.m. comes and room still not ready. It needed to be cleaned still. The desk clerk could not give us a time when it would be ready and said they have no communication with the maid staff. What? Seriously? Every hotel I have ever stayed in has had communication with their maids. Anyway. 3:30 come around. Still nothing. My one friend asked to talk to the manager as this is unacceptable. No manager there. Again, what? After much urging they finally call their corporate office and give the phone to my friend who proceeded ina  professional manner tell them this a bad customer service and their desk clerks could offer no reason and no appology. They onyl said they were busy last night and the rooms are extra dirty. Did not make sense at all. In the menatime, I run up to the floor wher our rooms were and noticed teh maid at my friends room and asked how long. He was very pleasant and said 20 minutes. That's all it took was for some one to go up and ask. The rest of the stay was very nice, the rooms were clean and the pool veiw was nice. We had rooms 202 and 204. 202 was much bigger and the same price as room 202. 204 had 500 sq ft, Separate bedroom with a door and 2 double beds. Refridgerator, microwave, coffe maker,etc. The breakfast was good too.More</t>
   </si>
   <si>
+    <t>UKLouLou</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r60899798-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2335,6 +2626,9 @@
     <t>I stayed 3 nights on the occasion of a family visit. It is close to Interstate I-5 amongst a mixture of suburban office buildings, specialised shops and gated communities typical of Orange County. It contains what it says on the box: it is a standard suburban hotel/motelpart of huge chain. It is not bad but it does not offer much. Unfortunately I was ill so didn't use the swimming pool, which looked quite nice. Although my room was along on the side of building and rather towards the back, traffic noise from the interstate is noticable even with all windows closed. It must be pretty bad for the rooms at the front, facing the highway.More</t>
   </si>
   <si>
+    <t>MzKitKat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r53317625-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2356,6 +2650,9 @@
     <t>Booked this trip via Priceline.com at the last minute for a Friday/Saturday stay.  We arrived At 3:30am Saturday morning.  Found a guest sleeping in the lobby who let us in.  The night clerk was MIA for a while.  Once the clerk checked us in, we went to our room. I located the fridge and found 3 bottles of what looked like very old bottled water that had been left in the fridge when the fridge had been on, then turned off!. Also, the room had no 'do not disturb' signs.  Also found some kind of black hairs on the sheets.Appears as if the room isn't cleaned thoroughly.  Left room @ 9:30 am, returned at 10pm that night only to find that the maid hadn't cleaned our room or made the bed!  Complained to the front desk, a Thomas, who could not have cared less!  He couldn't even say 'sorry' or 'I apologize for the inconvenience, what can I do to make things right?"  Instead, he tried to blame us for the problem saying we must have left the 'do not disturb' sign on the door.  Explained that couldn't be the problem cuz there was no sign in the room.  Again, instead of apologizing all he could say is he could have someone bring towels and empty the trash, if we wanted.  But his tone of voice wasn't friendly.  He clearly didn't want to be bothered. Told him I wanted the...Booked this trip via Priceline.com at the last minute for a Friday/Saturday stay.  We arrived At 3:30am Saturday morning.  Found a guest sleeping in the lobby who let us in.  The night clerk was MIA for a while.  Once the clerk checked us in, we went to our room. I located the fridge and found 3 bottles of what looked like very old bottled water that had been left in the fridge when the fridge had been on, then turned off!. Also, the room had no 'do not disturb' signs.  Also found some kind of black hairs on the sheets.Appears as if the room isn't cleaned thoroughly.  Left room @ 9:30 am, returned at 10pm that night only to find that the maid hadn't cleaned our room or made the bed!  Complained to the front desk, a Thomas, who could not have cared less!  He couldn't even say 'sorry' or 'I apologize for the inconvenience, what can I do to make things right?"  Instead, he tried to blame us for the problem saying we must have left the 'do not disturb' sign on the door.  Explained that couldn't be the problem cuz there was no sign in the room.  Again, instead of apologizing all he could say is he could have someone bring towels and empty the trash, if we wanted.  But his tone of voice wasn't friendly.  He clearly didn't want to be bothered. Told him I wanted the bed made, but all he would say is to repeat that he would have someone bring clean towels.  Explained that wasn't satisfactory.  Asked him where was the concern for customer satisfaction?  Where was the apology?  Why wasn't there ANY effort to compensate us for the inconveniences???  He said we were Priceline customers and just kept repeating that he would bring clean towels and empty the trash, only if we wanted that,  Advised him I would complain, but he didn't care.  Spoke to the maid the next morning, who didn't even realize we were there!!  She hadn't been told we were had checked in, so she didn't come to clean the room.  Told her about the missing signs, which she promptly replaced.  Also spoke to the front desk the morning we checked out to explain the problems and let her know how unhappy we were.  I also told her I was very unhappy that we weren't offered some kind of compensation for our poor treatment and inconveniences, but she said we were Priceline customers. (Apparently, if you are a Priceline customer, they don't feel the need to ensure customer satisfaction or offer compensations for mis-treating customers).  At least she said she was sorry, but she NEVER asked if there was anything she could do to make up for the problems, nor did she offer any kind of compensation.  Only after the THIRD time of me saying 'I can't believe you didn''t offer me SOME kind of compensation, did she offer us a free breakfast.  However, it was too late, as we had to get on the road.  We left a comment card with her, explaining all of the issues that we had.  Also complained to Priceline.com who investigated the problem.  The Marriott management had the nerve to say that there was no note left at the front desk stating there was a problem.  (Guess the woman at the front desk *accidently* lost my comment card).  But, they told Priceline that they did offer to clean my room, which I turned down.  If there was no problem, why would they offer to clean my room???  Priceline bought that!!!  They NEVER OFFERED TO CLEAN MY ROOM and I wouldn't have turned that offer down!  Honestly, this is the second time my family has had problems with hotels mistreating us, yet because we were Priceline customers, the hotels don't feel the need to rectify customer issues.  I don't know that I will use Priceline again, firstly because I don't want to stay at a Marriott again and secondly, I don't want to deal with the headaches when something goes wrong.  In my opinion, this hotel isn't getting enough customers to allow them to hire enough maids to properly and routinely clean the rooms.  The staff at this hotel doesn't careMore</t>
   </si>
   <si>
+    <t>Karen123Amsterdam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r14446749-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2374,6 +2671,9 @@
     <t>February 2008</t>
   </si>
   <si>
+    <t>rmcneely</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r13908812-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2389,6 +2689,9 @@
     <t>This is your basic Courtyard.  I had to change rooms when I arrived from the east coast due to non functioning internet modem in the room.   Next room had an intermittent internet connection.  I ended up switching to my verizon PC card for a slower but at least consistent internet connection.   I asked for a late check out.  Being a Platinum Marriott member I would expect at least 2 hours but got a whole 1 hour.   I'll be back in the area in 2 weeks but won't stay here again.  OK hotel if a solid internet connection isn't necessary for your work.</t>
   </si>
   <si>
+    <t>CMH-JFK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r12146523-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2410,6 +2713,9 @@
     <t>The Courtyard Laguna Hills/Irvine Spectrum was perfect for our stay in Orange County while visiting family in Rancho Santa Margarita.  It is between the Laguna Hills Mall and the Irvine Spectrum Center.  Both feature a lot of shopping opportunities.  The room was on par with other Courtyard hotels, which means that it was excellent.  There was a refrigerator in the room which can come in handy.  They had Otis Spunkmeyer cookies in the evening.  I did not try breakfast since you have to pay like all Courtyards.  The front staff was friendly and courteous.  The area is safe and it has easy access to the 5 freeway.  I really don't have any complaints since this hotel did fit all my needs.More</t>
   </si>
   <si>
+    <t>SGV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r8395831-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2428,6 +2734,9 @@
     <t>April 2007</t>
   </si>
   <si>
+    <t>melargo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r8097620-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
   </si>
   <si>
@@ -2447,6 +2756,9 @@
   </si>
   <si>
     <t>My wife and I stayed here Thursday July 5th and Friday July 6th. The purpose of our trip was to visit with my wie's aunt in Santa Margarita. The hotel is close to shopping and restaurants where I-5 and the 405 split...it would help if you have a car with a GPS. Very nice of the hotel to provide access to the internet in their lobby. They also provide fresh water with lemons and apples. For $10.75 per person, the breakfast buffet did not look that appetizing so we went out to eat. I guess I was comparing it to the Marriott Courtyard where we stayed at in Portland. They had an awesome breakfast buffet.Our room 205 was standard for a Marriott Courtyard but the shower was great. The workout room was small but adequate. Plenty of parking available on the property.The employees behind the desk were very polite and helpful. I would stay here again wen in the area and I would recommend this property.More</t>
+  </si>
+  <si>
+    <t>fwtexastraveller</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32589-d77488-r5707166-Courtyard_Laguna_Hills_Irvine_Spectrum_Orange_County-Laguna_Hills_California.html</t>
@@ -3020,43 +3332,47 @@
       <c r="A2" t="n">
         <v>27514</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>132330</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -3074,50 +3390,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27514</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>132331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3131,50 +3451,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27514</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>132332</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -3194,50 +3518,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27514</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>132333</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -3257,50 +3585,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27514</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>132334</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -3320,50 +3652,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27514</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>3891</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -3383,50 +3719,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27514</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>2520</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -3444,50 +3784,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27514</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3501,41 +3845,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>27514</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>132335</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -3554,50 +3902,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>27514</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>8062</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3609,56 +3961,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="X11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>27514</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>132336</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -3678,50 +4034,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>27514</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>90126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3739,50 +4099,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>27514</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>132337</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3802,50 +4166,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>27514</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>8371</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3863,50 +4231,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>27514</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>132338</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3924,56 +4296,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="X16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="Y16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>27514</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>132339</v>
+      </c>
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="J17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3987,50 +4363,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>27514</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>132340</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4042,56 +4422,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="X18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="Y18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>27514</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>132341</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="L19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -4111,50 +4495,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>27514</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>4910</v>
+      </c>
+      <c r="C20" t="s">
+        <v>184</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4168,50 +4556,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>27514</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="L21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="O21" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -4227,56 +4619,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="X21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="Y21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>27514</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>132342</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="J22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="O22" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4290,50 +4686,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>27514</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>132343</v>
+      </c>
+      <c r="C23" t="s">
+        <v>210</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="J23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="K23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="O23" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4345,56 +4745,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="X23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="Y23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>27514</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>132344</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="J24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="K24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4408,50 +4812,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>27514</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>132345</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4463,56 +4871,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="X25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="Y25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>27514</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>132346</v>
+      </c>
+      <c r="C26" t="s">
+        <v>237</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4530,56 +4942,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="X26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="Y26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>27514</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>18650</v>
+      </c>
+      <c r="C27" t="s">
+        <v>246</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="J27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="L27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="O27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4597,56 +5013,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="X27" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="Y27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27514</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>132347</v>
+      </c>
+      <c r="C28" t="s">
+        <v>254</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="J28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="O28" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4658,56 +5078,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="X28" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="Y28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>27514</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>132348</v>
+      </c>
+      <c r="C29" t="s">
+        <v>261</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="J29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="K29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="O29" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4725,47 +5149,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="X29" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="Y29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>27514</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>1436</v>
+      </c>
+      <c r="C30" t="s">
+        <v>269</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="J30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="K30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="L30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
@@ -4782,56 +5210,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="X30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="Y30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>27514</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>132349</v>
+      </c>
+      <c r="C31" t="s">
+        <v>278</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="J31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="K31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4849,50 +5281,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>27514</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>132350</v>
+      </c>
+      <c r="C32" t="s">
+        <v>286</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4910,50 +5346,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>27514</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>132351</v>
+      </c>
+      <c r="C33" t="s">
+        <v>294</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="J33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="K33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="O33" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4967,50 +5407,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>27514</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>118261</v>
+      </c>
+      <c r="C34" t="s">
+        <v>300</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="J34" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="K34" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="O34" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5022,56 +5466,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="X34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="Y34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>27514</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>132352</v>
+      </c>
+      <c r="C35" t="s">
+        <v>309</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="J35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5085,50 +5533,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>27514</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>132353</v>
+      </c>
+      <c r="C36" t="s">
+        <v>316</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="J36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="L36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5142,50 +5594,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>27514</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>132354</v>
+      </c>
+      <c r="C37" t="s">
+        <v>322</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="J37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="K37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5203,56 +5659,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="X37" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="Y37" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>27514</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>80731</v>
+      </c>
+      <c r="C38" t="s">
+        <v>332</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="J38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="K38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="L38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="O38" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5268,56 +5728,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="X38" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="Y38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>27514</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>132355</v>
+      </c>
+      <c r="C39" t="s">
+        <v>342</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="J39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="K39" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="O39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5331,50 +5795,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>27514</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>132356</v>
+      </c>
+      <c r="C40" t="s">
+        <v>348</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="J40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="K40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="L40" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5392,56 +5860,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="X40" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="Y40" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>27514</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>132357</v>
+      </c>
+      <c r="C41" t="s">
+        <v>357</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="J41" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="L41" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="O41" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -5459,56 +5931,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="X41" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="Y41" t="s">
-        <v>323</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>27514</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>132358</v>
+      </c>
+      <c r="C42" t="s">
+        <v>364</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="J42" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="K42" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5524,56 +6000,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="X42" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="Y42" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>27514</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>132359</v>
+      </c>
+      <c r="C43" t="s">
+        <v>373</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="J43" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="K43" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="L43" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="O43" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5589,56 +6069,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="X43" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="Y43" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>27514</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>132360</v>
+      </c>
+      <c r="C44" t="s">
+        <v>383</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="J44" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
       <c r="K44" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
       <c r="L44" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5650,56 +6134,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>346</v>
+        <v>389</v>
       </c>
       <c r="X44" t="s">
-        <v>347</v>
+        <v>390</v>
       </c>
       <c r="Y44" t="s">
-        <v>348</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>27514</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>132361</v>
+      </c>
+      <c r="C45" t="s">
+        <v>392</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="J45" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="K45" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="L45" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="O45" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5711,56 +6199,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="X45" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="Y45" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>27514</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>132362</v>
+      </c>
+      <c r="C46" t="s">
+        <v>401</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>357</v>
+        <v>402</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>358</v>
+        <v>403</v>
       </c>
       <c r="J46" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="K46" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="L46" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="O46" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5772,56 +6264,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="X46" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="Y46" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>27514</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>132363</v>
+      </c>
+      <c r="C47" t="s">
+        <v>408</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>363</v>
+        <v>409</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="J47" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="K47" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
       <c r="L47" t="s">
-        <v>367</v>
+        <v>413</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="O47" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5841,50 +6337,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>368</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>27514</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>15668</v>
+      </c>
+      <c r="C48" t="s">
+        <v>415</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="J48" t="s">
-        <v>371</v>
+        <v>418</v>
       </c>
       <c r="K48" t="s">
-        <v>372</v>
+        <v>419</v>
       </c>
       <c r="L48" t="s">
-        <v>373</v>
+        <v>420</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="O48" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -5902,56 +6402,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>374</v>
+        <v>421</v>
       </c>
       <c r="X48" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="Y48" t="s">
-        <v>376</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>27514</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>3525</v>
+      </c>
+      <c r="C49" t="s">
+        <v>424</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="J49" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="K49" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="L49" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="O49" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5963,56 +6467,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="X49" t="s">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="Y49" t="s">
-        <v>384</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>27514</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>132364</v>
+      </c>
+      <c r="C50" t="s">
+        <v>433</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="J50" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="K50" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="L50" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6028,56 +6536,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="X50" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="Y50" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>27514</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>132356</v>
+      </c>
+      <c r="C51" t="s">
+        <v>357</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="J51" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="K51" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="L51" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="O51" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -6091,56 +6603,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="X51" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="Y51" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>27514</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>132365</v>
+      </c>
+      <c r="C52" t="s">
+        <v>450</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="J52" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="K52" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="L52" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="O52" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6158,50 +6674,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>27514</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>69109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>457</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="J53" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="K53" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="L53" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="O53" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -6219,56 +6739,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="X53" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="Y53" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>27514</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>32025</v>
+      </c>
+      <c r="C54" t="s">
+        <v>465</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="J54" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="K54" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="L54" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6286,56 +6810,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="X54" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="Y54" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>27514</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>132366</v>
+      </c>
+      <c r="C55" t="s">
+        <v>474</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="J55" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="K55" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="L55" t="s">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6353,56 +6881,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="X55" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="Y55" t="s">
-        <v>428</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>27514</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>132367</v>
+      </c>
+      <c r="C56" t="s">
+        <v>482</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="J56" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="K56" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="L56" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
       <c r="O56" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6424,56 +6956,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>435</v>
+        <v>489</v>
       </c>
       <c r="X56" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="Y56" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>27514</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>8437</v>
+      </c>
+      <c r="C57" t="s">
+        <v>492</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
+        <v>494</v>
+      </c>
+      <c r="J57" t="s">
+        <v>495</v>
+      </c>
+      <c r="K57" t="s">
+        <v>496</v>
+      </c>
+      <c r="L57" t="s">
+        <v>497</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
         <v>439</v>
       </c>
-      <c r="J57" t="s">
-        <v>440</v>
-      </c>
-      <c r="K57" t="s">
-        <v>441</v>
-      </c>
-      <c r="L57" t="s">
-        <v>442</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5</v>
-      </c>
-      <c r="N57" t="s">
-        <v>390</v>
-      </c>
       <c r="O57" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -6495,56 +7031,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="X57" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="Y57" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>27514</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>132368</v>
+      </c>
+      <c r="C58" t="s">
+        <v>499</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="J58" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="K58" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="L58" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6566,56 +7106,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
       <c r="X58" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="Y58" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>27514</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>132369</v>
+      </c>
+      <c r="C59" t="s">
+        <v>509</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="J59" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="K59" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="L59" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="O59" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6637,56 +7181,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="X59" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="Y59" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>27514</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>29440</v>
+      </c>
+      <c r="C60" t="s">
+        <v>519</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>463</v>
+        <v>521</v>
       </c>
       <c r="J60" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="K60" t="s">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="L60" t="s">
-        <v>466</v>
+        <v>524</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -6708,56 +7256,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>468</v>
+        <v>526</v>
       </c>
       <c r="X60" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
       <c r="Y60" t="s">
-        <v>470</v>
+        <v>528</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>27514</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>132370</v>
+      </c>
+      <c r="C61" t="s">
+        <v>529</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>471</v>
+        <v>530</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>472</v>
+        <v>531</v>
       </c>
       <c r="J61" t="s">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="K61" t="s">
-        <v>474</v>
+        <v>533</v>
       </c>
       <c r="L61" t="s">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6779,56 +7331,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>476</v>
+        <v>535</v>
       </c>
       <c r="X61" t="s">
-        <v>477</v>
+        <v>536</v>
       </c>
       <c r="Y61" t="s">
-        <v>478</v>
+        <v>537</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>27514</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>132371</v>
+      </c>
+      <c r="C62" t="s">
+        <v>538</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>479</v>
+        <v>539</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>480</v>
+        <v>540</v>
       </c>
       <c r="J62" t="s">
-        <v>481</v>
+        <v>541</v>
       </c>
       <c r="K62" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
       <c r="L62" t="s">
-        <v>483</v>
+        <v>543</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="O62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6850,56 +7406,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="X62" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="Y62" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>27514</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>38072</v>
+      </c>
+      <c r="C63" t="s">
+        <v>548</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>488</v>
+        <v>549</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>489</v>
+        <v>550</v>
       </c>
       <c r="J63" t="s">
-        <v>490</v>
+        <v>551</v>
       </c>
       <c r="K63" t="s">
-        <v>491</v>
+        <v>552</v>
       </c>
       <c r="L63" t="s">
-        <v>492</v>
+        <v>553</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
       <c r="O63" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6911,56 +7471,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="X63" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="Y63" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>27514</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>132372</v>
+      </c>
+      <c r="C64" t="s">
+        <v>557</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>497</v>
+        <v>559</v>
       </c>
       <c r="J64" t="s">
-        <v>498</v>
+        <v>560</v>
       </c>
       <c r="K64" t="s">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="L64" t="s">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>467</v>
+        <v>525</v>
       </c>
       <c r="O64" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6972,56 +7536,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="X64" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="Y64" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>27514</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>132373</v>
+      </c>
+      <c r="C65" t="s">
+        <v>564</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="J65" t="s">
-        <v>504</v>
+        <v>567</v>
       </c>
       <c r="K65" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="L65" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>484</v>
+        <v>544</v>
       </c>
       <c r="O65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7043,56 +7611,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="X65" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="Y65" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>27514</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>32127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>573</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>510</v>
+        <v>574</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="J66" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="K66" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
       <c r="L66" t="s">
-        <v>514</v>
+        <v>578</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -7114,56 +7686,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="X66" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="Y66" t="s">
-        <v>516</v>
+        <v>580</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>27514</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>132374</v>
+      </c>
+      <c r="C67" t="s">
+        <v>581</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>517</v>
+        <v>582</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="J67" t="s">
-        <v>519</v>
+        <v>584</v>
       </c>
       <c r="K67" t="s">
-        <v>520</v>
+        <v>585</v>
       </c>
       <c r="L67" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -7185,56 +7761,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="X67" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="Y67" t="s">
-        <v>523</v>
+        <v>588</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>27514</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>132375</v>
+      </c>
+      <c r="C68" t="s">
+        <v>589</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>524</v>
+        <v>590</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="J68" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="K68" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="L68" t="s">
-        <v>528</v>
+        <v>594</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>515</v>
+        <v>579</v>
       </c>
       <c r="O68" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P68" t="n">
         <v>2</v>
@@ -7256,56 +7836,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>529</v>
+        <v>595</v>
       </c>
       <c r="X68" t="s">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="Y68" t="s">
-        <v>531</v>
+        <v>597</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>27514</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>132376</v>
+      </c>
+      <c r="C69" t="s">
+        <v>598</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>532</v>
+        <v>599</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="J69" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="K69" t="s">
-        <v>535</v>
+        <v>602</v>
       </c>
       <c r="L69" t="s">
-        <v>536</v>
+        <v>603</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>537</v>
+        <v>604</v>
       </c>
       <c r="O69" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
@@ -7327,56 +7911,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>538</v>
+        <v>605</v>
       </c>
       <c r="X69" t="s">
-        <v>539</v>
+        <v>606</v>
       </c>
       <c r="Y69" t="s">
-        <v>540</v>
+        <v>607</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>27514</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C70" t="s">
+        <v>608</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="J70" t="s">
-        <v>534</v>
+        <v>601</v>
       </c>
       <c r="K70" t="s">
-        <v>543</v>
+        <v>611</v>
       </c>
       <c r="L70" t="s">
-        <v>544</v>
+        <v>612</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>537</v>
+        <v>604</v>
       </c>
       <c r="O70" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P70" t="n">
         <v>2</v>
@@ -7398,56 +7986,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>538</v>
+        <v>605</v>
       </c>
       <c r="X70" t="s">
-        <v>539</v>
+        <v>606</v>
       </c>
       <c r="Y70" t="s">
-        <v>545</v>
+        <v>613</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>27514</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>132377</v>
+      </c>
+      <c r="C71" t="s">
+        <v>614</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
       <c r="J71" t="s">
-        <v>548</v>
+        <v>617</v>
       </c>
       <c r="K71" t="s">
-        <v>549</v>
+        <v>618</v>
       </c>
       <c r="L71" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="O71" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7469,56 +8061,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="X71" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
       <c r="Y71" t="s">
-        <v>554</v>
+        <v>623</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>27514</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>132378</v>
+      </c>
+      <c r="C72" t="s">
+        <v>624</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>556</v>
+        <v>626</v>
       </c>
       <c r="J72" t="s">
-        <v>557</v>
+        <v>627</v>
       </c>
       <c r="K72" t="s">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="L72" t="s">
-        <v>559</v>
+        <v>629</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>560</v>
+        <v>630</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7540,56 +8136,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>561</v>
+        <v>631</v>
       </c>
       <c r="X72" t="s">
-        <v>562</v>
+        <v>632</v>
       </c>
       <c r="Y72" t="s">
-        <v>563</v>
+        <v>633</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>27514</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>132379</v>
+      </c>
+      <c r="C73" t="s">
+        <v>634</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>565</v>
+        <v>636</v>
       </c>
       <c r="J73" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
       <c r="K73" t="s">
-        <v>567</v>
+        <v>638</v>
       </c>
       <c r="L73" t="s">
-        <v>568</v>
+        <v>639</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>560</v>
+        <v>630</v>
       </c>
       <c r="O73" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7611,47 +8211,51 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>569</v>
+        <v>640</v>
       </c>
       <c r="X73" t="s">
-        <v>570</v>
+        <v>641</v>
       </c>
       <c r="Y73" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>27514</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>132380</v>
+      </c>
+      <c r="C74" t="s">
+        <v>643</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>572</v>
+        <v>644</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>573</v>
+        <v>645</v>
       </c>
       <c r="J74" t="s">
-        <v>574</v>
+        <v>646</v>
       </c>
       <c r="K74" t="s">
-        <v>575</v>
+        <v>647</v>
       </c>
       <c r="L74" t="s">
-        <v>576</v>
+        <v>648</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
@@ -7678,56 +8282,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>577</v>
+        <v>649</v>
       </c>
       <c r="X74" t="s">
-        <v>578</v>
+        <v>650</v>
       </c>
       <c r="Y74" t="s">
-        <v>579</v>
+        <v>651</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>27514</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>132381</v>
+      </c>
+      <c r="C75" t="s">
+        <v>652</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>580</v>
+        <v>653</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>581</v>
+        <v>654</v>
       </c>
       <c r="J75" t="s">
-        <v>582</v>
+        <v>655</v>
       </c>
       <c r="K75" t="s">
-        <v>583</v>
+        <v>656</v>
       </c>
       <c r="L75" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7749,56 +8357,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>586</v>
+        <v>659</v>
       </c>
       <c r="X75" t="s">
-        <v>587</v>
+        <v>660</v>
       </c>
       <c r="Y75" t="s">
-        <v>588</v>
+        <v>661</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>27514</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>132382</v>
+      </c>
+      <c r="C76" t="s">
+        <v>662</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>589</v>
+        <v>663</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>590</v>
+        <v>664</v>
       </c>
       <c r="J76" t="s">
-        <v>591</v>
+        <v>665</v>
       </c>
       <c r="K76" t="s">
-        <v>592</v>
+        <v>666</v>
       </c>
       <c r="L76" t="s">
-        <v>593</v>
+        <v>667</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>594</v>
+        <v>668</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7820,56 +8432,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>595</v>
+        <v>669</v>
       </c>
       <c r="X76" t="s">
-        <v>596</v>
+        <v>670</v>
       </c>
       <c r="Y76" t="s">
-        <v>597</v>
+        <v>671</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>27514</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>14940</v>
+      </c>
+      <c r="C77" t="s">
+        <v>672</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>598</v>
+        <v>673</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>599</v>
+        <v>674</v>
       </c>
       <c r="J77" t="s">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="K77" t="s">
-        <v>601</v>
+        <v>676</v>
       </c>
       <c r="L77" t="s">
-        <v>602</v>
+        <v>677</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="O77" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="n">
@@ -7889,56 +8505,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
       <c r="X77" t="s">
-        <v>605</v>
+        <v>680</v>
       </c>
       <c r="Y77" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>27514</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>132383</v>
+      </c>
+      <c r="C78" t="s">
+        <v>682</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>607</v>
+        <v>683</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>608</v>
+        <v>684</v>
       </c>
       <c r="J78" t="s">
-        <v>609</v>
+        <v>685</v>
       </c>
       <c r="K78" t="s">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="L78" t="s">
-        <v>611</v>
+        <v>687</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="O78" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7960,56 +8580,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>612</v>
+        <v>688</v>
       </c>
       <c r="X78" t="s">
-        <v>613</v>
+        <v>689</v>
       </c>
       <c r="Y78" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>27514</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>132384</v>
+      </c>
+      <c r="C79" t="s">
+        <v>691</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>615</v>
+        <v>692</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>616</v>
+        <v>693</v>
       </c>
       <c r="J79" t="s">
-        <v>617</v>
+        <v>694</v>
       </c>
       <c r="K79" t="s">
-        <v>618</v>
+        <v>695</v>
       </c>
       <c r="L79" t="s">
-        <v>619</v>
+        <v>696</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>620</v>
+        <v>697</v>
       </c>
       <c r="O79" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -8031,56 +8655,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>621</v>
+        <v>698</v>
       </c>
       <c r="X79" t="s">
-        <v>622</v>
+        <v>699</v>
       </c>
       <c r="Y79" t="s">
-        <v>623</v>
+        <v>700</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>27514</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>132385</v>
+      </c>
+      <c r="C80" t="s">
+        <v>701</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>624</v>
+        <v>702</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>625</v>
+        <v>703</v>
       </c>
       <c r="J80" t="s">
-        <v>626</v>
+        <v>704</v>
       </c>
       <c r="K80" t="s">
-        <v>627</v>
+        <v>705</v>
       </c>
       <c r="L80" t="s">
-        <v>628</v>
+        <v>706</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>629</v>
+        <v>707</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8102,56 +8730,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>630</v>
+        <v>708</v>
       </c>
       <c r="X80" t="s">
-        <v>631</v>
+        <v>709</v>
       </c>
       <c r="Y80" t="s">
-        <v>632</v>
+        <v>710</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>27514</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>132386</v>
+      </c>
+      <c r="C81" t="s">
+        <v>711</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>633</v>
+        <v>712</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>634</v>
+        <v>713</v>
       </c>
       <c r="J81" t="s">
-        <v>635</v>
+        <v>714</v>
       </c>
       <c r="K81" t="s">
-        <v>636</v>
+        <v>715</v>
       </c>
       <c r="L81" t="s">
-        <v>637</v>
+        <v>716</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>638</v>
+        <v>717</v>
       </c>
       <c r="O81" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8173,56 +8805,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>639</v>
+        <v>718</v>
       </c>
       <c r="X81" t="s">
-        <v>640</v>
+        <v>719</v>
       </c>
       <c r="Y81" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>27514</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>132387</v>
+      </c>
+      <c r="C82" t="s">
+        <v>721</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>642</v>
+        <v>722</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>643</v>
+        <v>723</v>
       </c>
       <c r="J82" t="s">
-        <v>644</v>
+        <v>724</v>
       </c>
       <c r="K82" t="s">
-        <v>645</v>
+        <v>725</v>
       </c>
       <c r="L82" t="s">
-        <v>646</v>
+        <v>726</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>647</v>
+        <v>727</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8244,56 +8880,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="X82" t="s">
-        <v>649</v>
+        <v>729</v>
       </c>
       <c r="Y82" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>27514</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>132388</v>
+      </c>
+      <c r="C83" t="s">
+        <v>731</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>651</v>
+        <v>732</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>652</v>
+        <v>733</v>
       </c>
       <c r="J83" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="K83" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
       <c r="L83" t="s">
-        <v>655</v>
+        <v>736</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8315,56 +8955,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="X83" t="s">
-        <v>649</v>
+        <v>729</v>
       </c>
       <c r="Y83" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>27514</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>132389</v>
+      </c>
+      <c r="C84" t="s">
+        <v>739</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>658</v>
+        <v>740</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>659</v>
+        <v>741</v>
       </c>
       <c r="J84" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="K84" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="L84" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
       <c r="O84" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -8386,56 +9030,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="X84" t="s">
-        <v>649</v>
+        <v>729</v>
       </c>
       <c r="Y84" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>27514</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>132390</v>
+      </c>
+      <c r="C85" t="s">
+        <v>746</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>664</v>
+        <v>747</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>665</v>
+        <v>748</v>
       </c>
       <c r="J85" t="s">
-        <v>666</v>
+        <v>749</v>
       </c>
       <c r="K85" t="s">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="L85" t="s">
-        <v>668</v>
+        <v>751</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>669</v>
+        <v>752</v>
       </c>
       <c r="O85" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -8457,56 +9105,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>670</v>
+        <v>753</v>
       </c>
       <c r="X85" t="s">
-        <v>671</v>
+        <v>754</v>
       </c>
       <c r="Y85" t="s">
-        <v>672</v>
+        <v>755</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>27514</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>132391</v>
+      </c>
+      <c r="C86" t="s">
+        <v>756</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>673</v>
+        <v>757</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>674</v>
+        <v>758</v>
       </c>
       <c r="J86" t="s">
-        <v>675</v>
+        <v>759</v>
       </c>
       <c r="K86" t="s">
-        <v>676</v>
+        <v>760</v>
       </c>
       <c r="L86" t="s">
-        <v>677</v>
+        <v>761</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>678</v>
+        <v>762</v>
       </c>
       <c r="O86" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8530,50 +9182,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>677</v>
+        <v>761</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>27514</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C87" t="s">
+        <v>763</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>679</v>
+        <v>764</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>680</v>
+        <v>765</v>
       </c>
       <c r="J87" t="s">
-        <v>681</v>
+        <v>766</v>
       </c>
       <c r="K87" t="s">
-        <v>682</v>
+        <v>767</v>
       </c>
       <c r="L87" t="s">
-        <v>683</v>
+        <v>768</v>
       </c>
       <c r="M87" t="n">
         <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>684</v>
+        <v>769</v>
       </c>
       <c r="O87" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P87" t="n">
         <v>3</v>
@@ -8597,50 +9253,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>685</v>
+        <v>770</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>27514</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>132392</v>
+      </c>
+      <c r="C88" t="s">
+        <v>771</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>686</v>
+        <v>772</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>687</v>
+        <v>773</v>
       </c>
       <c r="J88" t="s">
-        <v>688</v>
+        <v>774</v>
       </c>
       <c r="K88" t="s">
-        <v>689</v>
+        <v>775</v>
       </c>
       <c r="L88" t="s">
-        <v>690</v>
+        <v>776</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>684</v>
+        <v>769</v>
       </c>
       <c r="O88" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -8664,50 +9324,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>690</v>
+        <v>776</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>27514</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>132393</v>
+      </c>
+      <c r="C89" t="s">
+        <v>777</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>691</v>
+        <v>778</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>692</v>
+        <v>779</v>
       </c>
       <c r="J89" t="s">
-        <v>693</v>
+        <v>780</v>
       </c>
       <c r="K89" t="s">
-        <v>694</v>
+        <v>781</v>
       </c>
       <c r="L89" t="s">
-        <v>695</v>
+        <v>782</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>696</v>
+        <v>783</v>
       </c>
       <c r="O89" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -8727,56 +9391,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>697</v>
+        <v>784</v>
       </c>
       <c r="X89" t="s">
-        <v>698</v>
+        <v>785</v>
       </c>
       <c r="Y89" t="s">
-        <v>699</v>
+        <v>786</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>27514</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>69626</v>
+      </c>
+      <c r="C90" t="s">
+        <v>787</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>700</v>
+        <v>788</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>701</v>
+        <v>789</v>
       </c>
       <c r="J90" t="s">
-        <v>702</v>
+        <v>790</v>
       </c>
       <c r="K90" t="s">
-        <v>703</v>
+        <v>791</v>
       </c>
       <c r="L90" t="s">
-        <v>704</v>
+        <v>792</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>705</v>
+        <v>793</v>
       </c>
       <c r="O90" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8792,56 +9460,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>706</v>
+        <v>794</v>
       </c>
       <c r="X90" t="s">
-        <v>698</v>
+        <v>785</v>
       </c>
       <c r="Y90" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>27514</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>132394</v>
+      </c>
+      <c r="C91" t="s">
+        <v>796</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>708</v>
+        <v>797</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>709</v>
+        <v>798</v>
       </c>
       <c r="J91" t="s">
-        <v>710</v>
+        <v>799</v>
       </c>
       <c r="K91" t="s">
-        <v>711</v>
+        <v>800</v>
       </c>
       <c r="L91" t="s">
-        <v>712</v>
+        <v>801</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>713</v>
+        <v>802</v>
       </c>
       <c r="O91" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8859,56 +9531,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>706</v>
+        <v>794</v>
       </c>
       <c r="X91" t="s">
-        <v>698</v>
+        <v>785</v>
       </c>
       <c r="Y91" t="s">
-        <v>714</v>
+        <v>803</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>27514</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>132395</v>
+      </c>
+      <c r="C92" t="s">
+        <v>804</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>715</v>
+        <v>805</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>716</v>
+        <v>806</v>
       </c>
       <c r="J92" t="s">
-        <v>717</v>
+        <v>807</v>
       </c>
       <c r="K92" t="s">
-        <v>718</v>
+        <v>808</v>
       </c>
       <c r="L92" t="s">
-        <v>719</v>
+        <v>809</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="O92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8926,47 +9602,51 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>706</v>
+        <v>794</v>
       </c>
       <c r="X92" t="s">
-        <v>698</v>
+        <v>785</v>
       </c>
       <c r="Y92" t="s">
-        <v>721</v>
+        <v>811</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>27514</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>132396</v>
+      </c>
+      <c r="C93" t="s">
+        <v>812</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>722</v>
+        <v>813</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>723</v>
+        <v>814</v>
       </c>
       <c r="J93" t="s">
-        <v>724</v>
+        <v>815</v>
       </c>
       <c r="K93" t="s">
-        <v>725</v>
+        <v>816</v>
       </c>
       <c r="L93" t="s">
-        <v>726</v>
+        <v>817</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
@@ -8995,41 +9675,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>727</v>
+        <v>818</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>27514</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>132397</v>
+      </c>
+      <c r="C94" t="s">
+        <v>819</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>728</v>
+        <v>820</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>729</v>
+        <v>821</v>
       </c>
       <c r="J94" t="s">
-        <v>730</v>
+        <v>822</v>
       </c>
       <c r="K94" t="s">
-        <v>731</v>
+        <v>823</v>
       </c>
       <c r="L94" t="s">
-        <v>732</v>
+        <v>824</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
@@ -9058,50 +9742,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>733</v>
+        <v>825</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>27514</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>132398</v>
+      </c>
+      <c r="C95" t="s">
+        <v>826</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>734</v>
+        <v>827</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>735</v>
+        <v>828</v>
       </c>
       <c r="J95" t="s">
-        <v>736</v>
+        <v>829</v>
       </c>
       <c r="K95" t="s">
-        <v>737</v>
+        <v>830</v>
       </c>
       <c r="L95" t="s">
-        <v>738</v>
+        <v>831</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>739</v>
+        <v>832</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -9125,50 +9813,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>738</v>
+        <v>831</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>27514</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>132399</v>
+      </c>
+      <c r="C96" t="s">
+        <v>833</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>740</v>
+        <v>834</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>741</v>
+        <v>835</v>
       </c>
       <c r="J96" t="s">
-        <v>742</v>
+        <v>836</v>
       </c>
       <c r="K96" t="s">
-        <v>743</v>
+        <v>837</v>
       </c>
       <c r="L96" t="s">
-        <v>744</v>
+        <v>838</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
       <c r="N96" t="s">
-        <v>739</v>
+        <v>832</v>
       </c>
       <c r="O96" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P96" t="n">
         <v>1</v>
@@ -9192,50 +9884,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>745</v>
+        <v>839</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>27514</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>132400</v>
+      </c>
+      <c r="C97" t="s">
+        <v>840</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>746</v>
+        <v>841</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>747</v>
+        <v>842</v>
       </c>
       <c r="J97" t="s">
-        <v>748</v>
+        <v>843</v>
       </c>
       <c r="K97" t="s">
-        <v>749</v>
+        <v>844</v>
       </c>
       <c r="L97" t="s">
-        <v>750</v>
+        <v>845</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>751</v>
+        <v>846</v>
       </c>
       <c r="O97" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9259,50 +9955,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>752</v>
+        <v>847</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>27514</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>132401</v>
+      </c>
+      <c r="C98" t="s">
+        <v>848</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>753</v>
+        <v>849</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>754</v>
+        <v>850</v>
       </c>
       <c r="J98" t="s">
-        <v>755</v>
+        <v>851</v>
       </c>
       <c r="K98" t="s">
-        <v>756</v>
+        <v>852</v>
       </c>
       <c r="L98" t="s">
-        <v>757</v>
+        <v>853</v>
       </c>
       <c r="M98" t="n">
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>758</v>
+        <v>854</v>
       </c>
       <c r="O98" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9326,50 +10026,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>759</v>
+        <v>855</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>27514</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>132402</v>
+      </c>
+      <c r="C99" t="s">
+        <v>856</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>760</v>
+        <v>857</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>761</v>
+        <v>858</v>
       </c>
       <c r="J99" t="s">
-        <v>762</v>
+        <v>859</v>
       </c>
       <c r="K99" t="s">
-        <v>763</v>
+        <v>860</v>
       </c>
       <c r="L99" t="s">
-        <v>764</v>
+        <v>861</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>765</v>
+        <v>862</v>
       </c>
       <c r="O99" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P99" t="n">
         <v>3</v>
@@ -9393,50 +10097,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>766</v>
+        <v>863</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>27514</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>132403</v>
+      </c>
+      <c r="C100" t="s">
+        <v>864</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>767</v>
+        <v>865</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>768</v>
+        <v>866</v>
       </c>
       <c r="J100" t="s">
-        <v>769</v>
+        <v>867</v>
       </c>
       <c r="K100" t="s">
-        <v>770</v>
+        <v>868</v>
       </c>
       <c r="L100" t="s">
-        <v>771</v>
+        <v>869</v>
       </c>
       <c r="M100" t="n">
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>772</v>
+        <v>870</v>
       </c>
       <c r="O100" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P100" t="n">
         <v>2</v>
@@ -9460,50 +10168,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>773</v>
+        <v>871</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>27514</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>132404</v>
+      </c>
+      <c r="C101" t="s">
+        <v>872</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>774</v>
+        <v>873</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>775</v>
+        <v>874</v>
       </c>
       <c r="J101" t="s">
-        <v>776</v>
+        <v>875</v>
       </c>
       <c r="K101" t="s">
-        <v>777</v>
+        <v>876</v>
       </c>
       <c r="L101" t="s">
-        <v>778</v>
+        <v>877</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>779</v>
+        <v>878</v>
       </c>
       <c r="O101" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -9527,50 +10239,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>778</v>
+        <v>877</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>27514</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>132405</v>
+      </c>
+      <c r="C102" t="s">
+        <v>879</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>780</v>
+        <v>880</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>781</v>
+        <v>881</v>
       </c>
       <c r="J102" t="s">
-        <v>782</v>
+        <v>882</v>
       </c>
       <c r="K102" t="s">
-        <v>783</v>
+        <v>883</v>
       </c>
       <c r="L102" t="s">
-        <v>784</v>
+        <v>884</v>
       </c>
       <c r="M102" t="n">
         <v>2</v>
       </c>
       <c r="N102" t="s">
-        <v>779</v>
+        <v>878</v>
       </c>
       <c r="O102" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="P102" t="n">
         <v>1</v>
@@ -9594,50 +10310,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>784</v>
+        <v>884</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>27514</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>132406</v>
+      </c>
+      <c r="C103" t="s">
+        <v>885</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>785</v>
+        <v>886</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>786</v>
+        <v>887</v>
       </c>
       <c r="J103" t="s">
-        <v>787</v>
+        <v>888</v>
       </c>
       <c r="K103" t="s">
-        <v>788</v>
+        <v>889</v>
       </c>
       <c r="L103" t="s">
-        <v>789</v>
+        <v>890</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>790</v>
+        <v>891</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>5</v>
@@ -9661,50 +10381,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>791</v>
+        <v>892</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>27514</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>132407</v>
+      </c>
+      <c r="C104" t="s">
+        <v>893</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>792</v>
+        <v>894</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>793</v>
+        <v>895</v>
       </c>
       <c r="J104" t="s">
-        <v>794</v>
+        <v>896</v>
       </c>
       <c r="K104" t="s">
-        <v>795</v>
+        <v>897</v>
       </c>
       <c r="L104" t="s">
-        <v>796</v>
+        <v>898</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>797</v>
+        <v>899</v>
       </c>
       <c r="O104" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9728,50 +10452,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>796</v>
+        <v>898</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>27514</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>132408</v>
+      </c>
+      <c r="C105" t="s">
+        <v>900</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>798</v>
+        <v>901</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>799</v>
+        <v>902</v>
       </c>
       <c r="J105" t="s">
-        <v>800</v>
+        <v>903</v>
       </c>
       <c r="K105" t="s">
-        <v>801</v>
+        <v>904</v>
       </c>
       <c r="L105" t="s">
-        <v>802</v>
+        <v>905</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>803</v>
+        <v>906</v>
       </c>
       <c r="O105" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9795,50 +10523,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>804</v>
+        <v>907</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>27514</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>132409</v>
+      </c>
+      <c r="C106" t="s">
+        <v>908</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>805</v>
+        <v>909</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>806</v>
+        <v>910</v>
       </c>
       <c r="J106" t="s">
-        <v>807</v>
+        <v>911</v>
       </c>
       <c r="K106" t="s">
-        <v>808</v>
+        <v>912</v>
       </c>
       <c r="L106" t="s">
-        <v>809</v>
+        <v>913</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>810</v>
+        <v>914</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9862,41 +10594,45 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>811</v>
+        <v>915</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>27514</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>100</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>812</v>
+        <v>916</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>813</v>
+        <v>917</v>
       </c>
       <c r="J107" t="s">
-        <v>814</v>
+        <v>918</v>
       </c>
       <c r="K107" t="s">
-        <v>815</v>
+        <v>919</v>
       </c>
       <c r="L107" t="s">
-        <v>816</v>
+        <v>920</v>
       </c>
       <c r="M107" t="n">
         <v>1</v>
@@ -9923,41 +10659,45 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>816</v>
+        <v>920</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>27514</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>100</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>817</v>
+        <v>921</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>818</v>
+        <v>922</v>
       </c>
       <c r="J108" t="s">
-        <v>819</v>
+        <v>923</v>
       </c>
       <c r="K108" t="s">
-        <v>820</v>
+        <v>924</v>
       </c>
       <c r="L108" t="s">
-        <v>821</v>
+        <v>925</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
@@ -9976,41 +10716,45 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>822</v>
+        <v>926</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>27514</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>100</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>823</v>
+        <v>927</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>824</v>
+        <v>928</v>
       </c>
       <c r="J109" t="s">
-        <v>825</v>
+        <v>929</v>
       </c>
       <c r="K109" t="s">
-        <v>826</v>
+        <v>930</v>
       </c>
       <c r="L109" t="s">
-        <v>827</v>
+        <v>931</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
@@ -10029,7 +10773,7 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>827</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_149.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_149.xlsx
@@ -3333,7 +3333,7 @@
         <v>27514</v>
       </c>
       <c r="B2" t="n">
-        <v>132330</v>
+        <v>163123</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3398,7 +3398,7 @@
         <v>27514</v>
       </c>
       <c r="B3" t="n">
-        <v>132331</v>
+        <v>163124</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -3459,7 +3459,7 @@
         <v>27514</v>
       </c>
       <c r="B4" t="n">
-        <v>132332</v>
+        <v>163125</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -3526,7 +3526,7 @@
         <v>27514</v>
       </c>
       <c r="B5" t="n">
-        <v>132333</v>
+        <v>163126</v>
       </c>
       <c r="C5" t="s">
         <v>71</v>
@@ -3593,7 +3593,7 @@
         <v>27514</v>
       </c>
       <c r="B6" t="n">
-        <v>132334</v>
+        <v>163127</v>
       </c>
       <c r="C6" t="s">
         <v>78</v>
@@ -3853,7 +3853,7 @@
         <v>27514</v>
       </c>
       <c r="B10" t="n">
-        <v>132335</v>
+        <v>163128</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -3975,7 +3975,7 @@
         <v>27514</v>
       </c>
       <c r="B12" t="n">
-        <v>132336</v>
+        <v>163129</v>
       </c>
       <c r="C12" t="s">
         <v>125</v>
@@ -4107,7 +4107,7 @@
         <v>27514</v>
       </c>
       <c r="B14" t="n">
-        <v>132337</v>
+        <v>163130</v>
       </c>
       <c r="C14" t="s">
         <v>138</v>
@@ -4239,7 +4239,7 @@
         <v>27514</v>
       </c>
       <c r="B16" t="n">
-        <v>132338</v>
+        <v>163131</v>
       </c>
       <c r="C16" t="s">
         <v>153</v>
@@ -4310,7 +4310,7 @@
         <v>27514</v>
       </c>
       <c r="B17" t="n">
-        <v>132339</v>
+        <v>163132</v>
       </c>
       <c r="C17" t="s">
         <v>162</v>
@@ -4371,7 +4371,7 @@
         <v>27514</v>
       </c>
       <c r="B18" t="n">
-        <v>132340</v>
+        <v>163133</v>
       </c>
       <c r="C18" t="s">
         <v>169</v>
@@ -4436,7 +4436,7 @@
         <v>27514</v>
       </c>
       <c r="B19" t="n">
-        <v>132341</v>
+        <v>163134</v>
       </c>
       <c r="C19" t="s">
         <v>178</v>
@@ -4633,7 +4633,7 @@
         <v>27514</v>
       </c>
       <c r="B22" t="n">
-        <v>132342</v>
+        <v>163135</v>
       </c>
       <c r="C22" t="s">
         <v>202</v>
@@ -4694,7 +4694,7 @@
         <v>27514</v>
       </c>
       <c r="B23" t="n">
-        <v>132343</v>
+        <v>163136</v>
       </c>
       <c r="C23" t="s">
         <v>210</v>
@@ -4759,7 +4759,7 @@
         <v>27514</v>
       </c>
       <c r="B24" t="n">
-        <v>132344</v>
+        <v>163137</v>
       </c>
       <c r="C24" t="s">
         <v>220</v>
@@ -4820,7 +4820,7 @@
         <v>27514</v>
       </c>
       <c r="B25" t="n">
-        <v>132345</v>
+        <v>163138</v>
       </c>
       <c r="C25" t="s">
         <v>227</v>
@@ -4885,7 +4885,7 @@
         <v>27514</v>
       </c>
       <c r="B26" t="n">
-        <v>132346</v>
+        <v>163139</v>
       </c>
       <c r="C26" t="s">
         <v>237</v>
@@ -5027,7 +5027,7 @@
         <v>27514</v>
       </c>
       <c r="B28" t="n">
-        <v>132347</v>
+        <v>163140</v>
       </c>
       <c r="C28" t="s">
         <v>254</v>
@@ -5092,7 +5092,7 @@
         <v>27514</v>
       </c>
       <c r="B29" t="n">
-        <v>132348</v>
+        <v>163141</v>
       </c>
       <c r="C29" t="s">
         <v>261</v>
@@ -5224,7 +5224,7 @@
         <v>27514</v>
       </c>
       <c r="B31" t="n">
-        <v>132349</v>
+        <v>163142</v>
       </c>
       <c r="C31" t="s">
         <v>278</v>
@@ -5289,7 +5289,7 @@
         <v>27514</v>
       </c>
       <c r="B32" t="n">
-        <v>132350</v>
+        <v>163143</v>
       </c>
       <c r="C32" t="s">
         <v>286</v>
@@ -5354,7 +5354,7 @@
         <v>27514</v>
       </c>
       <c r="B33" t="n">
-        <v>132351</v>
+        <v>163144</v>
       </c>
       <c r="C33" t="s">
         <v>294</v>
@@ -5480,7 +5480,7 @@
         <v>27514</v>
       </c>
       <c r="B35" t="n">
-        <v>132352</v>
+        <v>163145</v>
       </c>
       <c r="C35" t="s">
         <v>309</v>
@@ -5541,7 +5541,7 @@
         <v>27514</v>
       </c>
       <c r="B36" t="n">
-        <v>132353</v>
+        <v>163146</v>
       </c>
       <c r="C36" t="s">
         <v>316</v>
@@ -5602,7 +5602,7 @@
         <v>27514</v>
       </c>
       <c r="B37" t="n">
-        <v>132354</v>
+        <v>163147</v>
       </c>
       <c r="C37" t="s">
         <v>322</v>
@@ -5742,7 +5742,7 @@
         <v>27514</v>
       </c>
       <c r="B39" t="n">
-        <v>132355</v>
+        <v>163148</v>
       </c>
       <c r="C39" t="s">
         <v>342</v>
@@ -5803,7 +5803,7 @@
         <v>27514</v>
       </c>
       <c r="B40" t="n">
-        <v>132356</v>
+        <v>163149</v>
       </c>
       <c r="C40" t="s">
         <v>348</v>
@@ -5874,7 +5874,7 @@
         <v>27514</v>
       </c>
       <c r="B41" t="n">
-        <v>132357</v>
+        <v>132343</v>
       </c>
       <c r="C41" t="s">
         <v>357</v>
@@ -5945,7 +5945,7 @@
         <v>27514</v>
       </c>
       <c r="B42" t="n">
-        <v>132358</v>
+        <v>163150</v>
       </c>
       <c r="C42" t="s">
         <v>364</v>
@@ -6014,7 +6014,7 @@
         <v>27514</v>
       </c>
       <c r="B43" t="n">
-        <v>132359</v>
+        <v>163151</v>
       </c>
       <c r="C43" t="s">
         <v>373</v>
@@ -6083,7 +6083,7 @@
         <v>27514</v>
       </c>
       <c r="B44" t="n">
-        <v>132360</v>
+        <v>163152</v>
       </c>
       <c r="C44" t="s">
         <v>383</v>
@@ -6148,7 +6148,7 @@
         <v>27514</v>
       </c>
       <c r="B45" t="n">
-        <v>132361</v>
+        <v>163153</v>
       </c>
       <c r="C45" t="s">
         <v>392</v>
@@ -6213,7 +6213,7 @@
         <v>27514</v>
       </c>
       <c r="B46" t="n">
-        <v>132362</v>
+        <v>163154</v>
       </c>
       <c r="C46" t="s">
         <v>401</v>
@@ -6278,7 +6278,7 @@
         <v>27514</v>
       </c>
       <c r="B47" t="n">
-        <v>132363</v>
+        <v>163155</v>
       </c>
       <c r="C47" t="s">
         <v>408</v>
@@ -6481,7 +6481,7 @@
         <v>27514</v>
       </c>
       <c r="B50" t="n">
-        <v>132364</v>
+        <v>163156</v>
       </c>
       <c r="C50" t="s">
         <v>433</v>
@@ -6550,7 +6550,7 @@
         <v>27514</v>
       </c>
       <c r="B51" t="n">
-        <v>132356</v>
+        <v>132343</v>
       </c>
       <c r="C51" t="s">
         <v>357</v>
@@ -6617,7 +6617,7 @@
         <v>27514</v>
       </c>
       <c r="B52" t="n">
-        <v>132365</v>
+        <v>163157</v>
       </c>
       <c r="C52" t="s">
         <v>450</v>
@@ -6824,7 +6824,7 @@
         <v>27514</v>
       </c>
       <c r="B55" t="n">
-        <v>132366</v>
+        <v>163158</v>
       </c>
       <c r="C55" t="s">
         <v>474</v>
@@ -6895,7 +6895,7 @@
         <v>27514</v>
       </c>
       <c r="B56" t="n">
-        <v>132367</v>
+        <v>163159</v>
       </c>
       <c r="C56" t="s">
         <v>482</v>
@@ -7045,7 +7045,7 @@
         <v>27514</v>
       </c>
       <c r="B58" t="n">
-        <v>132368</v>
+        <v>163160</v>
       </c>
       <c r="C58" t="s">
         <v>499</v>
@@ -7120,7 +7120,7 @@
         <v>27514</v>
       </c>
       <c r="B59" t="n">
-        <v>132369</v>
+        <v>163161</v>
       </c>
       <c r="C59" t="s">
         <v>509</v>
@@ -7270,7 +7270,7 @@
         <v>27514</v>
       </c>
       <c r="B61" t="n">
-        <v>132370</v>
+        <v>163162</v>
       </c>
       <c r="C61" t="s">
         <v>529</v>
@@ -7345,7 +7345,7 @@
         <v>27514</v>
       </c>
       <c r="B62" t="n">
-        <v>132371</v>
+        <v>163163</v>
       </c>
       <c r="C62" t="s">
         <v>538</v>
@@ -7485,7 +7485,7 @@
         <v>27514</v>
       </c>
       <c r="B64" t="n">
-        <v>132372</v>
+        <v>163164</v>
       </c>
       <c r="C64" t="s">
         <v>557</v>
@@ -7550,7 +7550,7 @@
         <v>27514</v>
       </c>
       <c r="B65" t="n">
-        <v>132373</v>
+        <v>163165</v>
       </c>
       <c r="C65" t="s">
         <v>564</v>
@@ -7700,7 +7700,7 @@
         <v>27514</v>
       </c>
       <c r="B67" t="n">
-        <v>132374</v>
+        <v>163166</v>
       </c>
       <c r="C67" t="s">
         <v>581</v>
@@ -7775,7 +7775,7 @@
         <v>27514</v>
       </c>
       <c r="B68" t="n">
-        <v>132375</v>
+        <v>163167</v>
       </c>
       <c r="C68" t="s">
         <v>589</v>
@@ -7850,7 +7850,7 @@
         <v>27514</v>
       </c>
       <c r="B69" t="n">
-        <v>132376</v>
+        <v>163168</v>
       </c>
       <c r="C69" t="s">
         <v>598</v>
@@ -8000,7 +8000,7 @@
         <v>27514</v>
       </c>
       <c r="B71" t="n">
-        <v>132377</v>
+        <v>163169</v>
       </c>
       <c r="C71" t="s">
         <v>614</v>
@@ -8075,7 +8075,7 @@
         <v>27514</v>
       </c>
       <c r="B72" t="n">
-        <v>132378</v>
+        <v>163170</v>
       </c>
       <c r="C72" t="s">
         <v>624</v>
@@ -8150,7 +8150,7 @@
         <v>27514</v>
       </c>
       <c r="B73" t="n">
-        <v>132379</v>
+        <v>163171</v>
       </c>
       <c r="C73" t="s">
         <v>634</v>
@@ -8225,7 +8225,7 @@
         <v>27514</v>
       </c>
       <c r="B74" t="n">
-        <v>132380</v>
+        <v>163172</v>
       </c>
       <c r="C74" t="s">
         <v>643</v>
@@ -8296,7 +8296,7 @@
         <v>27514</v>
       </c>
       <c r="B75" t="n">
-        <v>132381</v>
+        <v>163173</v>
       </c>
       <c r="C75" t="s">
         <v>652</v>
@@ -8371,7 +8371,7 @@
         <v>27514</v>
       </c>
       <c r="B76" t="n">
-        <v>132382</v>
+        <v>163174</v>
       </c>
       <c r="C76" t="s">
         <v>662</v>
@@ -8519,7 +8519,7 @@
         <v>27514</v>
       </c>
       <c r="B78" t="n">
-        <v>132383</v>
+        <v>163175</v>
       </c>
       <c r="C78" t="s">
         <v>682</v>
@@ -8594,7 +8594,7 @@
         <v>27514</v>
       </c>
       <c r="B79" t="n">
-        <v>132384</v>
+        <v>163176</v>
       </c>
       <c r="C79" t="s">
         <v>691</v>
@@ -8669,7 +8669,7 @@
         <v>27514</v>
       </c>
       <c r="B80" t="n">
-        <v>132385</v>
+        <v>163177</v>
       </c>
       <c r="C80" t="s">
         <v>701</v>
@@ -8744,7 +8744,7 @@
         <v>27514</v>
       </c>
       <c r="B81" t="n">
-        <v>132386</v>
+        <v>163178</v>
       </c>
       <c r="C81" t="s">
         <v>711</v>
@@ -8819,7 +8819,7 @@
         <v>27514</v>
       </c>
       <c r="B82" t="n">
-        <v>132387</v>
+        <v>163179</v>
       </c>
       <c r="C82" t="s">
         <v>721</v>
@@ -8894,7 +8894,7 @@
         <v>27514</v>
       </c>
       <c r="B83" t="n">
-        <v>132388</v>
+        <v>163180</v>
       </c>
       <c r="C83" t="s">
         <v>731</v>
@@ -8969,7 +8969,7 @@
         <v>27514</v>
       </c>
       <c r="B84" t="n">
-        <v>132389</v>
+        <v>163181</v>
       </c>
       <c r="C84" t="s">
         <v>739</v>
@@ -9044,7 +9044,7 @@
         <v>27514</v>
       </c>
       <c r="B85" t="n">
-        <v>132390</v>
+        <v>163182</v>
       </c>
       <c r="C85" t="s">
         <v>746</v>
@@ -9119,7 +9119,7 @@
         <v>27514</v>
       </c>
       <c r="B86" t="n">
-        <v>132391</v>
+        <v>163183</v>
       </c>
       <c r="C86" t="s">
         <v>756</v>
@@ -9261,7 +9261,7 @@
         <v>27514</v>
       </c>
       <c r="B88" t="n">
-        <v>132392</v>
+        <v>163184</v>
       </c>
       <c r="C88" t="s">
         <v>771</v>
@@ -9332,7 +9332,7 @@
         <v>27514</v>
       </c>
       <c r="B89" t="n">
-        <v>132393</v>
+        <v>163185</v>
       </c>
       <c r="C89" t="s">
         <v>777</v>
@@ -9474,7 +9474,7 @@
         <v>27514</v>
       </c>
       <c r="B91" t="n">
-        <v>132394</v>
+        <v>163186</v>
       </c>
       <c r="C91" t="s">
         <v>796</v>
@@ -9545,7 +9545,7 @@
         <v>27514</v>
       </c>
       <c r="B92" t="n">
-        <v>132395</v>
+        <v>163187</v>
       </c>
       <c r="C92" t="s">
         <v>804</v>
@@ -9616,7 +9616,7 @@
         <v>27514</v>
       </c>
       <c r="B93" t="n">
-        <v>132396</v>
+        <v>163188</v>
       </c>
       <c r="C93" t="s">
         <v>812</v>
@@ -9683,7 +9683,7 @@
         <v>27514</v>
       </c>
       <c r="B94" t="n">
-        <v>132397</v>
+        <v>163189</v>
       </c>
       <c r="C94" t="s">
         <v>819</v>
@@ -9750,7 +9750,7 @@
         <v>27514</v>
       </c>
       <c r="B95" t="n">
-        <v>132398</v>
+        <v>163190</v>
       </c>
       <c r="C95" t="s">
         <v>826</v>
@@ -9821,7 +9821,7 @@
         <v>27514</v>
       </c>
       <c r="B96" t="n">
-        <v>132399</v>
+        <v>163191</v>
       </c>
       <c r="C96" t="s">
         <v>833</v>
@@ -9892,7 +9892,7 @@
         <v>27514</v>
       </c>
       <c r="B97" t="n">
-        <v>132400</v>
+        <v>163192</v>
       </c>
       <c r="C97" t="s">
         <v>840</v>
@@ -9963,7 +9963,7 @@
         <v>27514</v>
       </c>
       <c r="B98" t="n">
-        <v>132401</v>
+        <v>163193</v>
       </c>
       <c r="C98" t="s">
         <v>848</v>
@@ -10034,7 +10034,7 @@
         <v>27514</v>
       </c>
       <c r="B99" t="n">
-        <v>132402</v>
+        <v>163194</v>
       </c>
       <c r="C99" t="s">
         <v>856</v>
@@ -10105,7 +10105,7 @@
         <v>27514</v>
       </c>
       <c r="B100" t="n">
-        <v>132403</v>
+        <v>163195</v>
       </c>
       <c r="C100" t="s">
         <v>864</v>
@@ -10176,7 +10176,7 @@
         <v>27514</v>
       </c>
       <c r="B101" t="n">
-        <v>132404</v>
+        <v>163196</v>
       </c>
       <c r="C101" t="s">
         <v>872</v>
@@ -10247,7 +10247,7 @@
         <v>27514</v>
       </c>
       <c r="B102" t="n">
-        <v>132405</v>
+        <v>163197</v>
       </c>
       <c r="C102" t="s">
         <v>879</v>
@@ -10318,7 +10318,7 @@
         <v>27514</v>
       </c>
       <c r="B103" t="n">
-        <v>132406</v>
+        <v>163198</v>
       </c>
       <c r="C103" t="s">
         <v>885</v>
@@ -10389,7 +10389,7 @@
         <v>27514</v>
       </c>
       <c r="B104" t="n">
-        <v>132407</v>
+        <v>163199</v>
       </c>
       <c r="C104" t="s">
         <v>893</v>
@@ -10460,7 +10460,7 @@
         <v>27514</v>
       </c>
       <c r="B105" t="n">
-        <v>132408</v>
+        <v>163200</v>
       </c>
       <c r="C105" t="s">
         <v>900</v>
@@ -10531,7 +10531,7 @@
         <v>27514</v>
       </c>
       <c r="B106" t="n">
-        <v>132409</v>
+        <v>163201</v>
       </c>
       <c r="C106" t="s">
         <v>908</v>
